--- a/predictions_temperature_hour_wind_consumption_capacity_fast.xlsx
+++ b/predictions_temperature_hour_wind_consumption_capacity_fast.xlsx
@@ -525,13 +525,13 @@
         <v>3963.800048828125</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K2" t="n">
-        <v>0.428272886994057</v>
+        <v>0.291806538083432</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -563,13 +563,13 @@
         <v>3939</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K3" t="n">
-        <v>0.428272886994057</v>
+        <v>0.291806538083432</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -601,13 +601,13 @@
         <v>3917.5</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K4" t="n">
-        <v>0.428272886994057</v>
+        <v>0.291806538083432</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>3909</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K5" t="n">
-        <v>0.428272886994057</v>
+        <v>0.291806538083432</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>3913.89990234375</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K6" t="n">
-        <v>0.428272886994057</v>
+        <v>0.268485645567424</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>3927.300048828125</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K7" t="n">
-        <v>0.428272886994057</v>
+        <v>0.268485645567424</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>3945.39990234375</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K8" t="n">
-        <v>0.428272886994057</v>
+        <v>0.268485645567424</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -791,13 +791,13 @@
         <v>3958.699951171875</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K9" t="n">
-        <v>0.428272886994057</v>
+        <v>0.268485645567424</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>3996.89990234375</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5030794308157056</v>
+        <v>0.4046211625627874</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.8383580446243286</v>
       </c>
     </row>
     <row r="11">
@@ -867,16 +867,16 @@
         <v>4033.199951171875</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5030794308157056</v>
+        <v>0.4279420550787952</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.8415446281433105</v>
       </c>
     </row>
     <row r="12">
@@ -905,16 +905,16 @@
         <v>4085</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5030794308157056</v>
+        <v>0.4279420550787952</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.8635846376419067</v>
       </c>
     </row>
     <row r="13">
@@ -943,16 +943,16 @@
         <v>4159.7998046875</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5233674166428628</v>
+        <v>0.4279420550787952</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.8635846376419067</v>
       </c>
     </row>
     <row r="14">
@@ -981,16 +981,16 @@
         <v>4286</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7549630621991362</v>
+        <v>0.4248899898634974</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.8276734948158264</v>
       </c>
     </row>
     <row r="15">
@@ -1019,16 +1019,16 @@
         <v>4395.5</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4832920688823977</v>
+        <v>0.4248899898634974</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.8276734948158264</v>
       </c>
     </row>
     <row r="16">
@@ -1057,16 +1057,16 @@
         <v>4516.2998046875</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5335786574004403</v>
+        <v>0.4248899898634974</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.8276734948158264</v>
       </c>
     </row>
     <row r="17">
@@ -1095,16 +1095,16 @@
         <v>4657.89990234375</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5335786574004403</v>
+        <v>0.4015690973474895</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.824487030506134</v>
       </c>
     </row>
     <row r="18">
@@ -1133,16 +1133,16 @@
         <v>4814.7998046875</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5335786574004403</v>
+        <v>0.1103949139974289</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.824487030506134</v>
       </c>
     </row>
     <row r="19">
@@ -1171,16 +1171,16 @@
         <v>4959.10009765625</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5335786574004403</v>
+        <v>0.1103949139974289</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.824487030506134</v>
       </c>
     </row>
     <row r="20">
@@ -1209,16 +1209,16 @@
         <v>5095.60009765625</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001560679466877417</v>
+        <v>0.0009843179654155933</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5335786574004403</v>
+        <v>0.1337158065134368</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.8276734948158264</v>
       </c>
     </row>
     <row r="21">
@@ -1247,16 +1247,16 @@
         <v>5218.2001953125</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0147808836724413</v>
+        <v>0.0275230155861964</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5675491700370527</v>
+        <v>0.1416819255307502</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.8500218987464905</v>
       </c>
     </row>
     <row r="22">
@@ -1285,16 +1285,16 @@
         <v>5304.5</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2627808656911039</v>
+        <v>0.418871028076284</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8416314228362277</v>
+        <v>0.6155475030604248</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2473963350057602</v>
+        <v>1.282374620437622</v>
       </c>
     </row>
     <row r="23">
@@ -1323,16 +1323,16 @@
         <v>5426</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5618639925693729</v>
+        <v>1.25729582568527</v>
       </c>
       <c r="K23" t="n">
-        <v>1.300516006233289</v>
+        <v>1.157240867465413</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4673491716384888</v>
+        <v>1.710161924362183</v>
       </c>
     </row>
     <row r="24">
@@ -1361,16 +1361,16 @@
         <v>5544.39990234375</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J24" t="n">
-        <v>1.135375164551533</v>
+        <v>1.680659765643328</v>
       </c>
       <c r="K24" t="n">
-        <v>1.661906847108914</v>
+        <v>1.746082242654914</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8122745752334595</v>
+        <v>2.369202375411987</v>
       </c>
     </row>
     <row r="25">
@@ -1399,16 +1399,16 @@
         <v>5660.2001953125</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J25" t="n">
-        <v>1.404922953571262</v>
+        <v>2.617110064303813</v>
       </c>
       <c r="K25" t="n">
-        <v>2.251895873017615</v>
+        <v>2.48313618795369</v>
       </c>
       <c r="L25" t="n">
-        <v>1.302313923835754</v>
+        <v>3.131908416748047</v>
       </c>
     </row>
     <row r="26">
@@ -1437,16 +1437,16 @@
         <v>5763.10009765625</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J26" t="n">
-        <v>1.900696629243398</v>
+        <v>3.488938276851064</v>
       </c>
       <c r="K26" t="n">
-        <v>2.722632661986823</v>
+        <v>3.087418814818929</v>
       </c>
       <c r="L26" t="n">
-        <v>1.634866237640381</v>
+        <v>3.163712024688721</v>
       </c>
     </row>
     <row r="27">
@@ -1475,16 +1475,16 @@
         <v>5833.2998046875</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J27" t="n">
-        <v>2.42053518961674</v>
+        <v>3.711832139527259</v>
       </c>
       <c r="K27" t="n">
-        <v>3.150634645375956</v>
+        <v>3.826577983153435</v>
       </c>
       <c r="L27" t="n">
-        <v>1.441155791282654</v>
+        <v>3.929699897766113</v>
       </c>
     </row>
     <row r="28">
@@ -1513,16 +1513,16 @@
         <v>5879.5</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J28" t="n">
-        <v>3.340795034192166</v>
+        <v>6.739427184974057</v>
       </c>
       <c r="K28" t="n">
-        <v>4.25611750223015</v>
+        <v>5.737770724301406</v>
       </c>
       <c r="L28" t="n">
-        <v>2.693768978118896</v>
+        <v>5.484755039215088</v>
       </c>
     </row>
     <row r="29">
@@ -1551,16 +1551,16 @@
         <v>5911.39990234375</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J29" t="n">
-        <v>3.727079226177542</v>
+        <v>7.373529980265226</v>
       </c>
       <c r="K29" t="n">
-        <v>4.445615627410744</v>
+        <v>6.930483650091152</v>
       </c>
       <c r="L29" t="n">
-        <v>3.023218393325806</v>
+        <v>6.488836765289307</v>
       </c>
     </row>
     <row r="30">
@@ -1589,16 +1589,16 @@
         <v>5890.60009765625</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J30" t="n">
-        <v>4.396983898248791</v>
+        <v>8.457845752296061</v>
       </c>
       <c r="K30" t="n">
-        <v>4.935332781197542</v>
+        <v>7.004490468021613</v>
       </c>
       <c r="L30" t="n">
-        <v>3.731655120849609</v>
+        <v>8.163032531738281</v>
       </c>
     </row>
     <row r="31">
@@ -1627,16 +1627,16 @@
         <v>5857.2001953125</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J31" t="n">
-        <v>4.888869428678751</v>
+        <v>9.451629431829572</v>
       </c>
       <c r="K31" t="n">
-        <v>5.234862115628729</v>
+        <v>7.305855974016644</v>
       </c>
       <c r="L31" t="n">
-        <v>3.819808959960938</v>
+        <v>8.573324203491211</v>
       </c>
     </row>
     <row r="32">
@@ -1665,16 +1665,16 @@
         <v>5815.7998046875</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J32" t="n">
-        <v>5.19854629893781</v>
+        <v>10.58290400652929</v>
       </c>
       <c r="K32" t="n">
-        <v>5.676523288222001</v>
+        <v>7.908289975047113</v>
       </c>
       <c r="L32" t="n">
-        <v>4.01254415512085</v>
+        <v>10.08626174926758</v>
       </c>
     </row>
     <row r="33">
@@ -1703,16 +1703,16 @@
         <v>5780.5</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J33" t="n">
-        <v>5.325950323084148</v>
+        <v>11.68035860205899</v>
       </c>
       <c r="K33" t="n">
-        <v>6.236530926938821</v>
+        <v>9.52902865805658</v>
       </c>
       <c r="L33" t="n">
-        <v>5.255273342132568</v>
+        <v>11.1873664855957</v>
       </c>
     </row>
     <row r="34">
@@ -1741,16 +1741,16 @@
         <v>5766.5</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J34" t="n">
-        <v>6.382258169227025</v>
+        <v>11.83687628110463</v>
       </c>
       <c r="K34" t="n">
-        <v>6.441140523573038</v>
+        <v>10.78565096369608</v>
       </c>
       <c r="L34" t="n">
-        <v>6.824441432952881</v>
+        <v>10.8220043182373</v>
       </c>
     </row>
     <row r="35">
@@ -1779,16 +1779,16 @@
         <v>5835.10009765625</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J35" t="n">
-        <v>5.675824529663442</v>
+        <v>13.02308173269396</v>
       </c>
       <c r="K35" t="n">
-        <v>6.091981799523838</v>
+        <v>10.61822733004989</v>
       </c>
       <c r="L35" t="n">
-        <v>6.249139308929443</v>
+        <v>11.26876068115234</v>
       </c>
     </row>
     <row r="36">
@@ -1817,16 +1817,16 @@
         <v>5911.10009765625</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J36" t="n">
-        <v>5.67948597314159</v>
+        <v>13.93106055617981</v>
       </c>
       <c r="K36" t="n">
-        <v>5.992344494181603</v>
+        <v>11.91865823135262</v>
       </c>
       <c r="L36" t="n">
-        <v>5.903828620910645</v>
+        <v>12.59902095794678</v>
       </c>
     </row>
     <row r="37">
@@ -1855,16 +1855,16 @@
         <v>5978.60009765625</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J37" t="n">
-        <v>7.074392449290141</v>
+        <v>13.86189014915722</v>
       </c>
       <c r="K37" t="n">
-        <v>6.884237285598078</v>
+        <v>13.6612766964916</v>
       </c>
       <c r="L37" t="n">
-        <v>6.516653060913086</v>
+        <v>14.415696144104</v>
       </c>
     </row>
     <row r="38">
@@ -1893,16 +1893,16 @@
         <v>6022.2998046875</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J38" t="n">
-        <v>7.256980331137337</v>
+        <v>13.22758746072089</v>
       </c>
       <c r="K38" t="n">
-        <v>7.365076337915947</v>
+        <v>12.56607338675948</v>
       </c>
       <c r="L38" t="n">
-        <v>7.261950016021729</v>
+        <v>12.20441722869873</v>
       </c>
     </row>
     <row r="39">
@@ -1931,16 +1931,16 @@
         <v>6017.10009765625</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J39" t="n">
-        <v>6.953561755806292</v>
+        <v>13.187494201821</v>
       </c>
       <c r="K39" t="n">
-        <v>7.244507462370916</v>
+        <v>12.56607338675948</v>
       </c>
       <c r="L39" t="n">
-        <v>7.022810935974121</v>
+        <v>11.96741104125977</v>
       </c>
     </row>
     <row r="40">
@@ -1969,16 +1969,16 @@
         <v>6000</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J40" t="n">
-        <v>5.585359534791115</v>
+        <v>12.5773789997666</v>
       </c>
       <c r="K40" t="n">
-        <v>5.963845612144647</v>
+        <v>11.57964417987295</v>
       </c>
       <c r="L40" t="n">
-        <v>6.234199523925781</v>
+        <v>11.27836036682129</v>
       </c>
     </row>
     <row r="41">
@@ -2007,16 +2007,16 @@
         <v>5975</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J41" t="n">
-        <v>5.569302185964602</v>
+        <v>12.5773789997666</v>
       </c>
       <c r="K41" t="n">
-        <v>5.794778430840572</v>
+        <v>11.39983311852303</v>
       </c>
       <c r="L41" t="n">
-        <v>6.151999950408936</v>
+        <v>11.45183849334717</v>
       </c>
     </row>
     <row r="42">
@@ -2045,16 +2045,16 @@
         <v>5924.7998046875</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J42" t="n">
-        <v>5.549518751333721</v>
+        <v>13.16258708716906</v>
       </c>
       <c r="K42" t="n">
-        <v>6.016279937150887</v>
+        <v>11.63075766251829</v>
       </c>
       <c r="L42" t="n">
-        <v>5.889543533325195</v>
+        <v>11.21251392364502</v>
       </c>
     </row>
     <row r="43">
@@ -2083,16 +2083,16 @@
         <v>5954.89990234375</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J43" t="n">
-        <v>5.508185642462473</v>
+        <v>12.53306626058427</v>
       </c>
       <c r="K43" t="n">
-        <v>5.805449348935497</v>
+        <v>12.14487846855062</v>
       </c>
       <c r="L43" t="n">
-        <v>5.991776466369629</v>
+        <v>11.95432090759277</v>
       </c>
     </row>
     <row r="44">
@@ -2121,16 +2121,16 @@
         <v>5974</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J44" t="n">
-        <v>5.508185642462473</v>
+        <v>12.65697599592014</v>
       </c>
       <c r="K44" t="n">
-        <v>5.423448152028455</v>
+        <v>12.23207641865337</v>
       </c>
       <c r="L44" t="n">
-        <v>5.608602523803711</v>
+        <v>12.36099815368652</v>
       </c>
     </row>
     <row r="45">
@@ -2159,16 +2159,16 @@
         <v>5976.7998046875</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J45" t="n">
-        <v>5.909162533585964</v>
+        <v>12.70384040843732</v>
       </c>
       <c r="K45" t="n">
-        <v>5.730525318848207</v>
+        <v>12.23182305503528</v>
       </c>
       <c r="L45" t="n">
-        <v>5.136631011962891</v>
+        <v>11.33876895904541</v>
       </c>
     </row>
     <row r="46">
@@ -2197,16 +2197,16 @@
         <v>5937.60009765625</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J46" t="n">
-        <v>5.924558913286196</v>
+        <v>11.7551839509641</v>
       </c>
       <c r="K46" t="n">
-        <v>5.829384214908539</v>
+        <v>12.87920298294144</v>
       </c>
       <c r="L46" t="n">
-        <v>5.324478626251221</v>
+        <v>11.37758159637451</v>
       </c>
     </row>
     <row r="47">
@@ -2235,16 +2235,16 @@
         <v>5898.2001953125</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J47" t="n">
-        <v>5.808961246048912</v>
+        <v>10.45234634934872</v>
       </c>
       <c r="K47" t="n">
-        <v>5.428862599528268</v>
+        <v>12.12641698657567</v>
       </c>
       <c r="L47" t="n">
-        <v>5.368062019348145</v>
+        <v>10.85093975067139</v>
       </c>
     </row>
     <row r="48">
@@ -2273,16 +2273,16 @@
         <v>5852.7001953125</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J48" t="n">
-        <v>5.551208492830715</v>
+        <v>9.643463718385172</v>
       </c>
       <c r="K48" t="n">
-        <v>5.038555662706879</v>
+        <v>11.34776790793535</v>
       </c>
       <c r="L48" t="n">
-        <v>5.566432952880859</v>
+        <v>10.54650115966797</v>
       </c>
     </row>
     <row r="49">
@@ -2311,16 +2311,16 @@
         <v>5809.7998046875</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J49" t="n">
-        <v>5.298535638086697</v>
+        <v>8.900628673370266</v>
       </c>
       <c r="K49" t="n">
-        <v>4.874008821994066</v>
+        <v>11.03629255696344</v>
       </c>
       <c r="L49" t="n">
-        <v>5.179949283599854</v>
+        <v>10.38086223602295</v>
       </c>
     </row>
     <row r="50">
@@ -2349,16 +2349,16 @@
         <v>5771.2998046875</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J50" t="n">
-        <v>4.891809352672483</v>
+        <v>9.092935080876209</v>
       </c>
       <c r="K50" t="n">
-        <v>4.372366146385435</v>
+        <v>10.26614719342713</v>
       </c>
       <c r="L50" t="n">
-        <v>4.902122974395752</v>
+        <v>8.726395606994629</v>
       </c>
     </row>
     <row r="51">
@@ -2387,16 +2387,16 @@
         <v>5705.5</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J51" t="n">
-        <v>4.736256617181639</v>
+        <v>8.570025381944527</v>
       </c>
       <c r="K51" t="n">
-        <v>4.23252524434168</v>
+        <v>10.25232542965297</v>
       </c>
       <c r="L51" t="n">
-        <v>4.610732078552246</v>
+        <v>7.886496067047119</v>
       </c>
     </row>
     <row r="52">
@@ -2425,16 +2425,16 @@
         <v>5649.2001953125</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J52" t="n">
-        <v>4.012705900249032</v>
+        <v>8.001785947559892</v>
       </c>
       <c r="K52" t="n">
-        <v>3.761750529058605</v>
+        <v>9.430991083186512</v>
       </c>
       <c r="L52" t="n">
-        <v>4.120621681213379</v>
+        <v>7.526503562927246</v>
       </c>
     </row>
     <row r="53">
@@ -2463,16 +2463,16 @@
         <v>5595.60009765625</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J53" t="n">
-        <v>3.834209609315103</v>
+        <v>7.956310361373948</v>
       </c>
       <c r="K53" t="n">
-        <v>3.901647346527009</v>
+        <v>9.430991083186512</v>
       </c>
       <c r="L53" t="n">
-        <v>3.886753797531128</v>
+        <v>7.526503562927246</v>
       </c>
     </row>
     <row r="54">
@@ -2501,16 +2501,16 @@
         <v>5574.60009765625</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J54" t="n">
-        <v>3.452196580461812</v>
+        <v>6.418772200893427</v>
       </c>
       <c r="K54" t="n">
-        <v>3.263620909198026</v>
+        <v>8.649428534780228</v>
       </c>
       <c r="L54" t="n">
-        <v>3.411172866821289</v>
+        <v>5.905240535736084</v>
       </c>
     </row>
     <row r="55">
@@ -2539,16 +2539,16 @@
         <v>5539.2998046875</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J55" t="n">
-        <v>2.975478564735595</v>
+        <v>5.085346939424156</v>
       </c>
       <c r="K55" t="n">
-        <v>2.895306423854362</v>
+        <v>5.541839394088892</v>
       </c>
       <c r="L55" t="n">
-        <v>2.970873355865479</v>
+        <v>4.739142417907715</v>
       </c>
     </row>
     <row r="56">
@@ -2577,16 +2577,16 @@
         <v>5519.10009765625</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J56" t="n">
-        <v>2.825919238366152</v>
+        <v>4.900615293887193</v>
       </c>
       <c r="K56" t="n">
-        <v>2.62271548666827</v>
+        <v>4.685502895904577</v>
       </c>
       <c r="L56" t="n">
-        <v>2.968118906021118</v>
+        <v>4.071106433868408</v>
       </c>
     </row>
     <row r="57">
@@ -2615,16 +2615,16 @@
         <v>5522.2998046875</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J57" t="n">
-        <v>1.842847137192051</v>
+        <v>3.140551215670694</v>
       </c>
       <c r="K57" t="n">
-        <v>1.991066585954292</v>
+        <v>3.111040220188554</v>
       </c>
       <c r="L57" t="n">
-        <v>2.299615621566772</v>
+        <v>3.072681188583374</v>
       </c>
     </row>
     <row r="58">
@@ -2653,16 +2653,16 @@
         <v>5559.89990234375</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J58" t="n">
-        <v>1.622347531338012</v>
+        <v>2.797472667682499</v>
       </c>
       <c r="K58" t="n">
-        <v>1.724900362438377</v>
+        <v>2.534237602386346</v>
       </c>
       <c r="L58" t="n">
-        <v>2.142245292663574</v>
+        <v>2.785900831222534</v>
       </c>
     </row>
     <row r="59">
@@ -2691,16 +2691,16 @@
         <v>5517.7001953125</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J59" t="n">
-        <v>1.258037089031496</v>
+        <v>2.559176434964882</v>
       </c>
       <c r="K59" t="n">
-        <v>1.372807414788304</v>
+        <v>1.968062419297645</v>
       </c>
       <c r="L59" t="n">
-        <v>1.479731678962708</v>
+        <v>1.859561443328857</v>
       </c>
     </row>
     <row r="60">
@@ -2729,16 +2729,16 @@
         <v>5485.60009765625</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J60" t="n">
-        <v>1.012588275536675</v>
+        <v>1.560606661666665</v>
       </c>
       <c r="K60" t="n">
-        <v>1.026459746352552</v>
+        <v>1.26520266933204</v>
       </c>
       <c r="L60" t="n">
-        <v>1.032913088798523</v>
+        <v>1.255941152572632</v>
       </c>
     </row>
     <row r="61">
@@ -2767,16 +2767,16 @@
         <v>5461.89990234375</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5878974220562566</v>
+        <v>1.420121622722294</v>
       </c>
       <c r="K61" t="n">
-        <v>0.6835489151466838</v>
+        <v>0.9454301801105162</v>
       </c>
       <c r="L61" t="n">
-        <v>0.6996887922286987</v>
+        <v>0.896850049495697</v>
       </c>
     </row>
     <row r="62">
@@ -2805,16 +2805,16 @@
         <v>5476</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J62" t="n">
-        <v>0.343974235744926</v>
+        <v>0.9072204800473008</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5847841351591601</v>
+        <v>0.6930694145712296</v>
       </c>
       <c r="L62" t="n">
-        <v>0.5389456152915955</v>
+        <v>0.6634781956672668</v>
       </c>
     </row>
     <row r="63">
@@ -2843,16 +2843,16 @@
         <v>5526.5</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1728774626888459</v>
+        <v>0.2766130995742967</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3808379927263315</v>
+        <v>0.3168358596335428</v>
       </c>
       <c r="L63" t="n">
-        <v>0.3498153388500214</v>
+        <v>0.3286764919757843</v>
       </c>
     </row>
     <row r="64">
@@ -2881,16 +2881,16 @@
         <v>5596</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J64" t="n">
-        <v>0.06671729382697206</v>
+        <v>0.1172271129116593</v>
       </c>
       <c r="K64" t="n">
-        <v>0.3447686690514842</v>
+        <v>0.2575344567784523</v>
       </c>
       <c r="L64" t="n">
-        <v>0.3197124600410461</v>
+        <v>0.2383363246917725</v>
       </c>
     </row>
     <row r="65">
@@ -2919,16 +2919,16 @@
         <v>5686</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J65" t="n">
-        <v>0.01202956163091945</v>
+        <v>0.008016690728821883</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2689322725769235</v>
+        <v>0.1833568833364261</v>
       </c>
       <c r="L65" t="n">
-        <v>0.2664988338947296</v>
+        <v>0.1192947179079056</v>
       </c>
     </row>
     <row r="66">
@@ -2957,16 +2957,16 @@
         <v>5813.5</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J66" t="n">
-        <v>0.001764185349032549</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2643078290362875</v>
+        <v>0.2104232255720904</v>
       </c>
       <c r="L66" t="n">
-        <v>0.2585814595222473</v>
+        <v>0.1192947179079056</v>
       </c>
     </row>
     <row r="67">
@@ -2995,16 +2995,16 @@
         <v>5897.89990234375</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2512459326922511</v>
+        <v>0.08404988948296649</v>
       </c>
       <c r="L67" t="n">
-        <v>0.2338486015796661</v>
+        <v>0.1192947179079056</v>
       </c>
     </row>
     <row r="68">
@@ -3033,16 +3033,16 @@
         <v>5974.60009765625</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J68" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2512459326922511</v>
+        <v>0.08404988948296649</v>
       </c>
       <c r="L68" t="n">
-        <v>0.1628437936306</v>
+        <v>0.1192947179079056</v>
       </c>
     </row>
     <row r="69">
@@ -3071,16 +3071,16 @@
         <v>6028.10009765625</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2538676249978914</v>
+        <v>0.08710195469826436</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>0.1654264032840729</v>
       </c>
     </row>
     <row r="70">
@@ -3109,16 +3109,16 @@
         <v>5980.5</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J70" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K70" t="n">
-        <v>0.2538676249978914</v>
+        <v>0.04565056730914333</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>0.1654264032840729</v>
       </c>
     </row>
     <row r="71">
@@ -3147,16 +3147,16 @@
         <v>6010.5</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2538676249978914</v>
+        <v>0.04565056730914333</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>0.1637004017829895</v>
       </c>
     </row>
     <row r="72">
@@ -3185,16 +3185,16 @@
         <v>5998.60009765625</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2538676249978914</v>
+        <v>0.04565056730914333</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>0.1637004017829895</v>
       </c>
     </row>
     <row r="73">
@@ -3223,16 +3223,16 @@
         <v>5946.39990234375</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2538676249978914</v>
+        <v>0.04565056730914333</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>0.2750750780105591</v>
       </c>
     </row>
     <row r="74">
@@ -3261,16 +3261,16 @@
         <v>5788.39990234375</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J74" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K74" t="n">
-        <v>0.9528554958751975</v>
+        <v>0.184650009363826</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>0.235262542963028</v>
       </c>
     </row>
     <row r="75">
@@ -3299,16 +3299,16 @@
         <v>5683.39990234375</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K75" t="n">
-        <v>0.9528554958751975</v>
+        <v>0.184650009363826</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>0.235262542963028</v>
       </c>
     </row>
     <row r="76">
@@ -3337,16 +3337,16 @@
         <v>5566.7001953125</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K76" t="n">
-        <v>0.9574799394158334</v>
+        <v>0.184650009363826</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>0.235262542963028</v>
       </c>
     </row>
     <row r="77">
@@ -3375,16 +3375,16 @@
         <v>5436.5</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K77" t="n">
-        <v>1.330862954758962</v>
+        <v>0.161329116847818</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>0.232075959444046</v>
       </c>
     </row>
     <row r="78">
@@ -3413,16 +3413,16 @@
         <v>5302</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K78" t="n">
-        <v>1.055884718888374</v>
+        <v>0.161329116847818</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>0.1891294419765472</v>
       </c>
     </row>
     <row r="79">
@@ -3451,16 +3451,16 @@
         <v>5160.89990234375</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K79" t="n">
-        <v>1.055884718888374</v>
+        <v>0.4013882546479197</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>0.2737398743629456</v>
       </c>
     </row>
     <row r="80">
@@ -3489,16 +3489,16 @@
         <v>5038.7001953125</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K80" t="n">
-        <v>1.049710182245246</v>
+        <v>0.4013882546479197</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>0.2616280317306519</v>
       </c>
     </row>
     <row r="81">
@@ -3527,16 +3527,16 @@
         <v>4943.5</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K81" t="n">
-        <v>0.8398823988888321</v>
+        <v>0.4013882546479197</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>0.2566130757331848</v>
       </c>
     </row>
     <row r="82">
@@ -3565,16 +3565,16 @@
         <v>4887.2998046875</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K82" t="n">
-        <v>0.8398823988888321</v>
+        <v>0.3244515268328547</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>0.3027448356151581</v>
       </c>
     </row>
     <row r="83">
@@ -3603,16 +3603,16 @@
         <v>4826.39990234375</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K83" t="n">
-        <v>0.8425040911944722</v>
+        <v>0.3275035920481525</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>0.3027448356151581</v>
       </c>
     </row>
     <row r="84">
@@ -3641,16 +3641,16 @@
         <v>4757.39990234375</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K84" t="n">
-        <v>0.8425040911944722</v>
+        <v>0.3275035920481525</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>0.3027448356151581</v>
       </c>
     </row>
     <row r="85">
@@ -3679,16 +3679,16 @@
         <v>4675.89990234375</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K85" t="n">
-        <v>0.8398823988888321</v>
+        <v>0.3190370484660945</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>0.3133385181427002</v>
       </c>
     </row>
     <row r="86">
@@ -3717,16 +3717,16 @@
         <v>4565.60009765625</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K86" t="n">
-        <v>0.8398823988888321</v>
+        <v>0.2981749035663347</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>0.2504177093505859</v>
       </c>
     </row>
     <row r="87">
@@ -3755,16 +3755,16 @@
         <v>4500</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K87" t="n">
-        <v>0.8398823988888321</v>
+        <v>0.2981749035663347</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>0.2504177093505859</v>
       </c>
     </row>
     <row r="88">
@@ -3793,16 +3793,16 @@
         <v>4434.39990234375</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K88" t="n">
-        <v>0.8446280388361429</v>
+        <v>0.3012269687816325</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>0.2965494394302368</v>
       </c>
     </row>
     <row r="89">
@@ -3831,16 +3831,16 @@
         <v>4361.7998046875</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K89" t="n">
-        <v>0.7943414503181002</v>
+        <v>0.3012269687816325</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>0.1851747632026672</v>
       </c>
     </row>
     <row r="90">
@@ -3869,16 +3869,16 @@
         <v>4289</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0008827428726050276</v>
+        <v>0.001043798719229868</v>
       </c>
       <c r="K90" t="n">
-        <v>0.8428741033237244</v>
+        <v>0.2929460466730094</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>0.2596715986728668</v>
       </c>
     </row>
     <row r="91">
@@ -3907,16 +3907,16 @@
         <v>4230.39990234375</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0008827428726050276</v>
+        <v>0.001043798719229868</v>
       </c>
       <c r="K91" t="n">
-        <v>0.8454957956293645</v>
+        <v>0.2929460466730094</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>0.2596715986728668</v>
       </c>
     </row>
     <row r="92">
@@ -3945,16 +3945,16 @@
         <v>4183</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0008827428726050276</v>
+        <v>0.001043798719229868</v>
       </c>
       <c r="K92" t="n">
-        <v>0.8305853967720878</v>
+        <v>0.2929460466730094</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>0.2596715986728668</v>
       </c>
     </row>
     <row r="93">
@@ -3983,16 +3983,16 @@
         <v>4155.39990234375</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0008827428726050276</v>
+        <v>0.001043798719229868</v>
       </c>
       <c r="K93" t="n">
-        <v>0.5188880772561948</v>
+        <v>0.2929460466730094</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>0.2596715986728668</v>
       </c>
     </row>
     <row r="94">
@@ -4021,16 +4021,16 @@
         <v>4172.89990234375</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K94" t="n">
-        <v>0.4986000914290377</v>
+        <v>0.2929460466730094</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>0.4224748611450195</v>
       </c>
     </row>
     <row r="95">
@@ -4059,16 +4059,16 @@
         <v>4139.2001953125</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K95" t="n">
-        <v>0.4986000914290377</v>
+        <v>0.2929460466730094</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>0.4004347920417786</v>
       </c>
     </row>
     <row r="96">
@@ -4097,16 +4097,16 @@
         <v>4111.5</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K96" t="n">
-        <v>0.4986000914290377</v>
+        <v>0.2929460466730094</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>0.4004347920417786</v>
       </c>
     </row>
     <row r="97">
@@ -4135,16 +4135,16 @@
         <v>4086.89990234375</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K97" t="n">
-        <v>0.4986000914290377</v>
+        <v>0.2929460466730094</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>0.4004347920417786</v>
       </c>
     </row>
     <row r="98">
@@ -4173,13 +4173,13 @@
         <v>4067</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K98" t="n">
-        <v>0.426195421199998</v>
+        <v>0.1568105296776461</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -4211,13 +4211,13 @@
         <v>4041.60009765625</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K99" t="n">
-        <v>0.426195421199998</v>
+        <v>0.180131422193654</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -4249,13 +4249,13 @@
         <v>4020.39990234375</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K100" t="n">
-        <v>0.426195421199998</v>
+        <v>0.180131422193654</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -4287,16 +4287,16 @@
         <v>4006.199951171875</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K101" t="n">
-        <v>0.4986000914290377</v>
+        <v>0.3162669391890173</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>0.7798248529434204</v>
       </c>
     </row>
     <row r="102">
@@ -4325,16 +4325,16 @@
         <v>4005.800048828125</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K102" t="n">
-        <v>0.4986000914290377</v>
+        <v>0.2929460466730094</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>0.7766382694244385</v>
       </c>
     </row>
     <row r="103">
@@ -4363,16 +4363,16 @@
         <v>4020.699951171875</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K103" t="n">
-        <v>0.4986000914290377</v>
+        <v>0.2929460466730094</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>0.8383580446243286</v>
       </c>
     </row>
     <row r="104">
@@ -4401,16 +4401,16 @@
         <v>4041.199951171875</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K104" t="n">
-        <v>0.4986000914290377</v>
+        <v>0.2929460466730094</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>0.8383580446243286</v>
       </c>
     </row>
     <row r="105">
@@ -4439,16 +4439,16 @@
         <v>4063.10009765625</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K105" t="n">
-        <v>0.4986000914290377</v>
+        <v>0.3162669391890173</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>0.8415446281433105</v>
       </c>
     </row>
     <row r="106">
@@ -4477,16 +4477,16 @@
         <v>4109.89990234375</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K106" t="n">
-        <v>0.5010019650216466</v>
+        <v>0.3162669391890173</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>0.8635846376419067</v>
       </c>
     </row>
     <row r="107">
@@ -4515,16 +4515,16 @@
         <v>4152.89990234375</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K107" t="n">
-        <v>0.5010019650216466</v>
+        <v>0.3162669391890173</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>0.8635846376419067</v>
       </c>
     </row>
     <row r="108">
@@ -4553,16 +4553,16 @@
         <v>4210.39990234375</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K108" t="n">
-        <v>0.5010019650216466</v>
+        <v>0.3162669391890173</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>0.8635846376419067</v>
       </c>
     </row>
     <row r="109">
@@ -4591,16 +4591,16 @@
         <v>4286.60009765625</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K109" t="n">
-        <v>0.5010019650216466</v>
+        <v>0.3162669391890173</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>0.8635846376419067</v>
       </c>
     </row>
     <row r="110">
@@ -4629,16 +4629,16 @@
         <v>4411.89990234375</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K110" t="n">
-        <v>0.5335786574004403</v>
+        <v>0.3132148739737194</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>0.8276734948158264</v>
       </c>
     </row>
     <row r="111">
@@ -4667,16 +4667,16 @@
         <v>4503.10009765625</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K111" t="n">
-        <v>0.5339141881133299</v>
+        <v>0.3239829669051097</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>0.8276734948158264</v>
       </c>
     </row>
     <row r="112">
@@ -4705,16 +4705,16 @@
         <v>4608</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K112" t="n">
-        <v>0.5339141881133299</v>
+        <v>0.3239829669051097</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>0.8276734948158264</v>
       </c>
     </row>
     <row r="113">
@@ -4743,16 +4743,16 @@
         <v>4729.39990234375</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K113" t="n">
-        <v>0.5335786574004403</v>
+        <v>0.3132148739737194</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>0.8276734948158264</v>
       </c>
     </row>
     <row r="114">
@@ -4781,16 +4781,16 @@
         <v>4866.39990234375</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J114" t="n">
-        <v>0.001989032491403382</v>
+        <v>0.001542603715820414</v>
       </c>
       <c r="K114" t="n">
-        <v>0.8052496507171789</v>
+        <v>0.02204069062365885</v>
       </c>
       <c r="L114" t="n">
-        <v>0.2366790026426315</v>
+        <v>0.8276734948158264</v>
       </c>
     </row>
     <row r="115">
@@ -4819,16 +4819,16 @@
         <v>4976.7998046875</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J115" t="n">
-        <v>0.00185281099601417</v>
+        <v>0.001173401966979514</v>
       </c>
       <c r="K115" t="n">
-        <v>0.5335786574004403</v>
+        <v>0.02204069062365885</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>0.8276734948158264</v>
       </c>
     </row>
     <row r="116">
@@ -4857,16 +4857,16 @@
         <v>5081.7001953125</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J116" t="n">
-        <v>0.001070356144188678</v>
+        <v>0.001173401966979514</v>
       </c>
       <c r="K116" t="n">
-        <v>0.5335786574004403</v>
+        <v>0.3132148739737194</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>0.8276734948158264</v>
       </c>
     </row>
     <row r="117">
@@ -4895,16 +4895,16 @@
         <v>5170.39990234375</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J117" t="n">
-        <v>0.01290364084381717</v>
+        <v>0.01155046987852839</v>
       </c>
       <c r="K117" t="n">
-        <v>0.5675491700370527</v>
+        <v>0.3295681335094173</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>0.8500218987464905</v>
       </c>
     </row>
     <row r="118">
@@ -4933,16 +4933,16 @@
         <v>5222.89990234375</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J118" t="n">
-        <v>0.06718431920151094</v>
+        <v>0.1729269936644307</v>
       </c>
       <c r="K118" t="n">
-        <v>0.6392479911543963</v>
+        <v>0.1810030661966657</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07403905689716339</v>
+        <v>1.027932643890381</v>
       </c>
     </row>
     <row r="119">
@@ -4971,16 +4971,16 @@
         <v>5346.5</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2728830480986784</v>
+        <v>0.5457091324915218</v>
       </c>
       <c r="K119" t="n">
-        <v>0.7919446166360455</v>
+        <v>0.3174735960427337</v>
       </c>
       <c r="L119" t="n">
-        <v>0.2251691371202469</v>
+        <v>1.118230938911438</v>
       </c>
     </row>
     <row r="120">
@@ -5009,16 +5009,16 @@
         <v>5472.60009765625</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J120" t="n">
-        <v>0.5097417567568893</v>
+        <v>1.058007452711277</v>
       </c>
       <c r="K120" t="n">
-        <v>1.315226015703612</v>
+        <v>1.200348635805033</v>
       </c>
       <c r="L120" t="n">
-        <v>0.431513249874115</v>
+        <v>1.710590124130249</v>
       </c>
     </row>
     <row r="121">
@@ -5047,16 +5047,16 @@
         <v>5595.39990234375</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J121" t="n">
-        <v>0.8880849749552273</v>
+        <v>1.518239017358206</v>
       </c>
       <c r="K121" t="n">
-        <v>1.509456865101612</v>
+        <v>1.866209288858419</v>
       </c>
       <c r="L121" t="n">
-        <v>0.6357316374778748</v>
+        <v>2.144895553588867</v>
       </c>
     </row>
     <row r="122">
@@ -5085,16 +5085,16 @@
         <v>5706.10009765625</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J122" t="n">
-        <v>1.342852399848479</v>
+        <v>2.493803800534427</v>
       </c>
       <c r="K122" t="n">
-        <v>2.163112824681888</v>
+        <v>2.258829393534118</v>
       </c>
       <c r="L122" t="n">
-        <v>0.6754725575447083</v>
+        <v>2.302339553833008</v>
       </c>
     </row>
     <row r="123">
@@ -5123,16 +5123,16 @@
         <v>5789</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J123" t="n">
-        <v>1.892072870227331</v>
+        <v>3.252552630173668</v>
       </c>
       <c r="K123" t="n">
-        <v>2.711480884057466</v>
+        <v>2.934602670699017</v>
       </c>
       <c r="L123" t="n">
-        <v>1.119674324989319</v>
+        <v>3.024470090866089</v>
       </c>
     </row>
     <row r="124">
@@ -5161,16 +5161,16 @@
         <v>5849.2998046875</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J124" t="n">
-        <v>2.489307424335458</v>
+        <v>3.617754759045142</v>
       </c>
       <c r="K124" t="n">
-        <v>3.222459243636123</v>
+        <v>3.981789549218949</v>
       </c>
       <c r="L124" t="n">
-        <v>1.576357007026672</v>
+        <v>3.945260047912598</v>
       </c>
     </row>
     <row r="125">
@@ -5199,16 +5199,16 @@
         <v>5895.60009765625</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J125" t="n">
-        <v>3.388641021137251</v>
+        <v>6.760488653966283</v>
       </c>
       <c r="K125" t="n">
-        <v>4.307038808278794</v>
+        <v>6.478026016099294</v>
       </c>
       <c r="L125" t="n">
-        <v>2.604774951934814</v>
+        <v>5.896274089813232</v>
       </c>
     </row>
     <row r="126">
@@ -5237,16 +5237,16 @@
         <v>5878.60009765625</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J126" t="n">
-        <v>3.797555028153499</v>
+        <v>7.407592938455467</v>
       </c>
       <c r="K126" t="n">
-        <v>4.531652632566963</v>
+        <v>7.210052121997091</v>
       </c>
       <c r="L126" t="n">
-        <v>2.974807024002075</v>
+        <v>6.772137641906738</v>
       </c>
     </row>
     <row r="127">
@@ -5275,16 +5275,16 @@
         <v>5843</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J127" t="n">
-        <v>4.126312055124079</v>
+        <v>8.182727474679558</v>
       </c>
       <c r="K127" t="n">
-        <v>4.76071348749714</v>
+        <v>7.100093485640087</v>
       </c>
       <c r="L127" t="n">
-        <v>3.223206996917725</v>
+        <v>7.873695373535156</v>
       </c>
     </row>
     <row r="128">
@@ -5313,16 +5313,16 @@
         <v>5793.39990234375</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J128" t="n">
-        <v>4.312164037570663</v>
+        <v>8.288430085395971</v>
       </c>
       <c r="K128" t="n">
-        <v>5.198138435666976</v>
+        <v>7.189947841088095</v>
       </c>
       <c r="L128" t="n">
-        <v>3.642670154571533</v>
+        <v>7.970454692840576</v>
       </c>
     </row>
     <row r="129">
@@ -5351,16 +5351,16 @@
         <v>5748.10009765625</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J129" t="n">
-        <v>4.848510419611443</v>
+        <v>9.086664440231599</v>
       </c>
       <c r="K129" t="n">
-        <v>5.735931644231411</v>
+        <v>7.061552853865437</v>
       </c>
       <c r="L129" t="n">
-        <v>3.845599889755249</v>
+        <v>8.400302886962891</v>
       </c>
     </row>
     <row r="130">
@@ -5389,16 +5389,16 @@
         <v>5718.7001953125</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J130" t="n">
-        <v>4.952151374569723</v>
+        <v>9.531381231277692</v>
       </c>
       <c r="K130" t="n">
-        <v>5.295765502817634</v>
+        <v>7.159087164672562</v>
       </c>
       <c r="L130" t="n">
-        <v>4.731281757354736</v>
+        <v>9.11387825012207</v>
       </c>
     </row>
     <row r="131">
@@ -5427,16 +5427,16 @@
         <v>5765.10009765625</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J131" t="n">
-        <v>4.904073641009337</v>
+        <v>9.868528153654362</v>
       </c>
       <c r="K131" t="n">
-        <v>5.467454729502383</v>
+        <v>7.815078622254445</v>
       </c>
       <c r="L131" t="n">
-        <v>4.633878231048584</v>
+        <v>9.561661720275879</v>
       </c>
     </row>
     <row r="132">
@@ -5465,16 +5465,16 @@
         <v>5821.89990234375</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J132" t="n">
-        <v>5.282858393411301</v>
+        <v>9.747570860289533</v>
       </c>
       <c r="K132" t="n">
-        <v>5.829714594324686</v>
+        <v>8.300967856100357</v>
       </c>
       <c r="L132" t="n">
-        <v>4.770874977111816</v>
+        <v>9.716001510620117</v>
       </c>
     </row>
     <row r="133">
@@ -5503,16 +5503,16 @@
         <v>5875.10009765625</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J133" t="n">
-        <v>5.305531703904508</v>
+        <v>11.29904293648169</v>
       </c>
       <c r="K133" t="n">
-        <v>5.899936882382625</v>
+        <v>9.706717141948795</v>
       </c>
       <c r="L133" t="n">
-        <v>5.125041007995605</v>
+        <v>10.21266555786133</v>
       </c>
     </row>
     <row r="134">
@@ -5541,16 +5541,16 @@
         <v>5905.89990234375</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J134" t="n">
-        <v>5.327840559995375</v>
+        <v>11.33527707390428</v>
       </c>
       <c r="K134" t="n">
-        <v>6.31874371563668</v>
+        <v>11.97228739145134</v>
       </c>
       <c r="L134" t="n">
-        <v>6.229212284088135</v>
+        <v>10.55640506744385</v>
       </c>
     </row>
     <row r="135">
@@ -5579,16 +5579,16 @@
         <v>5889.5</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J135" t="n">
-        <v>5.417449251345698</v>
+        <v>14.30193902396717</v>
       </c>
       <c r="K135" t="n">
-        <v>6.312740759009244</v>
+        <v>13.74097804356319</v>
       </c>
       <c r="L135" t="n">
-        <v>5.743564128875732</v>
+        <v>13.23509407043457</v>
       </c>
     </row>
     <row r="136">
@@ -5617,16 +5617,16 @@
         <v>5865.60009765625</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J136" t="n">
-        <v>7.318254181111913</v>
+        <v>14.41905523939581</v>
       </c>
       <c r="K136" t="n">
-        <v>7.591161258836556</v>
+        <v>14.41927726893265</v>
       </c>
       <c r="L136" t="n">
-        <v>6.998603343963623</v>
+        <v>13.93076801300049</v>
       </c>
     </row>
     <row r="137">
@@ -5655,16 +5655,16 @@
         <v>5838.5</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J137" t="n">
-        <v>7.566212191580794</v>
+        <v>14.56144143470293</v>
       </c>
       <c r="K137" t="n">
-        <v>7.51966596261524</v>
+        <v>14.37688413782569</v>
       </c>
       <c r="L137" t="n">
-        <v>9.014164924621582</v>
+        <v>14.11339473724365</v>
       </c>
     </row>
     <row r="138">
@@ -5693,16 +5693,16 @@
         <v>5794.7998046875</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J138" t="n">
-        <v>7.723499701578609</v>
+        <v>14.61943202541978</v>
       </c>
       <c r="K138" t="n">
-        <v>7.347489179089976</v>
+        <v>13.50104616641661</v>
       </c>
       <c r="L138" t="n">
-        <v>8.759929656982422</v>
+        <v>15.17176342010498</v>
       </c>
     </row>
     <row r="139">
@@ -5731,16 +5731,16 @@
         <v>5828</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J139" t="n">
-        <v>7.492310386073659</v>
+        <v>14.29217924650118</v>
       </c>
       <c r="K139" t="n">
-        <v>7.663894417922713</v>
+        <v>12.94062544885077</v>
       </c>
       <c r="L139" t="n">
-        <v>9.565274238586426</v>
+        <v>13.16460514068604</v>
       </c>
     </row>
     <row r="140">
@@ -5769,16 +5769,16 @@
         <v>5851.7001953125</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J140" t="n">
-        <v>7.18546258790765</v>
+        <v>13.45692859926221</v>
       </c>
       <c r="K140" t="n">
-        <v>7.480395503006068</v>
+        <v>13.42761639420558</v>
       </c>
       <c r="L140" t="n">
-        <v>7.410392761230469</v>
+        <v>13.86444759368896</v>
       </c>
     </row>
     <row r="141">
@@ -5807,16 +5807,16 @@
         <v>5858.89990234375</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J141" t="n">
-        <v>5.413764279784099</v>
+        <v>13.01119169485854</v>
       </c>
       <c r="K141" t="n">
-        <v>6.476579643233927</v>
+        <v>13.04846402916031</v>
       </c>
       <c r="L141" t="n">
-        <v>6.144309997558594</v>
+        <v>11.51877212524414</v>
       </c>
     </row>
     <row r="142">
@@ -5845,16 +5845,16 @@
         <v>5827</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J142" t="n">
-        <v>5.844508544242619</v>
+        <v>12.83721072932627</v>
       </c>
       <c r="K142" t="n">
-        <v>6.276035509527246</v>
+        <v>14.08730129737856</v>
       </c>
       <c r="L142" t="n">
-        <v>5.842038631439209</v>
+        <v>11.90585899353027</v>
       </c>
     </row>
     <row r="143">
@@ -5883,16 +5883,16 @@
         <v>5787.89990234375</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J143" t="n">
-        <v>5.91318363544532</v>
+        <v>10.5080859178844</v>
       </c>
       <c r="K143" t="n">
-        <v>5.979428227731454</v>
+        <v>12.78905911705989</v>
       </c>
       <c r="L143" t="n">
-        <v>5.611628532409668</v>
+        <v>10.77114200592041</v>
       </c>
     </row>
     <row r="144">
@@ -5921,16 +5921,16 @@
         <v>5741.7001953125</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J144" t="n">
-        <v>5.479322556078441</v>
+        <v>9.28320482722331</v>
       </c>
       <c r="K144" t="n">
-        <v>5.325786087470037</v>
+        <v>11.0125632145344</v>
       </c>
       <c r="L144" t="n">
-        <v>5.430766105651855</v>
+        <v>9.015607833862305</v>
       </c>
     </row>
     <row r="145">
@@ -5959,16 +5959,16 @@
         <v>5695.7998046875</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J145" t="n">
-        <v>5.690610086570257</v>
+        <v>9.074119332860242</v>
       </c>
       <c r="K145" t="n">
-        <v>5.158795701244368</v>
+        <v>10.66091499120217</v>
       </c>
       <c r="L145" t="n">
-        <v>5.015305042266846</v>
+        <v>9.42691707611084</v>
       </c>
     </row>
     <row r="146">
@@ -5997,16 +5997,16 @@
         <v>5652.39990234375</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J146" t="n">
-        <v>5.154518234388337</v>
+        <v>9.153793036167581</v>
       </c>
       <c r="K146" t="n">
-        <v>4.878210985375573</v>
+        <v>10.63581609415374</v>
       </c>
       <c r="L146" t="n">
-        <v>4.53394889831543</v>
+        <v>8.896421432495117</v>
       </c>
     </row>
     <row r="147">
@@ -6035,16 +6035,16 @@
         <v>5586.10009765625</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J147" t="n">
-        <v>5.033437809147131</v>
+        <v>8.832460959694686</v>
       </c>
       <c r="K147" t="n">
-        <v>4.702123523126835</v>
+        <v>10.45988328444181</v>
       </c>
       <c r="L147" t="n">
-        <v>4.531814098358154</v>
+        <v>8.317530632019043</v>
       </c>
     </row>
     <row r="148">
@@ -6073,16 +6073,16 @@
         <v>5530.7001953125</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J148" t="n">
-        <v>4.379368307122426</v>
+        <v>8.087380947610074</v>
       </c>
       <c r="K148" t="n">
-        <v>4.370773439836406</v>
+        <v>9.494272198878653</v>
       </c>
       <c r="L148" t="n">
-        <v>4.071831226348877</v>
+        <v>7.662511348724365</v>
       </c>
     </row>
     <row r="149">
@@ -6111,16 +6111,16 @@
         <v>5480.2998046875</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J149" t="n">
-        <v>3.998801599787411</v>
+        <v>7.99692332883945</v>
       </c>
       <c r="K149" t="n">
-        <v>4.219659546738629</v>
+        <v>9.413780244505848</v>
       </c>
       <c r="L149" t="n">
-        <v>4.112261772155762</v>
+        <v>7.662074089050293</v>
       </c>
     </row>
     <row r="150">
@@ -6149,16 +6149,16 @@
         <v>5462</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J150" t="n">
-        <v>3.841132494054166</v>
+        <v>7.96319468487629</v>
       </c>
       <c r="K150" t="n">
-        <v>4.093931918084687</v>
+        <v>8.820046744178711</v>
       </c>
       <c r="L150" t="n">
-        <v>3.829983472824097</v>
+        <v>7.651480197906494</v>
       </c>
     </row>
     <row r="151">
@@ -6187,16 +6187,16 @@
         <v>5435.2001953125</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J151" t="n">
-        <v>3.905768608158967</v>
+        <v>7.504666370430586</v>
       </c>
       <c r="K151" t="n">
-        <v>4.028800532712968</v>
+        <v>8.327559559073075</v>
       </c>
       <c r="L151" t="n">
-        <v>3.835070133209229</v>
+        <v>6.61317253112793</v>
       </c>
     </row>
     <row r="152">
@@ -6225,16 +6225,16 @@
         <v>5426.2001953125</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J152" t="n">
-        <v>3.736693548209533</v>
+        <v>7.254520697375633</v>
       </c>
       <c r="K152" t="n">
-        <v>3.870620848474086</v>
+        <v>8.250826324624876</v>
       </c>
       <c r="L152" t="n">
-        <v>3.514212846755981</v>
+        <v>6.430311679840088</v>
       </c>
     </row>
     <row r="153">
@@ -6263,16 +6263,16 @@
         <v>5442.10009765625</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J153" t="n">
-        <v>3.427162896169057</v>
+        <v>5.760779902030993</v>
       </c>
       <c r="K153" t="n">
-        <v>3.484469035356959</v>
+        <v>6.411906954366185</v>
       </c>
       <c r="L153" t="n">
-        <v>3.154918670654297</v>
+        <v>5.127643585205078</v>
       </c>
     </row>
     <row r="154">
@@ -6301,16 +6301,16 @@
         <v>5503.39990234375</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J154" t="n">
-        <v>2.891012299301352</v>
+        <v>4.976684103425864</v>
       </c>
       <c r="K154" t="n">
-        <v>2.859687037903065</v>
+        <v>4.518834278785026</v>
       </c>
       <c r="L154" t="n">
-        <v>2.769946813583374</v>
+        <v>4.244351387023926</v>
       </c>
     </row>
     <row r="155">
@@ -6339,16 +6339,16 @@
         <v>5473</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J155" t="n">
-        <v>2.121332860323269</v>
+        <v>3.171640571742164</v>
       </c>
       <c r="K155" t="n">
-        <v>2.367693977532296</v>
+        <v>3.128927560012152</v>
       </c>
       <c r="L155" t="n">
-        <v>2.337381839752197</v>
+        <v>3.201915740966797</v>
       </c>
     </row>
     <row r="156">
@@ -6377,16 +6377,16 @@
         <v>5451.5</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J156" t="n">
-        <v>1.649023032910483</v>
+        <v>2.917095947267565</v>
       </c>
       <c r="K156" t="n">
-        <v>2.082190914039087</v>
+        <v>2.643824423188882</v>
       </c>
       <c r="L156" t="n">
-        <v>2.18090295791626</v>
+        <v>2.919562339782715</v>
       </c>
     </row>
     <row r="157">
@@ -6415,16 +6415,16 @@
         <v>5437.10009765625</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J157" t="n">
-        <v>1.281581095880489</v>
+        <v>2.604271306360642</v>
       </c>
       <c r="K157" t="n">
-        <v>1.669482297057532</v>
+        <v>1.952154444350848</v>
       </c>
       <c r="L157" t="n">
-        <v>1.562154412269592</v>
+        <v>2.286464929580688</v>
       </c>
     </row>
     <row r="158">
@@ -6453,16 +6453,16 @@
         <v>5456.10009765625</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J158" t="n">
-        <v>0.9821800778978366</v>
+        <v>1.535461925240467</v>
       </c>
       <c r="K158" t="n">
-        <v>1.206587141957603</v>
+        <v>0.9405981235676353</v>
       </c>
       <c r="L158" t="n">
-        <v>0.9224509000778198</v>
+        <v>1.055234670639038</v>
       </c>
     </row>
     <row r="159">
@@ -6491,16 +6491,16 @@
         <v>5513.60009765625</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J159" t="n">
-        <v>0.4499967713835879</v>
+        <v>1.342273395307116</v>
       </c>
       <c r="K159" t="n">
-        <v>0.8875477411197982</v>
+        <v>0.7787296860463908</v>
       </c>
       <c r="L159" t="n">
-        <v>0.4532894790172577</v>
+        <v>0.9028612375259399</v>
       </c>
     </row>
     <row r="160">
@@ -6529,16 +6529,16 @@
         <v>5587.60009765625</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1874838101748078</v>
+        <v>0.1311431543313012</v>
       </c>
       <c r="K160" t="n">
-        <v>0.6260363528723706</v>
+        <v>0.1110043453270959</v>
       </c>
       <c r="L160" t="n">
-        <v>0.2359554171562195</v>
+        <v>0.2539243400096893</v>
       </c>
     </row>
     <row r="161">
@@ -6567,16 +6567,16 @@
         <v>5679.5</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0521188349618357</v>
+        <v>0.09332058373435323</v>
       </c>
       <c r="K161" t="n">
-        <v>0.631490597683982</v>
+        <v>0.06489304265080037</v>
       </c>
       <c r="L161" t="n">
-        <v>0.2840812504291534</v>
+        <v>0.04119408130645752</v>
       </c>
     </row>
     <row r="162">
@@ -6605,16 +6605,16 @@
         <v>5803.39990234375</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J162" t="n">
-        <v>0.004759798870029207</v>
+        <v>0.003319239499598306</v>
       </c>
       <c r="K162" t="n">
-        <v>0.501741547992365</v>
+        <v>0.02252232489964227</v>
       </c>
       <c r="L162" t="n">
-        <v>0.179499477148056</v>
+        <v>0.01829702220857143</v>
       </c>
     </row>
     <row r="163">
@@ -6643,16 +6643,16 @@
         <v>5884.7001953125</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K163" t="n">
-        <v>0.501741547992365</v>
+        <v>0.04958866713530671</v>
       </c>
       <c r="L163" t="n">
-        <v>0.2518459260463715</v>
+        <v>0.01065436750650406</v>
       </c>
     </row>
     <row r="164">
@@ -6681,16 +6681,16 @@
         <v>5957</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K164" t="n">
-        <v>0.501741547992365</v>
+        <v>0.04958866713530671</v>
       </c>
       <c r="L164" t="n">
-        <v>0.2936229407787323</v>
+        <v>0.05678615719079971</v>
       </c>
     </row>
     <row r="165">
@@ -6719,16 +6719,16 @@
         <v>6006.2998046875</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K165" t="n">
-        <v>0.5043632402980053</v>
+        <v>0.05264073235060458</v>
       </c>
       <c r="L165" t="n">
-        <v>0.283162534236908</v>
+        <v>0.05059076100587845</v>
       </c>
     </row>
     <row r="166">
@@ -6757,16 +6757,16 @@
         <v>5957.39990234375</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K166" t="n">
-        <v>0.9068193851117402</v>
+        <v>0.05264073235060458</v>
       </c>
       <c r="L166" t="n">
-        <v>0.2585894763469696</v>
+        <v>0.0679137259721756</v>
       </c>
     </row>
     <row r="167">
@@ -6795,16 +6795,16 @@
         <v>5983.39990234375</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K167" t="n">
-        <v>0.5951220655958473</v>
+        <v>0.05264073235060458</v>
       </c>
       <c r="L167" t="n">
-        <v>0.2585894763469696</v>
+        <v>0.0679137259721756</v>
       </c>
     </row>
     <row r="168">
@@ -6833,16 +6833,16 @@
         <v>5963.89990234375</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J168" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K168" t="n">
-        <v>0.5951220655958473</v>
+        <v>0.04604434052306186</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2585894763469696</v>
+        <v>0.1399160027503967</v>
       </c>
     </row>
     <row r="169">
@@ -6871,16 +6871,16 @@
         <v>5913.89990234375</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K169" t="n">
-        <v>0.9068193851117402</v>
+        <v>0.06936523303906982</v>
       </c>
       <c r="L169" t="n">
-        <v>0.2845586240291595</v>
+        <v>0.2482818365097046</v>
       </c>
     </row>
     <row r="170">
@@ -6909,16 +6909,16 @@
         <v>5766.7001953125</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K170" t="n">
-        <v>0.9218840326907722</v>
+        <v>0.07297489347404798</v>
       </c>
       <c r="L170" t="n">
-        <v>0.2950190007686615</v>
+        <v>0.2114780843257904</v>
       </c>
     </row>
     <row r="171">
@@ -6947,16 +6947,16 @@
         <v>5668.2998046875</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K171" t="n">
-        <v>1.313480042173406</v>
+        <v>0.07297489347404798</v>
       </c>
       <c r="L171" t="n">
-        <v>0.5614212155342102</v>
+        <v>0.2052826881408691</v>
       </c>
     </row>
     <row r="172">
@@ -6985,16 +6985,16 @@
         <v>5560</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K172" t="n">
-        <v>0.9596038870575041</v>
+        <v>0.04669827020752795</v>
       </c>
       <c r="L172" t="n">
-        <v>0.3286668956279755</v>
+        <v>0.2052826881408691</v>
       </c>
     </row>
     <row r="173">
@@ -7023,16 +7023,16 @@
         <v>5441.10009765625</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K173" t="n">
-        <v>0.9574799394158334</v>
+        <v>0.0233773776915201</v>
       </c>
       <c r="L173" t="n">
-        <v>0.3173191845417023</v>
+        <v>0.2020961046218872</v>
       </c>
     </row>
     <row r="174">
@@ -7061,16 +7061,16 @@
         <v>5325.2998046875</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K174" t="n">
-        <v>1.055884718888374</v>
+        <v>0.2634365154916218</v>
       </c>
       <c r="L174" t="n">
-        <v>0</v>
+        <v>0.2437600046396255</v>
       </c>
     </row>
     <row r="175">
@@ -7099,16 +7099,16 @@
         <v>5198.89990234375</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K175" t="n">
-        <v>1.055884718888374</v>
+        <v>0.2634365154916218</v>
       </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>0.2625295221805573</v>
       </c>
     </row>
     <row r="176">
@@ -7137,16 +7137,16 @@
         <v>5090.39990234375</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K176" t="n">
-        <v>1.055884718888374</v>
+        <v>0.2634365154916218</v>
       </c>
       <c r="L176" t="n">
-        <v>0</v>
+        <v>0.2625295221805573</v>
       </c>
     </row>
     <row r="177">
@@ -7175,16 +7175,16 @@
         <v>5010.60009765625</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K177" t="n">
-        <v>1.055884718888374</v>
+        <v>0.2634365154916218</v>
       </c>
       <c r="L177" t="n">
-        <v>0</v>
+        <v>0.2625295221805573</v>
       </c>
     </row>
     <row r="178">
@@ -7213,16 +7213,16 @@
         <v>4971.10009765625</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K178" t="n">
-        <v>0.7468090916781221</v>
+        <v>0.2664885807069197</v>
       </c>
       <c r="L178" t="n">
-        <v>0</v>
+        <v>0.3086612522602081</v>
       </c>
     </row>
     <row r="179">
@@ -7251,16 +7251,16 @@
         <v>4928</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K179" t="n">
-        <v>1.058506411194015</v>
+        <v>0.2664885807069197</v>
       </c>
       <c r="L179" t="n">
-        <v>0</v>
+        <v>0.3086612522602081</v>
       </c>
     </row>
     <row r="180">
@@ -7289,16 +7289,16 @@
         <v>4876.39990234375</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K180" t="n">
-        <v>1.058506411194015</v>
+        <v>0.2664885807069197</v>
       </c>
       <c r="L180" t="n">
-        <v>0</v>
+        <v>0.2978290617465973</v>
       </c>
     </row>
     <row r="181">
@@ -7327,16 +7327,16 @@
         <v>4810</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K181" t="n">
-        <v>1.058506411194015</v>
+        <v>0.5576627640569801</v>
       </c>
       <c r="L181" t="n">
-        <v>0</v>
+        <v>0.224019393324852</v>
       </c>
     </row>
     <row r="182">
@@ -7365,16 +7365,16 @@
         <v>4712.39990234375</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K182" t="n">
-        <v>0.8460569355319599</v>
+        <v>0.5546106988416822</v>
       </c>
       <c r="L182" t="n">
-        <v>0</v>
+        <v>0.1778876185417175</v>
       </c>
     </row>
     <row r="183">
@@ -7403,16 +7403,16 @@
         <v>4670.5</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K183" t="n">
-        <v>0.534359616016067</v>
+        <v>0.4807260362419151</v>
       </c>
       <c r="L183" t="n">
-        <v>0</v>
+        <v>0.224019393324852</v>
       </c>
     </row>
     <row r="184">
@@ -7441,16 +7441,16 @@
         <v>4625.7001953125</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K184" t="n">
-        <v>0.8337682289803233</v>
+        <v>0.4807260362419151</v>
       </c>
       <c r="L184" t="n">
-        <v>0</v>
+        <v>0.224019393324852</v>
       </c>
     </row>
     <row r="185">
@@ -7479,16 +7479,16 @@
         <v>4573.10009765625</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0005483588190213994</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K185" t="n">
-        <v>0.8073057065100383</v>
+        <v>0.4807260362419151</v>
       </c>
       <c r="L185" t="n">
-        <v>0</v>
+        <v>0.08932514488697052</v>
       </c>
     </row>
   </sheetData>

--- a/predictions_temperature_hour_wind_consumption_capacity_fast.xlsx
+++ b/predictions_temperature_hour_wind_consumption_capacity_fast.xlsx
@@ -501,7 +501,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -513,16 +513,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14.77000045776367</v>
+        <v>14.13000011444092</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>513.5</v>
+        <v>906.4000244140625</v>
       </c>
       <c r="H2" t="n">
-        <v>3963.800048828125</v>
+        <v>4053.5</v>
       </c>
       <c r="I2" t="n">
         <v>34.79999923706055</v>
@@ -531,15 +531,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K2" t="n">
-        <v>0.291806538083432</v>
+        <v>0.1630444949952548</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.8221259713172913</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -551,16 +551,16 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>14.78999996185303</v>
+        <v>14.10000038146973</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>519.2999877929688</v>
+        <v>887.9000244140625</v>
       </c>
       <c r="H3" t="n">
-        <v>3939</v>
+        <v>4027.800048828125</v>
       </c>
       <c r="I3" t="n">
         <v>34.79999923706055</v>
@@ -569,15 +569,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K3" t="n">
-        <v>0.291806538083432</v>
+        <v>0.1630444949952548</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.8171110153198242</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>14.78999996185303</v>
+        <v>14.07999992370605</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>507.3999938964844</v>
+        <v>871.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3917.5</v>
+        <v>4005.800048828125</v>
       </c>
       <c r="I4" t="n">
         <v>34.79999923706055</v>
@@ -607,15 +607,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K4" t="n">
-        <v>0.291806538083432</v>
+        <v>0.1630444949952548</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.8171110153198242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -627,16 +627,16 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>14.73999977111816</v>
+        <v>14.10999965667725</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>501.6000061035156</v>
+        <v>855.9000244140625</v>
       </c>
       <c r="H5" t="n">
-        <v>3909</v>
+        <v>3995.39990234375</v>
       </c>
       <c r="I5" t="n">
         <v>34.79999923706055</v>
@@ -645,15 +645,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K5" t="n">
-        <v>0.291806538083432</v>
+        <v>0.1630444949952548</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.8171110153198242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>14.64000034332275</v>
+        <v>14.15999984741211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>517.7000122070312</v>
+        <v>834.7000122070312</v>
       </c>
       <c r="H6" t="n">
-        <v>3913.89990234375</v>
+        <v>3999.300048828125</v>
       </c>
       <c r="I6" t="n">
         <v>34.79999923706055</v>
@@ -683,15 +683,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K6" t="n">
-        <v>0.268485645567424</v>
+        <v>0.147535964660125</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.8109156489372253</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B7" t="n">
         <v>3</v>
@@ -703,16 +703,16 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>14.51000022888184</v>
+        <v>14.22999954223633</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>531.5999755859375</v>
+        <v>841.2000122070312</v>
       </c>
       <c r="H7" t="n">
-        <v>3927.300048828125</v>
+        <v>4019</v>
       </c>
       <c r="I7" t="n">
         <v>34.79999923706055</v>
@@ -721,15 +721,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K7" t="n">
-        <v>0.268485645567424</v>
+        <v>0.147535964660125</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.8109156489372253</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
@@ -741,16 +741,16 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>14.35999965667725</v>
+        <v>14.30000019073486</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>553</v>
+        <v>851.7999877929688</v>
       </c>
       <c r="H8" t="n">
-        <v>3945.39990234375</v>
+        <v>4041.699951171875</v>
       </c>
       <c r="I8" t="n">
         <v>34.79999923706055</v>
@@ -759,15 +759,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K8" t="n">
-        <v>0.268485645567424</v>
+        <v>0.1734131593532874</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.8109156489372253</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -779,16 +779,16 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>14.25</v>
+        <v>14.32999992370605</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>573.0999755859375</v>
+        <v>856</v>
       </c>
       <c r="H9" t="n">
-        <v>3958.699951171875</v>
+        <v>4064.5</v>
       </c>
       <c r="I9" t="n">
         <v>34.79999923706055</v>
@@ -797,15 +797,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K9" t="n">
-        <v>0.268485645567424</v>
+        <v>0.1367678717287347</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.8109156489372253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>14.17000007629395</v>
+        <v>14.35000038146973</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>582.7999877929688</v>
+        <v>832.9000244140625</v>
       </c>
       <c r="H10" t="n">
-        <v>3996.89990234375</v>
+        <v>4112</v>
       </c>
       <c r="I10" t="n">
         <v>34.79999923706055</v>
@@ -835,15 +835,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4046211625627874</v>
+        <v>0.1367678717287347</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8383580446243286</v>
+        <v>0.8109156489372253</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -855,16 +855,16 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>14.14000034332275</v>
+        <v>14.35000038146973</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>599.5</v>
+        <v>776.2999877929688</v>
       </c>
       <c r="H11" t="n">
-        <v>4033.199951171875</v>
+        <v>4155</v>
       </c>
       <c r="I11" t="n">
         <v>34.79999923706055</v>
@@ -873,15 +873,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4279420550787952</v>
+        <v>0.1367678717287347</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8415446281433105</v>
+        <v>0.8109156489372253</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B12" t="n">
         <v>4</v>
@@ -893,16 +893,16 @@
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>14.13000011444092</v>
+        <v>14.32999992370605</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>628.9000244140625</v>
+        <v>726.0999755859375</v>
       </c>
       <c r="H12" t="n">
-        <v>4085</v>
+        <v>4212.2998046875</v>
       </c>
       <c r="I12" t="n">
         <v>34.79999923706055</v>
@@ -911,15 +911,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4279420550787952</v>
+        <v>0.1367678717287347</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8635846376419067</v>
+        <v>0.8109156489372253</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B13" t="n">
         <v>4</v>
@@ -931,16 +931,16 @@
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>14.14000034332275</v>
+        <v>14.32999992370605</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>665.0999755859375</v>
+        <v>666.2999877929688</v>
       </c>
       <c r="H13" t="n">
-        <v>4159.7998046875</v>
+        <v>4290.39990234375</v>
       </c>
       <c r="I13" t="n">
         <v>34.79999923706055</v>
@@ -949,15 +949,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4279420550787952</v>
+        <v>0.1367678717287347</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8635846376419067</v>
+        <v>0.8109156489372253</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B14" t="n">
         <v>5</v>
@@ -969,16 +969,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>14.14000034332275</v>
+        <v>14.3100004196167</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>684.2999877929688</v>
+        <v>643.9000244140625</v>
       </c>
       <c r="H14" t="n">
-        <v>4286</v>
+        <v>4417.10009765625</v>
       </c>
       <c r="I14" t="n">
         <v>34.79999923706055</v>
@@ -990,12 +990,12 @@
         <v>0.4248899898634974</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8276734948158264</v>
+        <v>0.7750044465065002</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B15" t="n">
         <v>5</v>
@@ -1007,16 +1007,16 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>14.10999965667725</v>
+        <v>14.3100004196167</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>695.4000244140625</v>
+        <v>639.5999755859375</v>
       </c>
       <c r="H15" t="n">
-        <v>4395.5</v>
+        <v>4512.10009765625</v>
       </c>
       <c r="I15" t="n">
         <v>34.79999923706055</v>
@@ -1028,12 +1028,12 @@
         <v>0.4248899898634974</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8276734948158264</v>
+        <v>0.7750044465065002</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
@@ -1045,16 +1045,16 @@
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>14.07999992370605</v>
+        <v>14.30000019073486</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>733.2000122070312</v>
+        <v>637.5</v>
       </c>
       <c r="H16" t="n">
-        <v>4516.2998046875</v>
+        <v>4620.2001953125</v>
       </c>
       <c r="I16" t="n">
         <v>34.79999923706055</v>
@@ -1066,12 +1066,12 @@
         <v>0.4248899898634974</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8276734948158264</v>
+        <v>0.7750044465065002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
@@ -1083,16 +1083,16 @@
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>13.98999977111816</v>
+        <v>14.23999977111816</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>756.0999755859375</v>
+        <v>641.4000244140625</v>
       </c>
       <c r="H17" t="n">
-        <v>4657.89990234375</v>
+        <v>4744.2998046875</v>
       </c>
       <c r="I17" t="n">
         <v>34.79999923706055</v>
@@ -1104,12 +1104,12 @@
         <v>0.4015690973474895</v>
       </c>
       <c r="L17" t="n">
-        <v>0.824487030506134</v>
+        <v>0.7718179225921631</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
@@ -1121,16 +1121,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>13.90999984741211</v>
+        <v>14.1899995803833</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>788.0999755859375</v>
+        <v>636.2000122070312</v>
       </c>
       <c r="H18" t="n">
-        <v>4814.7998046875</v>
+        <v>4882.7998046875</v>
       </c>
       <c r="I18" t="n">
         <v>34.79999923706055</v>
@@ -1139,15 +1139,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1103949139974289</v>
+        <v>0.4248899898634974</v>
       </c>
       <c r="L18" t="n">
-        <v>0.824487030506134</v>
+        <v>0.7750044465065002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
@@ -1159,16 +1159,16 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>13.84000015258789</v>
+        <v>14.14000034332275</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>792.5999755859375</v>
+        <v>622.2000122070312</v>
       </c>
       <c r="H19" t="n">
-        <v>4959.10009765625</v>
+        <v>5020</v>
       </c>
       <c r="I19" t="n">
         <v>34.79999923706055</v>
@@ -1177,15 +1177,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1103949139974289</v>
+        <v>0.4248899898634974</v>
       </c>
       <c r="L19" t="n">
-        <v>0.824487030506134</v>
+        <v>0.7750044465065002</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B20" t="n">
         <v>6</v>
@@ -1197,33 +1197,33 @@
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>13.78999996185303</v>
+        <v>14.10999965667725</v>
       </c>
       <c r="F20" t="n">
-        <v>17.20000076293945</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="G20" t="n">
-        <v>810.4000244140625</v>
+        <v>619.2000122070312</v>
       </c>
       <c r="H20" t="n">
-        <v>5095.60009765625</v>
+        <v>5151.7001953125</v>
       </c>
       <c r="I20" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0009843179654155933</v>
+        <v>0.0008971544335565749</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1337158065134368</v>
+        <v>0.4248899898634974</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8276734948158264</v>
+        <v>0.7750044465065002</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B21" t="n">
         <v>6</v>
@@ -1235,33 +1235,33 @@
         <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>13.8100004196167</v>
+        <v>14.13000011444092</v>
       </c>
       <c r="F21" t="n">
-        <v>79</v>
+        <v>60.70000076293945</v>
       </c>
       <c r="G21" t="n">
-        <v>827</v>
+        <v>646.2999877929688</v>
       </c>
       <c r="H21" t="n">
-        <v>5218.2001953125</v>
+        <v>5269.5</v>
       </c>
       <c r="I21" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0275230155861964</v>
+        <v>0.01417977115662252</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1416819255307502</v>
+        <v>0.4328561088808108</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8500218987464905</v>
+        <v>0.7973529100418091</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B22" t="n">
         <v>7</v>
@@ -1273,33 +1273,33 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>13.90999984741211</v>
+        <v>14.1899995803833</v>
       </c>
       <c r="F22" t="n">
-        <v>343.5</v>
+        <v>259</v>
       </c>
       <c r="G22" t="n">
-        <v>825.2999877929688</v>
+        <v>656.7999877929688</v>
       </c>
       <c r="H22" t="n">
-        <v>5304.5</v>
+        <v>5355.2001953125</v>
       </c>
       <c r="I22" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J22" t="n">
-        <v>0.418871028076284</v>
+        <v>0.3229635904067301</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6155475030604248</v>
+        <v>0.6598705021427965</v>
       </c>
       <c r="L22" t="n">
-        <v>1.282374620437622</v>
+        <v>0.9705191254615784</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B23" t="n">
         <v>7</v>
@@ -1311,33 +1311,33 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>14.07999992370605</v>
+        <v>14.28999996185303</v>
       </c>
       <c r="F23" t="n">
-        <v>498.1000061035156</v>
+        <v>383.3999938964844</v>
       </c>
       <c r="G23" t="n">
-        <v>806.2999877929688</v>
+        <v>666.9000244140625</v>
       </c>
       <c r="H23" t="n">
-        <v>5426</v>
+        <v>5495</v>
       </c>
       <c r="I23" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J23" t="n">
-        <v>1.25729582568527</v>
+        <v>0.7046945449603249</v>
       </c>
       <c r="K23" t="n">
-        <v>1.157240867465413</v>
+        <v>1.101587366784429</v>
       </c>
       <c r="L23" t="n">
-        <v>1.710161924362183</v>
+        <v>1.364587306976318</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B24" t="n">
         <v>7</v>
@@ -1349,33 +1349,33 @@
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>14.3100004196167</v>
+        <v>14.4399995803833</v>
       </c>
       <c r="F24" t="n">
-        <v>675.4000244140625</v>
+        <v>515.4000244140625</v>
       </c>
       <c r="G24" t="n">
-        <v>804.7999877929688</v>
+        <v>666.2000122070312</v>
       </c>
       <c r="H24" t="n">
-        <v>5544.39990234375</v>
+        <v>5633.5</v>
       </c>
       <c r="I24" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J24" t="n">
-        <v>1.680659765643328</v>
+        <v>1.415171237091762</v>
       </c>
       <c r="K24" t="n">
-        <v>1.746082242654914</v>
+        <v>1.638865190180579</v>
       </c>
       <c r="L24" t="n">
-        <v>2.369202375411987</v>
+        <v>1.897496223449707</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B25" t="n">
         <v>7</v>
@@ -1387,33 +1387,33 @@
         <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>14.56999969482422</v>
+        <v>14.60000038146973</v>
       </c>
       <c r="F25" t="n">
-        <v>865</v>
+        <v>694</v>
       </c>
       <c r="G25" t="n">
-        <v>787.7999877929688</v>
+        <v>673.2000122070312</v>
       </c>
       <c r="H25" t="n">
-        <v>5660.2001953125</v>
+        <v>5769.60009765625</v>
       </c>
       <c r="I25" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J25" t="n">
-        <v>2.617110064303813</v>
+        <v>2.076277079564111</v>
       </c>
       <c r="K25" t="n">
-        <v>2.48313618795369</v>
+        <v>2.222945612545063</v>
       </c>
       <c r="L25" t="n">
-        <v>3.131908416748047</v>
+        <v>2.26439642906189</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B26" t="n">
         <v>8</v>
@@ -1425,33 +1425,33 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>14.85999965667725</v>
+        <v>14.80000019073486</v>
       </c>
       <c r="F26" t="n">
-        <v>1095.400024414062</v>
+        <v>916.7000122070312</v>
       </c>
       <c r="G26" t="n">
-        <v>790.7000122070312</v>
+        <v>679.7000122070312</v>
       </c>
       <c r="H26" t="n">
-        <v>5763.10009765625</v>
+        <v>5890</v>
       </c>
       <c r="I26" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J26" t="n">
-        <v>3.488938276851064</v>
+        <v>2.552747728427307</v>
       </c>
       <c r="K26" t="n">
-        <v>3.087418814818929</v>
+        <v>2.668469994223167</v>
       </c>
       <c r="L26" t="n">
-        <v>3.163712024688721</v>
+        <v>2.545063495635986</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B27" t="n">
         <v>8</v>
@@ -1463,33 +1463,33 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>15.15999984741211</v>
+        <v>15.02000045776367</v>
       </c>
       <c r="F27" t="n">
-        <v>1300.099975585938</v>
+        <v>1150.5</v>
       </c>
       <c r="G27" t="n">
-        <v>804.5</v>
+        <v>673.0999755859375</v>
       </c>
       <c r="H27" t="n">
-        <v>5833.2998046875</v>
+        <v>5977.39990234375</v>
       </c>
       <c r="I27" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J27" t="n">
-        <v>3.711832139527259</v>
+        <v>3.191939119765082</v>
       </c>
       <c r="K27" t="n">
-        <v>3.826577983153435</v>
+        <v>3.235493461579985</v>
       </c>
       <c r="L27" t="n">
-        <v>3.929699897766113</v>
+        <v>2.923532485961914</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B28" t="n">
         <v>8</v>
@@ -1501,33 +1501,33 @@
         <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>15.46000003814697</v>
+        <v>15.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1518.800048828125</v>
+        <v>1378.5</v>
       </c>
       <c r="G28" t="n">
-        <v>807.2999877929688</v>
+        <v>681.2000122070312</v>
       </c>
       <c r="H28" t="n">
-        <v>5879.5</v>
+        <v>6043.2001953125</v>
       </c>
       <c r="I28" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J28" t="n">
-        <v>6.739427184974057</v>
+        <v>3.517529304870173</v>
       </c>
       <c r="K28" t="n">
-        <v>5.737770724301406</v>
+        <v>3.950616832790843</v>
       </c>
       <c r="L28" t="n">
-        <v>5.484755039215088</v>
+        <v>3.722355127334595</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B29" t="n">
         <v>8</v>
@@ -1539,33 +1539,33 @@
         <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>15.88000011444092</v>
+        <v>15.60000038146973</v>
       </c>
       <c r="F29" t="n">
-        <v>1745</v>
+        <v>1532.400024414062</v>
       </c>
       <c r="G29" t="n">
-        <v>827.7000122070312</v>
+        <v>704.0999755859375</v>
       </c>
       <c r="H29" t="n">
-        <v>5911.39990234375</v>
+        <v>6098.89990234375</v>
       </c>
       <c r="I29" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J29" t="n">
-        <v>7.373529980265226</v>
+        <v>7.013028628204939</v>
       </c>
       <c r="K29" t="n">
-        <v>6.930483650091152</v>
+        <v>6.241586132273726</v>
       </c>
       <c r="L29" t="n">
-        <v>6.488836765289307</v>
+        <v>5.886502265930176</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B30" t="n">
         <v>9</v>
@@ -1577,33 +1577,33 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>16.28000068664551</v>
+        <v>15.93000030517578</v>
       </c>
       <c r="F30" t="n">
-        <v>2028.5</v>
+        <v>1706.900024414062</v>
       </c>
       <c r="G30" t="n">
-        <v>834.7999877929688</v>
+        <v>755.2999877929688</v>
       </c>
       <c r="H30" t="n">
-        <v>5890.60009765625</v>
+        <v>6098.2001953125</v>
       </c>
       <c r="I30" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J30" t="n">
-        <v>8.457845752296061</v>
+        <v>7.511031500273534</v>
       </c>
       <c r="K30" t="n">
-        <v>7.004490468021613</v>
+        <v>6.998816061541515</v>
       </c>
       <c r="L30" t="n">
-        <v>8.163032531738281</v>
+        <v>6.434460163116455</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B31" t="n">
         <v>9</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>16.65999984741211</v>
+        <v>16.23999977111816</v>
       </c>
       <c r="F31" t="n">
-        <v>2271.699951171875</v>
+        <v>1851.900024414062</v>
       </c>
       <c r="G31" t="n">
-        <v>874.4000244140625</v>
+        <v>818.7000122070312</v>
       </c>
       <c r="H31" t="n">
-        <v>5857.2001953125</v>
+        <v>6116.39990234375</v>
       </c>
       <c r="I31" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J31" t="n">
-        <v>9.451629431829572</v>
+        <v>8.352979326325094</v>
       </c>
       <c r="K31" t="n">
-        <v>7.305855974016644</v>
+        <v>7.392495710797902</v>
       </c>
       <c r="L31" t="n">
-        <v>8.573324203491211</v>
+        <v>8.207608222961426</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B32" t="n">
         <v>9</v>
@@ -1653,33 +1653,33 @@
         <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>17.02000045776367</v>
+        <v>16.54000091552734</v>
       </c>
       <c r="F32" t="n">
-        <v>2497.5</v>
+        <v>1987.699951171875</v>
       </c>
       <c r="G32" t="n">
-        <v>903.2999877929688</v>
+        <v>889.5999755859375</v>
       </c>
       <c r="H32" t="n">
-        <v>5815.7998046875</v>
+        <v>6124.60009765625</v>
       </c>
       <c r="I32" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J32" t="n">
-        <v>10.58290400652929</v>
+        <v>8.358469120819167</v>
       </c>
       <c r="K32" t="n">
-        <v>7.908289975047113</v>
+        <v>7.421369683676818</v>
       </c>
       <c r="L32" t="n">
-        <v>10.08626174926758</v>
+        <v>8.404631614685059</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B33" t="n">
         <v>9</v>
@@ -1691,33 +1691,33 @@
         <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>17.29999923706055</v>
+        <v>16.79000091552734</v>
       </c>
       <c r="F33" t="n">
-        <v>2685.5</v>
+        <v>1968.900024414062</v>
       </c>
       <c r="G33" t="n">
-        <v>962.2999877929688</v>
+        <v>942.4000244140625</v>
       </c>
       <c r="H33" t="n">
-        <v>5780.5</v>
+        <v>6136.2998046875</v>
       </c>
       <c r="I33" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J33" t="n">
-        <v>11.68035860205899</v>
+        <v>8.418048963308363</v>
       </c>
       <c r="K33" t="n">
-        <v>9.52902865805658</v>
+        <v>7.654660101403666</v>
       </c>
       <c r="L33" t="n">
-        <v>11.1873664855957</v>
+        <v>8.342384338378906</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B34" t="n">
         <v>10</v>
@@ -1729,33 +1729,33 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>17.56999969482422</v>
+        <v>17.04000091552734</v>
       </c>
       <c r="F34" t="n">
-        <v>2863.39990234375</v>
+        <v>2099.10009765625</v>
       </c>
       <c r="G34" t="n">
-        <v>1004.400024414062</v>
+        <v>981</v>
       </c>
       <c r="H34" t="n">
-        <v>5766.5</v>
+        <v>6162.39990234375</v>
       </c>
       <c r="I34" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J34" t="n">
-        <v>11.83687628110463</v>
+        <v>9.31351254423814</v>
       </c>
       <c r="K34" t="n">
-        <v>10.78565096369608</v>
+        <v>7.870956948770473</v>
       </c>
       <c r="L34" t="n">
-        <v>10.8220043182373</v>
+        <v>7.94651460647583</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B35" t="n">
         <v>10</v>
@@ -1767,33 +1767,33 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>17.82999992370605</v>
+        <v>17.29000091552734</v>
       </c>
       <c r="F35" t="n">
-        <v>2985.699951171875</v>
+        <v>2125.300048828125</v>
       </c>
       <c r="G35" t="n">
-        <v>1017.900024414062</v>
+        <v>1000.200012207031</v>
       </c>
       <c r="H35" t="n">
-        <v>5835.10009765625</v>
+        <v>6174.89990234375</v>
       </c>
       <c r="I35" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J35" t="n">
-        <v>13.02308173269396</v>
+        <v>9.58602174757017</v>
       </c>
       <c r="K35" t="n">
-        <v>10.61822733004989</v>
+        <v>7.673348528063412</v>
       </c>
       <c r="L35" t="n">
-        <v>11.26876068115234</v>
+        <v>7.96362829208374</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B36" t="n">
         <v>10</v>
@@ -1805,33 +1805,33 @@
         <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>18.07999992370605</v>
+        <v>17.52000045776367</v>
       </c>
       <c r="F36" t="n">
-        <v>3071.60009765625</v>
+        <v>2143.699951171875</v>
       </c>
       <c r="G36" t="n">
-        <v>1042.5</v>
+        <v>1025.5</v>
       </c>
       <c r="H36" t="n">
-        <v>5911.10009765625</v>
+        <v>6192.7001953125</v>
       </c>
       <c r="I36" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J36" t="n">
-        <v>13.93106055617981</v>
+        <v>9.948747090836976</v>
       </c>
       <c r="K36" t="n">
-        <v>11.91865823135262</v>
+        <v>7.938452712105756</v>
       </c>
       <c r="L36" t="n">
-        <v>12.59902095794678</v>
+        <v>8.019959449768066</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B37" t="n">
         <v>10</v>
@@ -1843,33 +1843,33 @@
         <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>18.34000015258789</v>
+        <v>17.75</v>
       </c>
       <c r="F37" t="n">
-        <v>3108.39990234375</v>
+        <v>2167.699951171875</v>
       </c>
       <c r="G37" t="n">
-        <v>1079.400024414062</v>
+        <v>1038.900024414062</v>
       </c>
       <c r="H37" t="n">
-        <v>5978.60009765625</v>
+        <v>6197.89990234375</v>
       </c>
       <c r="I37" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J37" t="n">
-        <v>13.86189014915722</v>
+        <v>9.996444848369089</v>
       </c>
       <c r="K37" t="n">
-        <v>13.6612766964916</v>
+        <v>8.148983926944803</v>
       </c>
       <c r="L37" t="n">
-        <v>14.415696144104</v>
+        <v>8.165846824645996</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B38" t="n">
         <v>11</v>
@@ -1881,33 +1881,33 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>18.57999992370605</v>
+        <v>17.96999931335449</v>
       </c>
       <c r="F38" t="n">
-        <v>3022.5</v>
+        <v>2216.300048828125</v>
       </c>
       <c r="G38" t="n">
-        <v>1091.5</v>
+        <v>1061.300048828125</v>
       </c>
       <c r="H38" t="n">
-        <v>6022.2998046875</v>
+        <v>6186.5</v>
       </c>
       <c r="I38" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J38" t="n">
-        <v>13.22758746072089</v>
+        <v>9.801846809945578</v>
       </c>
       <c r="K38" t="n">
-        <v>12.56607338675948</v>
+        <v>8.352842128704404</v>
       </c>
       <c r="L38" t="n">
-        <v>12.20441722869873</v>
+        <v>8.328753471374512</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B39" t="n">
         <v>11</v>
@@ -1919,33 +1919,33 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>18.79000091552734</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="F39" t="n">
-        <v>3030.60009765625</v>
+        <v>2167.10009765625</v>
       </c>
       <c r="G39" t="n">
-        <v>1102.099975585938</v>
+        <v>1063.699951171875</v>
       </c>
       <c r="H39" t="n">
-        <v>6017.10009765625</v>
+        <v>6131.39990234375</v>
       </c>
       <c r="I39" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J39" t="n">
-        <v>13.187494201821</v>
+        <v>9.451125424324403</v>
       </c>
       <c r="K39" t="n">
-        <v>12.56607338675948</v>
+        <v>9.416025759504526</v>
       </c>
       <c r="L39" t="n">
-        <v>11.96741104125977</v>
+        <v>8.671689987182617</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B40" t="n">
         <v>11</v>
@@ -1957,33 +1957,33 @@
         <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>18.96999931335449</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="F40" t="n">
-        <v>3005.60009765625</v>
+        <v>2266</v>
       </c>
       <c r="G40" t="n">
-        <v>1109.099975585938</v>
+        <v>1076.800048828125</v>
       </c>
       <c r="H40" t="n">
-        <v>6000</v>
+        <v>6065.2001953125</v>
       </c>
       <c r="I40" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5773789997666</v>
+        <v>9.069172427107405</v>
       </c>
       <c r="K40" t="n">
-        <v>11.57964417987295</v>
+        <v>9.528011537801818</v>
       </c>
       <c r="L40" t="n">
-        <v>11.27836036682129</v>
+        <v>9.032490730285645</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B41" t="n">
         <v>11</v>
@@ -1995,33 +1995,33 @@
         <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>19.19000053405762</v>
+        <v>18.54000091552734</v>
       </c>
       <c r="F41" t="n">
-        <v>2975</v>
+        <v>2270.199951171875</v>
       </c>
       <c r="G41" t="n">
-        <v>1128.599975585938</v>
+        <v>1089.599975585938</v>
       </c>
       <c r="H41" t="n">
-        <v>5975</v>
+        <v>5992.7998046875</v>
       </c>
       <c r="I41" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J41" t="n">
-        <v>12.5773789997666</v>
+        <v>8.943050559463453</v>
       </c>
       <c r="K41" t="n">
-        <v>11.39983311852303</v>
+        <v>9.534707250758185</v>
       </c>
       <c r="L41" t="n">
-        <v>11.45183849334717</v>
+        <v>9.004144668579102</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B42" t="n">
         <v>12</v>
@@ -2033,33 +2033,33 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>19.38999938964844</v>
+        <v>18.70999908447266</v>
       </c>
       <c r="F42" t="n">
-        <v>3029.199951171875</v>
+        <v>2291.699951171875</v>
       </c>
       <c r="G42" t="n">
-        <v>1126.400024414062</v>
+        <v>1111.199951171875</v>
       </c>
       <c r="H42" t="n">
-        <v>5924.7998046875</v>
+        <v>5899.7001953125</v>
       </c>
       <c r="I42" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J42" t="n">
-        <v>13.16258708716906</v>
+        <v>8.710367465197981</v>
       </c>
       <c r="K42" t="n">
-        <v>11.63075766251829</v>
+        <v>9.474472107644194</v>
       </c>
       <c r="L42" t="n">
-        <v>11.21251392364502</v>
+        <v>9.021108627319336</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B43" t="n">
         <v>12</v>
@@ -2071,33 +2071,33 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>19.55999946594238</v>
+        <v>18.84000015258789</v>
       </c>
       <c r="F43" t="n">
-        <v>2920.60009765625</v>
+        <v>2137.60009765625</v>
       </c>
       <c r="G43" t="n">
-        <v>1132</v>
+        <v>1150.900024414062</v>
       </c>
       <c r="H43" t="n">
-        <v>5954.89990234375</v>
+        <v>5888.7001953125</v>
       </c>
       <c r="I43" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J43" t="n">
-        <v>12.53306626058427</v>
+        <v>8.822369520590465</v>
       </c>
       <c r="K43" t="n">
-        <v>12.14487846855062</v>
+        <v>9.345083806966057</v>
       </c>
       <c r="L43" t="n">
-        <v>11.95432090759277</v>
+        <v>8.847521781921387</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B44" t="n">
         <v>12</v>
@@ -2109,33 +2109,33 @@
         <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>19.70999908447266</v>
+        <v>18.95000076293945</v>
       </c>
       <c r="F44" t="n">
-        <v>2911.199951171875</v>
+        <v>2207.5</v>
       </c>
       <c r="G44" t="n">
-        <v>1127.900024414062</v>
+        <v>1195.800048828125</v>
       </c>
       <c r="H44" t="n">
-        <v>5974</v>
+        <v>5867.89990234375</v>
       </c>
       <c r="I44" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J44" t="n">
-        <v>12.65697599592014</v>
+        <v>8.774971835491923</v>
       </c>
       <c r="K44" t="n">
-        <v>12.23207641865337</v>
+        <v>9.22865442642785</v>
       </c>
       <c r="L44" t="n">
-        <v>12.36099815368652</v>
+        <v>9.014252662658691</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B45" t="n">
         <v>12</v>
@@ -2147,33 +2147,33 @@
         <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>19.79999923706055</v>
+        <v>19.03000068664551</v>
       </c>
       <c r="F45" t="n">
-        <v>2723.199951171875</v>
+        <v>2167.39990234375</v>
       </c>
       <c r="G45" t="n">
-        <v>1131.5</v>
+        <v>1251.699951171875</v>
       </c>
       <c r="H45" t="n">
-        <v>5976.7998046875</v>
+        <v>5833.2998046875</v>
       </c>
       <c r="I45" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J45" t="n">
-        <v>12.70384040843732</v>
+        <v>8.779969033510261</v>
       </c>
       <c r="K45" t="n">
-        <v>12.23182305503528</v>
+        <v>9.218475934692506</v>
       </c>
       <c r="L45" t="n">
-        <v>11.33876895904541</v>
+        <v>8.914362907409668</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B46" t="n">
         <v>13</v>
@@ -2185,33 +2185,33 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>19.8700008392334</v>
+        <v>19.1299991607666</v>
       </c>
       <c r="F46" t="n">
-        <v>2692.39990234375</v>
+        <v>2272.300048828125</v>
       </c>
       <c r="G46" t="n">
-        <v>1124.199951171875</v>
+        <v>1281.699951171875</v>
       </c>
       <c r="H46" t="n">
-        <v>5937.60009765625</v>
+        <v>5765.7001953125</v>
       </c>
       <c r="I46" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J46" t="n">
-        <v>11.7551839509641</v>
+        <v>9.039853819085369</v>
       </c>
       <c r="K46" t="n">
-        <v>12.87920298294144</v>
+        <v>9.502906062616439</v>
       </c>
       <c r="L46" t="n">
-        <v>11.37758159637451</v>
+        <v>9.118330001831055</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B47" t="n">
         <v>13</v>
@@ -2223,33 +2223,33 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>19.93000030517578</v>
+        <v>19.25</v>
       </c>
       <c r="F47" t="n">
-        <v>2521.199951171875</v>
+        <v>2148</v>
       </c>
       <c r="G47" t="n">
-        <v>1112</v>
+        <v>1245.300048828125</v>
       </c>
       <c r="H47" t="n">
-        <v>5898.2001953125</v>
+        <v>5706.39990234375</v>
       </c>
       <c r="I47" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J47" t="n">
-        <v>10.45234634934872</v>
+        <v>8.892946124578939</v>
       </c>
       <c r="K47" t="n">
-        <v>12.12641698657567</v>
+        <v>9.232780381677934</v>
       </c>
       <c r="L47" t="n">
-        <v>10.85093975067139</v>
+        <v>8.914362907409668</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B48" t="n">
         <v>13</v>
@@ -2261,33 +2261,33 @@
         <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>19.97999954223633</v>
+        <v>19.3799991607666</v>
       </c>
       <c r="F48" t="n">
-        <v>2407.60009765625</v>
+        <v>1997.199951171875</v>
       </c>
       <c r="G48" t="n">
-        <v>1095.199951171875</v>
+        <v>1221.699951171875</v>
       </c>
       <c r="H48" t="n">
-        <v>5852.7001953125</v>
+        <v>5645.7001953125</v>
       </c>
       <c r="I48" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J48" t="n">
-        <v>9.643463718385172</v>
+        <v>8.736450379696715</v>
       </c>
       <c r="K48" t="n">
-        <v>11.34776790793535</v>
+        <v>9.253575186770792</v>
       </c>
       <c r="L48" t="n">
-        <v>10.54650115966797</v>
+        <v>8.444051742553711</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B49" t="n">
         <v>13</v>
@@ -2299,33 +2299,33 @@
         <v>3</v>
       </c>
       <c r="E49" t="n">
-        <v>19.95000076293945</v>
+        <v>19.42000007629395</v>
       </c>
       <c r="F49" t="n">
-        <v>2212.199951171875</v>
+        <v>1901.800048828125</v>
       </c>
       <c r="G49" t="n">
-        <v>1077.099975585938</v>
+        <v>1206.699951171875</v>
       </c>
       <c r="H49" t="n">
-        <v>5809.7998046875</v>
+        <v>5578.7001953125</v>
       </c>
       <c r="I49" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J49" t="n">
-        <v>8.900628673370266</v>
+        <v>8.387279384971084</v>
       </c>
       <c r="K49" t="n">
-        <v>11.03629255696344</v>
+        <v>9.400923892392083</v>
       </c>
       <c r="L49" t="n">
-        <v>10.38086223602295</v>
+        <v>8.173686981201172</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B50" t="n">
         <v>14</v>
@@ -2337,33 +2337,33 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>19.92000007629395</v>
+        <v>19.44000053405762</v>
       </c>
       <c r="F50" t="n">
-        <v>1968</v>
+        <v>1732.5</v>
       </c>
       <c r="G50" t="n">
-        <v>1076.699951171875</v>
+        <v>1211.800048828125</v>
       </c>
       <c r="H50" t="n">
-        <v>5771.2998046875</v>
+        <v>5526</v>
       </c>
       <c r="I50" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J50" t="n">
-        <v>9.092935080876209</v>
+        <v>8.228925046438871</v>
       </c>
       <c r="K50" t="n">
-        <v>10.26614719342713</v>
+        <v>9.160232747950761</v>
       </c>
       <c r="L50" t="n">
-        <v>8.726395606994629</v>
+        <v>7.933971881866455</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B51" t="n">
         <v>14</v>
@@ -2375,33 +2375,33 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>19.88999938964844</v>
+        <v>19.43000030517578</v>
       </c>
       <c r="F51" t="n">
-        <v>1822</v>
+        <v>1618.199951171875</v>
       </c>
       <c r="G51" t="n">
-        <v>1084.400024414062</v>
+        <v>1237.599975585938</v>
       </c>
       <c r="H51" t="n">
-        <v>5705.5</v>
+        <v>5457</v>
       </c>
       <c r="I51" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J51" t="n">
-        <v>8.570025381944527</v>
+        <v>8.17390039653816</v>
       </c>
       <c r="K51" t="n">
-        <v>10.25232542965297</v>
+        <v>9.073875281817415</v>
       </c>
       <c r="L51" t="n">
-        <v>7.886496067047119</v>
+        <v>8.323550224304199</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B52" t="n">
         <v>14</v>
@@ -2413,33 +2413,33 @@
         <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>19.85000038146973</v>
+        <v>19.3799991607666</v>
       </c>
       <c r="F52" t="n">
-        <v>1643.699951171875</v>
+        <v>1469</v>
       </c>
       <c r="G52" t="n">
-        <v>1092.599975585938</v>
+        <v>1270.900024414062</v>
       </c>
       <c r="H52" t="n">
-        <v>5649.2001953125</v>
+        <v>5396.2001953125</v>
       </c>
       <c r="I52" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J52" t="n">
-        <v>8.001785947559892</v>
+        <v>7.628023893668888</v>
       </c>
       <c r="K52" t="n">
-        <v>9.430991083186512</v>
+        <v>8.350008308840724</v>
       </c>
       <c r="L52" t="n">
-        <v>7.526503562927246</v>
+        <v>6.682491779327393</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B53" t="n">
         <v>14</v>
@@ -2451,33 +2451,33 @@
         <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>19.81999969482422</v>
+        <v>19.31999969482422</v>
       </c>
       <c r="F53" t="n">
-        <v>1517.400024414062</v>
+        <v>1346.699951171875</v>
       </c>
       <c r="G53" t="n">
-        <v>1112.599975585938</v>
+        <v>1309.599975585938</v>
       </c>
       <c r="H53" t="n">
-        <v>5595.60009765625</v>
+        <v>5334.2001953125</v>
       </c>
       <c r="I53" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J53" t="n">
-        <v>7.956310361373948</v>
+        <v>6.407512332606911</v>
       </c>
       <c r="K53" t="n">
-        <v>9.430991083186512</v>
+        <v>7.003143495716242</v>
       </c>
       <c r="L53" t="n">
-        <v>7.526503562927246</v>
+        <v>5.855143070220947</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B54" t="n">
         <v>15</v>
@@ -2489,33 +2489,33 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>19.77000045776367</v>
+        <v>19.21999931335449</v>
       </c>
       <c r="F54" t="n">
-        <v>1353.5</v>
+        <v>1243.300048828125</v>
       </c>
       <c r="G54" t="n">
-        <v>1125.099975585938</v>
+        <v>1290.099975585938</v>
       </c>
       <c r="H54" t="n">
-        <v>5574.60009765625</v>
+        <v>5296.2998046875</v>
       </c>
       <c r="I54" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J54" t="n">
-        <v>6.418772200893427</v>
+        <v>5.551999431428217</v>
       </c>
       <c r="K54" t="n">
-        <v>8.649428534780228</v>
+        <v>5.495970465262175</v>
       </c>
       <c r="L54" t="n">
-        <v>5.905240535736084</v>
+        <v>4.935695648193359</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B55" t="n">
         <v>15</v>
@@ -2527,33 +2527,33 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>19.68000030517578</v>
+        <v>19.09000015258789</v>
       </c>
       <c r="F55" t="n">
-        <v>1176.5</v>
+        <v>1133.5</v>
       </c>
       <c r="G55" t="n">
-        <v>1127.599975585938</v>
+        <v>1213.699951171875</v>
       </c>
       <c r="H55" t="n">
-        <v>5539.2998046875</v>
+        <v>5272.89990234375</v>
       </c>
       <c r="I55" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J55" t="n">
-        <v>5.085346939424156</v>
+        <v>5.095757689672199</v>
       </c>
       <c r="K55" t="n">
-        <v>5.541839394088892</v>
+        <v>4.831509590431649</v>
       </c>
       <c r="L55" t="n">
-        <v>4.739142417907715</v>
+        <v>4.500845909118652</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B56" t="n">
         <v>15</v>
@@ -2565,33 +2565,33 @@
         <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>19.55999946594238</v>
+        <v>18.95000076293945</v>
       </c>
       <c r="F56" t="n">
-        <v>993.0999755859375</v>
+        <v>1027.199951171875</v>
       </c>
       <c r="G56" t="n">
-        <v>1111.599975585938</v>
+        <v>1167</v>
       </c>
       <c r="H56" t="n">
-        <v>5519.10009765625</v>
+        <v>5264.5</v>
       </c>
       <c r="I56" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J56" t="n">
-        <v>4.900615293887193</v>
+        <v>3.224145156879027</v>
       </c>
       <c r="K56" t="n">
-        <v>4.685502895904577</v>
+        <v>3.555023552084962</v>
       </c>
       <c r="L56" t="n">
-        <v>4.071106433868408</v>
+        <v>3.284753561019897</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B57" t="n">
         <v>15</v>
@@ -2603,33 +2603,33 @@
         <v>3</v>
       </c>
       <c r="E57" t="n">
-        <v>19.42000007629395</v>
+        <v>18.84000015258789</v>
       </c>
       <c r="F57" t="n">
-        <v>809.9000244140625</v>
+        <v>883.4000244140625</v>
       </c>
       <c r="G57" t="n">
-        <v>1109.699951171875</v>
+        <v>1118.699951171875</v>
       </c>
       <c r="H57" t="n">
-        <v>5522.2998046875</v>
+        <v>5283</v>
       </c>
       <c r="I57" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J57" t="n">
-        <v>3.140551215670694</v>
+        <v>3.194346914025518</v>
       </c>
       <c r="K57" t="n">
-        <v>3.111040220188554</v>
+        <v>3.379729019417181</v>
       </c>
       <c r="L57" t="n">
-        <v>3.072681188583374</v>
+        <v>3.116215944290161</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B58" t="n">
         <v>16</v>
@@ -2641,33 +2641,33 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>19.27000045776367</v>
+        <v>18.77000045776367</v>
       </c>
       <c r="F58" t="n">
-        <v>637</v>
+        <v>827.9000244140625</v>
       </c>
       <c r="G58" t="n">
-        <v>1114.199951171875</v>
+        <v>1075.400024414062</v>
       </c>
       <c r="H58" t="n">
-        <v>5559.89990234375</v>
+        <v>5352.89990234375</v>
       </c>
       <c r="I58" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J58" t="n">
-        <v>2.797472667682499</v>
+        <v>3.12180379248278</v>
       </c>
       <c r="K58" t="n">
-        <v>2.534237602386346</v>
+        <v>2.879425309360319</v>
       </c>
       <c r="L58" t="n">
-        <v>2.785900831222534</v>
+        <v>2.951814889907837</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B59" t="n">
         <v>16</v>
@@ -2679,33 +2679,33 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>19.11000061035156</v>
+        <v>18.75</v>
       </c>
       <c r="F59" t="n">
-        <v>495.2999877929688</v>
+        <v>711.9000244140625</v>
       </c>
       <c r="G59" t="n">
-        <v>1109.099975585938</v>
+        <v>1051.099975585938</v>
       </c>
       <c r="H59" t="n">
-        <v>5517.7001953125</v>
+        <v>5374.89990234375</v>
       </c>
       <c r="I59" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J59" t="n">
-        <v>2.559176434964882</v>
+        <v>2.921252166325234</v>
       </c>
       <c r="K59" t="n">
-        <v>1.968062419297645</v>
+        <v>2.680044834372176</v>
       </c>
       <c r="L59" t="n">
-        <v>1.859561443328857</v>
+        <v>2.799357414245605</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B60" t="n">
         <v>16</v>
@@ -2717,33 +2717,33 @@
         <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>18.93000030517578</v>
+        <v>18.73999977111816</v>
       </c>
       <c r="F60" t="n">
-        <v>370.3999938964844</v>
+        <v>560.7999877929688</v>
       </c>
       <c r="G60" t="n">
-        <v>1114</v>
+        <v>1023.599975585938</v>
       </c>
       <c r="H60" t="n">
-        <v>5485.60009765625</v>
+        <v>5409</v>
       </c>
       <c r="I60" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J60" t="n">
-        <v>1.560606661666665</v>
+        <v>2.692846170441492</v>
       </c>
       <c r="K60" t="n">
-        <v>1.26520266933204</v>
+        <v>2.366687509795039</v>
       </c>
       <c r="L60" t="n">
-        <v>1.255941152572632</v>
+        <v>2.451572418212891</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B61" t="n">
         <v>16</v>
@@ -2755,33 +2755,33 @@
         <v>3</v>
       </c>
       <c r="E61" t="n">
-        <v>18.76000022888184</v>
+        <v>18.72999954223633</v>
       </c>
       <c r="F61" t="n">
-        <v>270.7000122070312</v>
+        <v>414.7000122070312</v>
       </c>
       <c r="G61" t="n">
-        <v>1103.900024414062</v>
+        <v>970.9000244140625</v>
       </c>
       <c r="H61" t="n">
-        <v>5461.89990234375</v>
+        <v>5451</v>
       </c>
       <c r="I61" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J61" t="n">
-        <v>1.420121622722294</v>
+        <v>2.374006970987887</v>
       </c>
       <c r="K61" t="n">
-        <v>0.9454301801105162</v>
+        <v>1.932096300786067</v>
       </c>
       <c r="L61" t="n">
-        <v>0.896850049495697</v>
+        <v>1.760877132415771</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B62" t="n">
         <v>17</v>
@@ -2793,33 +2793,33 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>18.57999992370605</v>
+        <v>18.68000030517578</v>
       </c>
       <c r="F62" t="n">
-        <v>175.1000061035156</v>
+        <v>261.7000122070312</v>
       </c>
       <c r="G62" t="n">
-        <v>1116.199951171875</v>
+        <v>953.2000122070312</v>
       </c>
       <c r="H62" t="n">
-        <v>5476</v>
+        <v>5522.89990234375</v>
       </c>
       <c r="I62" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9072204800473008</v>
+        <v>1.430705909407396</v>
       </c>
       <c r="K62" t="n">
-        <v>0.6930694145712296</v>
+        <v>1.06301950772683</v>
       </c>
       <c r="L62" t="n">
-        <v>0.6634781956672668</v>
+        <v>0.936651349067688</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B63" t="n">
         <v>17</v>
@@ -2831,33 +2831,33 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>18.38999938964844</v>
+        <v>18.59000015258789</v>
       </c>
       <c r="F63" t="n">
-        <v>104.4000015258789</v>
+        <v>159</v>
       </c>
       <c r="G63" t="n">
-        <v>1107.800048828125</v>
+        <v>960.9000244140625</v>
       </c>
       <c r="H63" t="n">
-        <v>5526.5</v>
+        <v>5581.2001953125</v>
       </c>
       <c r="I63" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2766130995742967</v>
+        <v>0.9387221180082147</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3168358596335428</v>
+        <v>0.6196159154769202</v>
       </c>
       <c r="L63" t="n">
-        <v>0.3286764919757843</v>
+        <v>0.7032254934310913</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B64" t="n">
         <v>17</v>
@@ -2869,33 +2869,33 @@
         <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>18.20000076293945</v>
+        <v>18.46999931335449</v>
       </c>
       <c r="F64" t="n">
-        <v>48.29999923706055</v>
+        <v>71.5</v>
       </c>
       <c r="G64" t="n">
-        <v>1091</v>
+        <v>968.5</v>
       </c>
       <c r="H64" t="n">
-        <v>5596</v>
+        <v>5653.39990234375</v>
       </c>
       <c r="I64" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1172271129116593</v>
+        <v>0.1258922072503906</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2575344567784523</v>
+        <v>0.2316682983902819</v>
       </c>
       <c r="L64" t="n">
-        <v>0.2383363246917725</v>
+        <v>0.2060814052820206</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B65" t="n">
         <v>17</v>
@@ -2907,33 +2907,33 @@
         <v>3</v>
       </c>
       <c r="E65" t="n">
-        <v>17.93000030517578</v>
+        <v>18.23999977111816</v>
       </c>
       <c r="F65" t="n">
-        <v>4.5</v>
+        <v>18.20000076293945</v>
       </c>
       <c r="G65" t="n">
-        <v>1090.900024414062</v>
+        <v>974.9000244140625</v>
       </c>
       <c r="H65" t="n">
-        <v>5686</v>
+        <v>5742.39990234375</v>
       </c>
       <c r="I65" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J65" t="n">
-        <v>0.008016690728821883</v>
+        <v>0.09117354891276201</v>
       </c>
       <c r="K65" t="n">
-        <v>0.1833568833364261</v>
+        <v>0.1855569957139863</v>
       </c>
       <c r="L65" t="n">
-        <v>0.1192947179079056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B66" t="n">
         <v>18</v>
@@ -2945,33 +2945,33 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>17.69000053405762</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1073.199951171875</v>
+        <v>987.7999877929688</v>
       </c>
       <c r="H66" t="n">
-        <v>5813.5</v>
+        <v>5863.2001953125</v>
       </c>
       <c r="I66" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.003319239499598306</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2104232255720904</v>
+        <v>0.1431862779628282</v>
       </c>
       <c r="L66" t="n">
-        <v>0.1192947179079056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B67" t="n">
         <v>18</v>
@@ -2983,16 +2983,16 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>17.48999977111816</v>
+        <v>17.85000038146973</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1049.699951171875</v>
+        <v>978.2999877929688</v>
       </c>
       <c r="H67" t="n">
-        <v>5897.89990234375</v>
+        <v>5941</v>
       </c>
       <c r="I67" t="n">
         <v>34.79999923706055</v>
@@ -3001,15 +3001,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K67" t="n">
-        <v>0.08404988948296649</v>
+        <v>0.1702526201984927</v>
       </c>
       <c r="L67" t="n">
-        <v>0.1192947179079056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B68" t="n">
         <v>18</v>
@@ -3021,16 +3021,16 @@
         <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>17.31999969482422</v>
+        <v>17.69000053405762</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1025.099975585938</v>
+        <v>986.7999877929688</v>
       </c>
       <c r="H68" t="n">
-        <v>5974.60009765625</v>
+        <v>6010.39990234375</v>
       </c>
       <c r="I68" t="n">
         <v>34.79999923706055</v>
@@ -3039,15 +3039,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K68" t="n">
-        <v>0.08404988948296649</v>
+        <v>0.1733046854137905</v>
       </c>
       <c r="L68" t="n">
-        <v>0.1192947179079056</v>
+        <v>0.01066918857395649</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B69" t="n">
         <v>18</v>
@@ -3059,16 +3059,16 @@
         <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>17.13999938964844</v>
+        <v>17.55999946594238</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1000.799987792969</v>
+        <v>972.9000244140625</v>
       </c>
       <c r="H69" t="n">
-        <v>6028.10009765625</v>
+        <v>6059.89990234375</v>
       </c>
       <c r="I69" t="n">
         <v>34.79999923706055</v>
@@ -3077,15 +3077,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K69" t="n">
-        <v>0.08710195469826436</v>
+        <v>0.1733046854137905</v>
       </c>
       <c r="L69" t="n">
-        <v>0.1654264032840729</v>
+        <v>0.1220438778400421</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B70" t="n">
         <v>19</v>
@@ -3097,16 +3097,16 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>16.95999908447266</v>
+        <v>17.44000053405762</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1004.200012207031</v>
+        <v>949.9000244140625</v>
       </c>
       <c r="H70" t="n">
-        <v>5980.5</v>
+        <v>6013.10009765625</v>
       </c>
       <c r="I70" t="n">
         <v>34.79999923706055</v>
@@ -3115,15 +3115,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K70" t="n">
-        <v>0.04565056730914333</v>
+        <v>0.1733046854137905</v>
       </c>
       <c r="L70" t="n">
-        <v>0.1654264032840729</v>
+        <v>0.133171409368515</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B71" t="n">
         <v>19</v>
@@ -3135,16 +3135,16 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>16.78000068664551</v>
+        <v>17.32999992370605</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>988.2999877929688</v>
+        <v>898.2999877929688</v>
       </c>
       <c r="H71" t="n">
-        <v>6010.5</v>
+        <v>6046.2998046875</v>
       </c>
       <c r="I71" t="n">
         <v>34.79999923706055</v>
@@ -3153,15 +3153,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K71" t="n">
-        <v>0.04565056730914333</v>
+        <v>0.1733046854137905</v>
       </c>
       <c r="L71" t="n">
-        <v>0.1637004017829895</v>
+        <v>0.1281564682722092</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B72" t="n">
         <v>19</v>
@@ -3173,16 +3173,16 @@
         <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>16.60000038146973</v>
+        <v>17.23999977111816</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>980.4000244140625</v>
+        <v>865.9000244140625</v>
       </c>
       <c r="H72" t="n">
-        <v>5998.60009765625</v>
+        <v>6036.2998046875</v>
       </c>
       <c r="I72" t="n">
         <v>34.79999923706055</v>
@@ -3191,15 +3191,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K72" t="n">
-        <v>0.04565056730914333</v>
+        <v>0.1667082935862478</v>
       </c>
       <c r="L72" t="n">
-        <v>0.1637004017829895</v>
+        <v>0.2001587599515915</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B73" t="n">
         <v>19</v>
@@ -3211,16 +3211,16 @@
         <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>16.54999923706055</v>
+        <v>17.23999977111816</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>975.9000244140625</v>
+        <v>823</v>
       </c>
       <c r="H73" t="n">
-        <v>5946.39990234375</v>
+        <v>5984.39990234375</v>
       </c>
       <c r="I73" t="n">
         <v>34.79999923706055</v>
@@ -3229,15 +3229,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K73" t="n">
-        <v>0.04565056730914333</v>
+        <v>0.1900291861022558</v>
       </c>
       <c r="L73" t="n">
-        <v>0.2750750780105591</v>
+        <v>0.203345313668251</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B74" t="n">
         <v>20</v>
@@ -3249,16 +3249,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>16.51000022888184</v>
+        <v>17.22999954223633</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>965.4000244140625</v>
+        <v>811.7000122070312</v>
       </c>
       <c r="H74" t="n">
-        <v>5788.39990234375</v>
+        <v>5833.39990234375</v>
       </c>
       <c r="I74" t="n">
         <v>34.79999923706055</v>
@@ -3267,15 +3267,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K74" t="n">
-        <v>0.184650009363826</v>
+        <v>0.1673622232707139</v>
       </c>
       <c r="L74" t="n">
-        <v>0.235262542963028</v>
+        <v>0.1510181427001953</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B75" t="n">
         <v>20</v>
@@ -3287,16 +3287,16 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>16.48999977111816</v>
+        <v>17.22999954223633</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>954.2000122070312</v>
+        <v>801.9000244140625</v>
       </c>
       <c r="H75" t="n">
-        <v>5683.39990234375</v>
+        <v>5737</v>
       </c>
       <c r="I75" t="n">
         <v>34.79999923706055</v>
@@ -3305,15 +3305,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K75" t="n">
-        <v>0.184650009363826</v>
+        <v>0.1673622232707139</v>
       </c>
       <c r="L75" t="n">
-        <v>0.235262542963028</v>
+        <v>0.1510181427001953</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B76" t="n">
         <v>20</v>
@@ -3325,16 +3325,16 @@
         <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>16.45999908447266</v>
+        <v>17.21999931335449</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>935.5999755859375</v>
+        <v>784.2000122070312</v>
       </c>
       <c r="H76" t="n">
-        <v>5566.7001953125</v>
+        <v>5631.39990234375</v>
       </c>
       <c r="I76" t="n">
         <v>34.79999923706055</v>
@@ -3343,15 +3343,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K76" t="n">
-        <v>0.184650009363826</v>
+        <v>0.1673622232707139</v>
       </c>
       <c r="L76" t="n">
-        <v>0.235262542963028</v>
+        <v>0.1510181427001953</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B77" t="n">
         <v>20</v>
@@ -3363,16 +3363,16 @@
         <v>3</v>
       </c>
       <c r="E77" t="n">
-        <v>16.35000038146973</v>
+        <v>17.1299991607666</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>939.2999877929688</v>
+        <v>772.0999755859375</v>
       </c>
       <c r="H77" t="n">
-        <v>5436.5</v>
+        <v>5518.39990234375</v>
       </c>
       <c r="I77" t="n">
         <v>34.79999923706055</v>
@@ -3381,15 +3381,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K77" t="n">
-        <v>0.161329116847818</v>
+        <v>0.144041330754706</v>
       </c>
       <c r="L77" t="n">
-        <v>0.232075959444046</v>
+        <v>0.1478315591812134</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B78" t="n">
         <v>21</v>
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>16.22999954223633</v>
+        <v>17.04999923706055</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>922</v>
+        <v>762.7000122070312</v>
       </c>
       <c r="H78" t="n">
-        <v>5302</v>
+        <v>5408.7001953125</v>
       </c>
       <c r="I78" t="n">
         <v>34.79999923706055</v>
@@ -3419,15 +3419,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K78" t="n">
-        <v>0.161329116847818</v>
+        <v>0.144041330754706</v>
       </c>
       <c r="L78" t="n">
-        <v>0.1891294419765472</v>
+        <v>0.10488510876894</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B79" t="n">
         <v>21</v>
@@ -3439,16 +3439,16 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>16.11000061035156</v>
+        <v>16.96999931335449</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>924.2000122070312</v>
+        <v>730.4000244140625</v>
       </c>
       <c r="H79" t="n">
-        <v>5160.89990234375</v>
+        <v>5266.2998046875</v>
       </c>
       <c r="I79" t="n">
         <v>34.79999923706055</v>
@@ -3457,15 +3457,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K79" t="n">
-        <v>0.4013882546479197</v>
+        <v>0.144041330754706</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2737398743629456</v>
+        <v>0.1236545890569687</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B80" t="n">
         <v>21</v>
@@ -3477,16 +3477,16 @@
         <v>2</v>
       </c>
       <c r="E80" t="n">
-        <v>15.98999977111816</v>
+        <v>16.88999938964844</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>912.9000244140625</v>
+        <v>700</v>
       </c>
       <c r="H80" t="n">
-        <v>5038.7001953125</v>
+        <v>5140.2998046875</v>
       </c>
       <c r="I80" t="n">
         <v>34.79999923706055</v>
@@ -3495,15 +3495,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K80" t="n">
-        <v>0.4013882546479197</v>
+        <v>0.3841004685548077</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2616280317306519</v>
+        <v>0.2082650363445282</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B81" t="n">
         <v>21</v>
@@ -3515,16 +3515,16 @@
         <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>15.88000011444092</v>
+        <v>16.84000015258789</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>899.7000122070312</v>
+        <v>678.5</v>
       </c>
       <c r="H81" t="n">
-        <v>4943.5</v>
+        <v>5038.60009765625</v>
       </c>
       <c r="I81" t="n">
         <v>34.79999923706055</v>
@@ -3533,15 +3533,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K81" t="n">
-        <v>0.4013882546479197</v>
+        <v>0.6985955444208761</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2566130757331848</v>
+        <v>0.2114515900611877</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B82" t="n">
         <v>22</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>15.77000045776367</v>
+        <v>16.76000022888184</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>892.2999877929688</v>
+        <v>636.4000244140625</v>
       </c>
       <c r="H82" t="n">
-        <v>4887.2998046875</v>
+        <v>4973.7998046875</v>
       </c>
       <c r="I82" t="n">
         <v>34.79999923706055</v>
@@ -3571,15 +3571,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K82" t="n">
-        <v>0.3244515268328547</v>
+        <v>0.6752746519048682</v>
       </c>
       <c r="L82" t="n">
-        <v>0.3027448356151581</v>
+        <v>0.2082650363445282</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B83" t="n">
         <v>22</v>
@@ -3591,16 +3591,16 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>15.65999984741211</v>
+        <v>16.67000007629395</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>881.2999877929688</v>
+        <v>589.2999877929688</v>
       </c>
       <c r="H83" t="n">
-        <v>4826.39990234375</v>
+        <v>4911</v>
       </c>
       <c r="I83" t="n">
         <v>34.79999923706055</v>
@@ -3609,15 +3609,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K83" t="n">
-        <v>0.3275035920481525</v>
+        <v>0.6783267171201661</v>
       </c>
       <c r="L83" t="n">
-        <v>0.3027448356151581</v>
+        <v>0.2543967962265015</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B84" t="n">
         <v>22</v>
@@ -3629,16 +3629,16 @@
         <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>15.55000019073486</v>
+        <v>16.56999969482422</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>878.2000122070312</v>
+        <v>537.2999877929688</v>
       </c>
       <c r="H84" t="n">
-        <v>4757.39990234375</v>
+        <v>4840.5</v>
       </c>
       <c r="I84" t="n">
         <v>34.79999923706055</v>
@@ -3647,15 +3647,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K84" t="n">
-        <v>0.3275035920481525</v>
+        <v>0.6783267171201661</v>
       </c>
       <c r="L84" t="n">
-        <v>0.3027448356151581</v>
+        <v>0.221524640917778</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B85" t="n">
         <v>22</v>
@@ -3667,16 +3667,16 @@
         <v>3</v>
       </c>
       <c r="E85" t="n">
-        <v>15.43000030517578</v>
+        <v>16.46999931335449</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>883.2999877929688</v>
+        <v>480</v>
       </c>
       <c r="H85" t="n">
-        <v>4675.89990234375</v>
+        <v>4758.7001953125</v>
       </c>
       <c r="I85" t="n">
         <v>34.79999923706055</v>
@@ -3685,15 +3685,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K85" t="n">
-        <v>0.3190370484660945</v>
+        <v>0.6752746519048682</v>
       </c>
       <c r="L85" t="n">
-        <v>0.3133385181427002</v>
+        <v>0.2003839761018753</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B86" t="n">
         <v>23</v>
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>15.3100004196167</v>
+        <v>16.3799991607666</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>843.7999877929688</v>
+        <v>423.6000061035156</v>
       </c>
       <c r="H86" t="n">
-        <v>4565.60009765625</v>
+        <v>4653.7998046875</v>
       </c>
       <c r="I86" t="n">
         <v>34.79999923706055</v>
@@ -3723,15 +3723,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K86" t="n">
-        <v>0.2981749035663347</v>
+        <v>0.5816353315270277</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2504177093505859</v>
+        <v>0.1499291956424713</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B87" t="n">
         <v>23</v>
@@ -3743,16 +3743,16 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>15.18000030517578</v>
+        <v>16.30999946594238</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>799.9000244140625</v>
+        <v>352</v>
       </c>
       <c r="H87" t="n">
-        <v>4500</v>
+        <v>4622.2998046875</v>
       </c>
       <c r="I87" t="n">
         <v>34.79999923706055</v>
@@ -3761,15 +3761,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K87" t="n">
-        <v>0.2981749035663347</v>
+        <v>0.5846873967423256</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2504177093505859</v>
+        <v>0.1960609704256058</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B88" t="n">
         <v>23</v>
@@ -3781,16 +3781,16 @@
         <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>15.05000019073486</v>
+        <v>16.25</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>738.0999755859375</v>
+        <v>309.2999877929688</v>
       </c>
       <c r="H88" t="n">
-        <v>4434.39990234375</v>
+        <v>4591.60009765625</v>
       </c>
       <c r="I88" t="n">
         <v>34.79999923706055</v>
@@ -3799,15 +3799,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K88" t="n">
-        <v>0.3012269687816325</v>
+        <v>0.5846873967423256</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2965494394302368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B89" t="n">
         <v>23</v>
@@ -3819,16 +3819,16 @@
         <v>3</v>
       </c>
       <c r="E89" t="n">
-        <v>14.86999988555908</v>
+        <v>16.11000061035156</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>681.0999755859375</v>
+        <v>274.7999877929688</v>
       </c>
       <c r="H89" t="n">
-        <v>4361.7998046875</v>
+        <v>4552</v>
       </c>
       <c r="I89" t="n">
         <v>34.79999923706055</v>
@@ -3837,15 +3837,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K89" t="n">
-        <v>0.3012269687816325</v>
+        <v>0.4864141731805759</v>
       </c>
       <c r="L89" t="n">
-        <v>0.1851747632026672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -3857,16 +3857,16 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>14.6899995803833</v>
+        <v>15.98999977111816</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>656.4000244140625</v>
+        <v>258.2999877929688</v>
       </c>
       <c r="H90" t="n">
-        <v>4289</v>
+        <v>4527.10009765625</v>
       </c>
       <c r="I90" t="n">
         <v>34.79999923706055</v>
@@ -3875,15 +3875,15 @@
         <v>0.001043798719229868</v>
       </c>
       <c r="K90" t="n">
-        <v>0.2929460466730094</v>
+        <v>0.07521570354893242</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2596715986728668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>14.52000045776367</v>
+        <v>15.86999988555908</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>641.9000244140625</v>
+        <v>257.2999877929688</v>
       </c>
       <c r="H91" t="n">
-        <v>4230.39990234375</v>
+        <v>4451.89990234375</v>
       </c>
       <c r="I91" t="n">
         <v>34.79999923706055</v>
@@ -3913,15 +3913,15 @@
         <v>0.001043798719229868</v>
       </c>
       <c r="K91" t="n">
-        <v>0.2929460466730094</v>
+        <v>0.07521570354893242</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2596715986728668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -3933,16 +3933,16 @@
         <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>14.35999965667725</v>
+        <v>15.75</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>634</v>
+        <v>255</v>
       </c>
       <c r="H92" t="n">
-        <v>4183</v>
+        <v>4384.89990234375</v>
       </c>
       <c r="I92" t="n">
         <v>34.79999923706055</v>
@@ -3951,15 +3951,15 @@
         <v>0.001043798719229868</v>
       </c>
       <c r="K92" t="n">
-        <v>0.2929460466730094</v>
+        <v>0.07521570354893242</v>
       </c>
       <c r="L92" t="n">
-        <v>0.2596715986728668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -3971,16 +3971,16 @@
         <v>3</v>
       </c>
       <c r="E93" t="n">
-        <v>14.28999996185303</v>
+        <v>15.72999954223633</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>623.0999755859375</v>
+        <v>253.3999938964844</v>
       </c>
       <c r="H93" t="n">
-        <v>4155.39990234375</v>
+        <v>4336.7001953125</v>
       </c>
       <c r="I93" t="n">
         <v>34.79999923706055</v>
@@ -3989,15 +3989,15 @@
         <v>0.001043798719229868</v>
       </c>
       <c r="K93" t="n">
-        <v>0.2929460466730094</v>
+        <v>0.09853659606494036</v>
       </c>
       <c r="L93" t="n">
-        <v>0.2596715986728668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -4009,16 +4009,16 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>14.22999954223633</v>
+        <v>15.69999980926514</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>603.5999755859375</v>
+        <v>247.6000061035156</v>
       </c>
       <c r="H94" t="n">
-        <v>4172.89990234375</v>
+        <v>4318</v>
       </c>
       <c r="I94" t="n">
         <v>34.79999923706055</v>
@@ -4027,15 +4027,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K94" t="n">
-        <v>0.2929460466730094</v>
+        <v>0.0273544347344466</v>
       </c>
       <c r="L94" t="n">
-        <v>0.4224748611450195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -4047,16 +4047,16 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>14.14999961853027</v>
+        <v>15.67000007629395</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>589.0999755859375</v>
+        <v>237</v>
       </c>
       <c r="H95" t="n">
-        <v>4139.2001953125</v>
+        <v>4264.10009765625</v>
       </c>
       <c r="I95" t="n">
         <v>34.79999923706055</v>
@@ -4065,15 +4065,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K95" t="n">
-        <v>0.2929460466730094</v>
+        <v>0.0273544347344466</v>
       </c>
       <c r="L95" t="n">
-        <v>0.4004347920417786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -4085,16 +4085,16 @@
         <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>14.07999992370605</v>
+        <v>15.63000011444092</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>578.5999755859375</v>
+        <v>236.3000030517578</v>
       </c>
       <c r="H96" t="n">
-        <v>4111.5</v>
+        <v>4216.2998046875</v>
       </c>
       <c r="I96" t="n">
         <v>34.79999923706055</v>
@@ -4103,15 +4103,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K96" t="n">
-        <v>0.2929460466730094</v>
+        <v>0.0273544347344466</v>
       </c>
       <c r="L96" t="n">
-        <v>0.4004347920417786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -4123,16 +4123,16 @@
         <v>3</v>
       </c>
       <c r="E97" t="n">
-        <v>14.02000045776367</v>
+        <v>15.53999996185303</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>568.7000122070312</v>
+        <v>230.1999969482422</v>
       </c>
       <c r="H97" t="n">
-        <v>4086.89990234375</v>
+        <v>4179.39990234375</v>
       </c>
       <c r="I97" t="n">
         <v>34.79999923706055</v>
@@ -4141,15 +4141,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K97" t="n">
-        <v>0.2929460466730094</v>
+        <v>0.004033542218438741</v>
       </c>
       <c r="L97" t="n">
-        <v>0.4004347920417786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B98" t="n">
         <v>2</v>
@@ -4161,16 +4161,16 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>13.96000003814697</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>568.2999877929688</v>
+        <v>235.8000030517578</v>
       </c>
       <c r="H98" t="n">
-        <v>4067</v>
+        <v>4149.39990234375</v>
       </c>
       <c r="I98" t="n">
         <v>34.79999923706055</v>
@@ -4179,15 +4179,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1568105296776461</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>0.59567791223526</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B99" t="n">
         <v>2</v>
@@ -4199,16 +4199,16 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>13.92000007629395</v>
+        <v>15.35000038146973</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>584.2000122070312</v>
+        <v>233.3000030517578</v>
       </c>
       <c r="H99" t="n">
-        <v>4041.60009765625</v>
+        <v>4126.7998046875</v>
       </c>
       <c r="I99" t="n">
         <v>34.79999923706055</v>
@@ -4217,7 +4217,7 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K99" t="n">
-        <v>0.180131422193654</v>
+        <v>0.2170409045276589</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B100" t="n">
         <v>2</v>
@@ -4237,16 +4237,16 @@
         <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>13.86999988555908</v>
+        <v>15.23999977111816</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>599.2000122070312</v>
+        <v>235.8999938964844</v>
       </c>
       <c r="H100" t="n">
-        <v>4020.39990234375</v>
+        <v>4107.10009765625</v>
       </c>
       <c r="I100" t="n">
         <v>34.79999923706055</v>
@@ -4255,7 +4255,7 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K100" t="n">
-        <v>0.180131422193654</v>
+        <v>0.2170409045276589</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B101" t="n">
         <v>2</v>
@@ -4275,16 +4275,16 @@
         <v>3</v>
       </c>
       <c r="E101" t="n">
-        <v>13.81999969482422</v>
+        <v>15.23999977111816</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>613.2000122070312</v>
+        <v>234.3000030517578</v>
       </c>
       <c r="H101" t="n">
-        <v>4006.199951171875</v>
+        <v>4090.800048828125</v>
       </c>
       <c r="I101" t="n">
         <v>34.79999923706055</v>
@@ -4293,15 +4293,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K101" t="n">
-        <v>0.3162669391890173</v>
+        <v>0.1042262800483036</v>
       </c>
       <c r="L101" t="n">
-        <v>0.7798248529434204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B102" t="n">
         <v>3</v>
@@ -4313,16 +4313,16 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>13.76000022888184</v>
+        <v>15.22999954223633</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>616.5</v>
+        <v>248.3999938964844</v>
       </c>
       <c r="H102" t="n">
-        <v>4005.800048828125</v>
+        <v>4084.5</v>
       </c>
       <c r="I102" t="n">
         <v>34.79999923706055</v>
@@ -4331,15 +4331,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K102" t="n">
-        <v>0.2929460466730094</v>
+        <v>0.2403617970436669</v>
       </c>
       <c r="L102" t="n">
-        <v>0.7766382694244385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B103" t="n">
         <v>3</v>
@@ -4351,16 +4351,16 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>13.68000030517578</v>
+        <v>15.22999954223633</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>608.7000122070312</v>
+        <v>264</v>
       </c>
       <c r="H103" t="n">
-        <v>4020.699951171875</v>
+        <v>4077.800048828125</v>
       </c>
       <c r="I103" t="n">
         <v>34.79999923706055</v>
@@ -4369,15 +4369,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K103" t="n">
-        <v>0.2929460466730094</v>
+        <v>0.2403617970436669</v>
       </c>
       <c r="L103" t="n">
-        <v>0.8383580446243286</v>
+        <v>0.0426146388053894</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B104" t="n">
         <v>3</v>
@@ -4389,16 +4389,16 @@
         <v>2</v>
       </c>
       <c r="E104" t="n">
-        <v>13.60999965667725</v>
+        <v>15.22000026702881</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>595.0999755859375</v>
+        <v>281.6000061035156</v>
       </c>
       <c r="H104" t="n">
-        <v>4041.199951171875</v>
+        <v>4074.199951171875</v>
       </c>
       <c r="I104" t="n">
         <v>34.79999923706055</v>
@@ -4407,15 +4407,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2929460466730094</v>
+        <v>0.2771154506681242</v>
       </c>
       <c r="L104" t="n">
-        <v>0.8383580446243286</v>
+        <v>0.02057463303208351</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B105" t="n">
         <v>3</v>
@@ -4427,16 +4427,16 @@
         <v>3</v>
       </c>
       <c r="E105" t="n">
-        <v>13.5600004196167</v>
+        <v>15.1899995803833</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>580.5</v>
+        <v>301.7000122070312</v>
       </c>
       <c r="H105" t="n">
-        <v>4063.10009765625</v>
+        <v>4068.60009765625</v>
       </c>
       <c r="I105" t="n">
         <v>34.79999923706055</v>
@@ -4445,15 +4445,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K105" t="n">
-        <v>0.3162669391890173</v>
+        <v>0.140979933672761</v>
       </c>
       <c r="L105" t="n">
-        <v>0.8415446281433105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B106" t="n">
         <v>4</v>
@@ -4465,16 +4465,16 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>13.52000045776367</v>
+        <v>15.14999961853027</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>589.2000122070312</v>
+        <v>321.2999877929688</v>
       </c>
       <c r="H106" t="n">
-        <v>4109.89990234375</v>
+        <v>4079.800048828125</v>
       </c>
       <c r="I106" t="n">
         <v>34.79999923706055</v>
@@ -4483,15 +4483,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K106" t="n">
-        <v>0.3162669391890173</v>
+        <v>0.2771154506681242</v>
       </c>
       <c r="L106" t="n">
-        <v>0.8635846376419067</v>
+        <v>0.0426146388053894</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B107" t="n">
         <v>4</v>
@@ -4503,16 +4503,16 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>13.51000022888184</v>
+        <v>15.11999988555908</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>585.2999877929688</v>
+        <v>330.2999877929688</v>
       </c>
       <c r="H107" t="n">
-        <v>4152.89990234375</v>
+        <v>4094.5</v>
       </c>
       <c r="I107" t="n">
         <v>34.79999923706055</v>
@@ -4521,15 +4521,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K107" t="n">
-        <v>0.3162669391890173</v>
+        <v>0.2771154506681242</v>
       </c>
       <c r="L107" t="n">
-        <v>0.8635846376419067</v>
+        <v>0.0426146388053894</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B108" t="n">
         <v>4</v>
@@ -4541,16 +4541,16 @@
         <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>13.51000022888184</v>
+        <v>15.09000015258789</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>602.5</v>
+        <v>336.2999877929688</v>
       </c>
       <c r="H108" t="n">
-        <v>4210.39990234375</v>
+        <v>4119.7001953125</v>
       </c>
       <c r="I108" t="n">
         <v>34.79999923706055</v>
@@ -4559,15 +4559,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K108" t="n">
-        <v>0.3162669391890173</v>
+        <v>0.2771154506681242</v>
       </c>
       <c r="L108" t="n">
-        <v>0.8635846376419067</v>
+        <v>0.02057463303208351</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B109" t="n">
         <v>4</v>
@@ -4579,16 +4579,16 @@
         <v>3</v>
       </c>
       <c r="E109" t="n">
-        <v>13.52999973297119</v>
+        <v>15.07999992370605</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>625.2999877929688</v>
+        <v>350.2999877929688</v>
       </c>
       <c r="H109" t="n">
-        <v>4286.60009765625</v>
+        <v>4159.60009765625</v>
       </c>
       <c r="I109" t="n">
         <v>34.79999923706055</v>
@@ -4597,15 +4597,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K109" t="n">
-        <v>0.3162669391890173</v>
+        <v>0.140979933672761</v>
       </c>
       <c r="L109" t="n">
-        <v>0.8635846376419067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B110" t="n">
         <v>5</v>
@@ -4617,16 +4617,16 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>13.56999969482422</v>
+        <v>15.06999969482422</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>634.9000244140625</v>
+        <v>357.6000061035156</v>
       </c>
       <c r="H110" t="n">
-        <v>4411.89990234375</v>
+        <v>4222.2998046875</v>
       </c>
       <c r="I110" t="n">
         <v>34.79999923706055</v>
@@ -4635,15 +4635,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K110" t="n">
-        <v>0.3132148739737194</v>
+        <v>0.2771154506681242</v>
       </c>
       <c r="L110" t="n">
-        <v>0.8276734948158264</v>
+        <v>0.02057463303208351</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B111" t="n">
         <v>5</v>
@@ -4655,16 +4655,16 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>13.61999988555908</v>
+        <v>15.07999992370605</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>637.5</v>
+        <v>362.7999877929688</v>
       </c>
       <c r="H111" t="n">
-        <v>4503.10009765625</v>
+        <v>4289.60009765625</v>
       </c>
       <c r="I111" t="n">
         <v>34.79999923706055</v>
@@ -4673,15 +4673,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K111" t="n">
-        <v>0.3239829669051097</v>
+        <v>0.140979933672761</v>
       </c>
       <c r="L111" t="n">
-        <v>0.8276734948158264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B112" t="n">
         <v>5</v>
@@ -4693,16 +4693,16 @@
         <v>2</v>
       </c>
       <c r="E112" t="n">
-        <v>13.67000007629395</v>
+        <v>15.07999992370605</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>625.5999755859375</v>
+        <v>367.1000061035156</v>
       </c>
       <c r="H112" t="n">
-        <v>4608</v>
+        <v>4354.2998046875</v>
       </c>
       <c r="I112" t="n">
         <v>34.79999923706055</v>
@@ -4711,15 +4711,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3239829669051097</v>
+        <v>0.140979933672761</v>
       </c>
       <c r="L112" t="n">
-        <v>0.8276734948158264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B113" t="n">
         <v>5</v>
@@ -4731,16 +4731,16 @@
         <v>3</v>
       </c>
       <c r="E113" t="n">
-        <v>13.67000007629395</v>
+        <v>15.02999973297119</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>623.0999755859375</v>
+        <v>376.5</v>
       </c>
       <c r="H113" t="n">
-        <v>4729.39990234375</v>
+        <v>4417</v>
       </c>
       <c r="I113" t="n">
         <v>34.79999923706055</v>
@@ -4749,15 +4749,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K113" t="n">
-        <v>0.3132148739737194</v>
+        <v>0.140979933672761</v>
       </c>
       <c r="L113" t="n">
-        <v>0.8276734948158264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B114" t="n">
         <v>6</v>
@@ -4769,33 +4769,33 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>13.65999984741211</v>
+        <v>14.97000026702881</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>599.7000122070312</v>
+        <v>389.7999877929688</v>
       </c>
       <c r="H114" t="n">
-        <v>4866.39990234375</v>
+        <v>4479.10009765625</v>
       </c>
       <c r="I114" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J114" t="n">
-        <v>0.001542603715820414</v>
+        <v>0.001173401966979514</v>
       </c>
       <c r="K114" t="n">
-        <v>0.02204069062365885</v>
+        <v>0.2537945581521163</v>
       </c>
       <c r="L114" t="n">
-        <v>0.8276734948158264</v>
+        <v>0.6181145310401917</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B115" t="n">
         <v>6</v>
@@ -4807,33 +4807,33 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>13.63000011444092</v>
+        <v>14.89999961853027</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>591.7000122070312</v>
+        <v>392.7999877929688</v>
       </c>
       <c r="H115" t="n">
-        <v>4976.7998046875</v>
+        <v>4503.89990234375</v>
       </c>
       <c r="I115" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J115" t="n">
-        <v>0.001173401966979514</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K115" t="n">
-        <v>0.02204069062365885</v>
+        <v>0.1176590411567531</v>
       </c>
       <c r="L115" t="n">
-        <v>0.8276734948158264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B116" t="n">
         <v>6</v>
@@ -4845,33 +4845,33 @@
         <v>2</v>
       </c>
       <c r="E116" t="n">
-        <v>13.61999988555908</v>
+        <v>14.85000038146973</v>
       </c>
       <c r="F116" t="n">
-        <v>6.199999809265137</v>
+        <v>3.299999952316284</v>
       </c>
       <c r="G116" t="n">
-        <v>579.2999877929688</v>
+        <v>395.7999877929688</v>
       </c>
       <c r="H116" t="n">
-        <v>5081.7001953125</v>
+        <v>4545.60009765625</v>
       </c>
       <c r="I116" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J116" t="n">
-        <v>0.001173401966979514</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K116" t="n">
-        <v>0.3132148739737194</v>
+        <v>0.149006709880781</v>
       </c>
       <c r="L116" t="n">
-        <v>0.8276734948158264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B117" t="n">
         <v>6</v>
@@ -4883,33 +4883,33 @@
         <v>3</v>
       </c>
       <c r="E117" t="n">
-        <v>13.64000034332275</v>
+        <v>14.85999965667725</v>
       </c>
       <c r="F117" t="n">
-        <v>50</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="G117" t="n">
-        <v>569.7999877929688</v>
+        <v>400.5</v>
       </c>
       <c r="H117" t="n">
-        <v>5170.39990234375</v>
+        <v>4613.7998046875</v>
       </c>
       <c r="I117" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J117" t="n">
-        <v>0.01155046987852839</v>
+        <v>0.008495626963436509</v>
       </c>
       <c r="K117" t="n">
-        <v>0.3295681335094173</v>
+        <v>0.1653599694164789</v>
       </c>
       <c r="L117" t="n">
-        <v>0.8500218987464905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B118" t="n">
         <v>7</v>
@@ -4921,33 +4921,33 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>13.72000026702881</v>
+        <v>14.9399995803833</v>
       </c>
       <c r="F118" t="n">
-        <v>170.8000030517578</v>
+        <v>224.6000061035156</v>
       </c>
       <c r="G118" t="n">
-        <v>569.0999755859375</v>
+        <v>401.8999938964844</v>
       </c>
       <c r="H118" t="n">
-        <v>5222.89990234375</v>
+        <v>4740.7001953125</v>
       </c>
       <c r="I118" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1729269936644307</v>
+        <v>0.2531734419836796</v>
       </c>
       <c r="K118" t="n">
-        <v>0.1810030661966657</v>
+        <v>0.4802360463154521</v>
       </c>
       <c r="L118" t="n">
-        <v>1.027932643890381</v>
+        <v>0.1727239042520523</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B119" t="n">
         <v>7</v>
@@ -4959,33 +4959,33 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>13.85999965667725</v>
+        <v>15.09000015258789</v>
       </c>
       <c r="F119" t="n">
-        <v>290.2000122070312</v>
+        <v>369.6000061035156</v>
       </c>
       <c r="G119" t="n">
-        <v>590.7999877929688</v>
+        <v>394.2000122070312</v>
       </c>
       <c r="H119" t="n">
-        <v>5346.5</v>
+        <v>4862.10009765625</v>
       </c>
       <c r="I119" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J119" t="n">
-        <v>0.5457091324915218</v>
+        <v>0.7271171677397826</v>
       </c>
       <c r="K119" t="n">
-        <v>0.3174735960427337</v>
+        <v>0.8738240345586925</v>
       </c>
       <c r="L119" t="n">
-        <v>1.118230938911438</v>
+        <v>0.5742465257644653</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B120" t="n">
         <v>7</v>
@@ -4997,33 +4997,33 @@
         <v>2</v>
       </c>
       <c r="E120" t="n">
-        <v>14.03999996185303</v>
+        <v>15.30000019073486</v>
       </c>
       <c r="F120" t="n">
-        <v>422.3999938964844</v>
+        <v>538.5999755859375</v>
       </c>
       <c r="G120" t="n">
-        <v>612.7999877929688</v>
+        <v>372.2999877929688</v>
       </c>
       <c r="H120" t="n">
-        <v>5472.60009765625</v>
+        <v>4989.7001953125</v>
       </c>
       <c r="I120" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J120" t="n">
-        <v>1.058007452711277</v>
+        <v>1.433787472295558</v>
       </c>
       <c r="K120" t="n">
-        <v>1.200348635805033</v>
+        <v>1.40413246022235</v>
       </c>
       <c r="L120" t="n">
-        <v>1.710590124130249</v>
+        <v>1.209541440010071</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B121" t="n">
         <v>7</v>
@@ -5035,33 +5035,33 @@
         <v>3</v>
       </c>
       <c r="E121" t="n">
-        <v>14.25</v>
+        <v>15.53999996185303</v>
       </c>
       <c r="F121" t="n">
-        <v>595.5999755859375</v>
+        <v>726.5</v>
       </c>
       <c r="G121" t="n">
-        <v>629.5</v>
+        <v>367.7999877929688</v>
       </c>
       <c r="H121" t="n">
-        <v>5595.39990234375</v>
+        <v>5119.2001953125</v>
       </c>
       <c r="I121" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J121" t="n">
-        <v>1.518239017358206</v>
+        <v>2.354190709109562</v>
       </c>
       <c r="K121" t="n">
-        <v>1.866209288858419</v>
+        <v>2.070681991630642</v>
       </c>
       <c r="L121" t="n">
-        <v>2.144895553588867</v>
+        <v>1.467476963996887</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B122" t="n">
         <v>8</v>
@@ -5073,33 +5073,33 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>14.48999977111816</v>
+        <v>15.80000019073486</v>
       </c>
       <c r="F122" t="n">
-        <v>892.5</v>
+        <v>1037.5</v>
       </c>
       <c r="G122" t="n">
-        <v>640.5</v>
+        <v>359.5</v>
       </c>
       <c r="H122" t="n">
-        <v>5706.10009765625</v>
+        <v>5233.60009765625</v>
       </c>
       <c r="I122" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J122" t="n">
-        <v>2.493803800534427</v>
+        <v>3.093191622880213</v>
       </c>
       <c r="K122" t="n">
-        <v>2.258829393534118</v>
+        <v>3.007808834239423</v>
       </c>
       <c r="L122" t="n">
-        <v>2.302339553833008</v>
+        <v>2.766484498977661</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B123" t="n">
         <v>8</v>
@@ -5111,33 +5111,33 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>14.73999977111816</v>
+        <v>16.07999992370605</v>
       </c>
       <c r="F123" t="n">
-        <v>1101.900024414062</v>
+        <v>1257.699951171875</v>
       </c>
       <c r="G123" t="n">
-        <v>643.5</v>
+        <v>357.7999877929688</v>
       </c>
       <c r="H123" t="n">
-        <v>5789</v>
+        <v>5347.5</v>
       </c>
       <c r="I123" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J123" t="n">
-        <v>3.252552630173668</v>
+        <v>3.685958198096051</v>
       </c>
       <c r="K123" t="n">
-        <v>2.934602670699017</v>
+        <v>3.965744291630757</v>
       </c>
       <c r="L123" t="n">
-        <v>3.024470090866089</v>
+        <v>3.685638427734375</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B124" t="n">
         <v>8</v>
@@ -5149,33 +5149,33 @@
         <v>2</v>
       </c>
       <c r="E124" t="n">
-        <v>15</v>
+        <v>16.36000061035156</v>
       </c>
       <c r="F124" t="n">
-        <v>1372.599975585938</v>
+        <v>1541.400024414062</v>
       </c>
       <c r="G124" t="n">
-        <v>642.7000122070312</v>
+        <v>362.8999938964844</v>
       </c>
       <c r="H124" t="n">
-        <v>5849.2998046875</v>
+        <v>5442.2998046875</v>
       </c>
       <c r="I124" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J124" t="n">
-        <v>3.617754759045142</v>
+        <v>6.739427184974056</v>
       </c>
       <c r="K124" t="n">
-        <v>3.981789549218949</v>
+        <v>5.525322495330943</v>
       </c>
       <c r="L124" t="n">
-        <v>3.945260047912598</v>
+        <v>5.008456707000732</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B125" t="n">
         <v>8</v>
@@ -5187,33 +5187,33 @@
         <v>3</v>
       </c>
       <c r="E125" t="n">
-        <v>15.40999984741211</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="F125" t="n">
-        <v>1531.5</v>
+        <v>1864.800048828125</v>
       </c>
       <c r="G125" t="n">
-        <v>633.2000122070312</v>
+        <v>360.3999938964844</v>
       </c>
       <c r="H125" t="n">
-        <v>5895.60009765625</v>
+        <v>5519.7998046875</v>
       </c>
       <c r="I125" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J125" t="n">
-        <v>6.760488653966283</v>
+        <v>7.43062309095155</v>
       </c>
       <c r="K125" t="n">
-        <v>6.478026016099294</v>
+        <v>6.969725038195779</v>
       </c>
       <c r="L125" t="n">
-        <v>5.896274089813232</v>
+        <v>6.217348098754883</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B126" t="n">
         <v>9</v>
@@ -5225,33 +5225,33 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>15.81999969482422</v>
+        <v>17.11000061035156</v>
       </c>
       <c r="F126" t="n">
-        <v>1710.099975585938</v>
+        <v>2158.800048828125</v>
       </c>
       <c r="G126" t="n">
-        <v>664</v>
+        <v>351.2999877929688</v>
       </c>
       <c r="H126" t="n">
-        <v>5878.60009765625</v>
+        <v>5539.2998046875</v>
       </c>
       <c r="I126" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J126" t="n">
-        <v>7.407592938455467</v>
+        <v>8.364750066904941</v>
       </c>
       <c r="K126" t="n">
-        <v>7.210052121997091</v>
+        <v>6.844217676411056</v>
       </c>
       <c r="L126" t="n">
-        <v>6.772137641906738</v>
+        <v>8.010210037231445</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B127" t="n">
         <v>9</v>
@@ -5263,33 +5263,33 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>16.23999977111816</v>
+        <v>17.45999908447266</v>
       </c>
       <c r="F127" t="n">
-        <v>1869.5</v>
+        <v>2443.39990234375</v>
       </c>
       <c r="G127" t="n">
-        <v>739.4000244140625</v>
+        <v>332.6000061035156</v>
       </c>
       <c r="H127" t="n">
-        <v>5843</v>
+        <v>5605.10009765625</v>
       </c>
       <c r="I127" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J127" t="n">
-        <v>8.182727474679558</v>
+        <v>10.22178845266453</v>
       </c>
       <c r="K127" t="n">
-        <v>7.100093485640087</v>
+        <v>7.960709265128344</v>
       </c>
       <c r="L127" t="n">
-        <v>7.873695373535156</v>
+        <v>10.14845943450928</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B128" t="n">
         <v>9</v>
@@ -5301,33 +5301,33 @@
         <v>2</v>
       </c>
       <c r="E128" t="n">
-        <v>16.64999961853027</v>
+        <v>17.79000091552734</v>
       </c>
       <c r="F128" t="n">
-        <v>1914.199951171875</v>
+        <v>2704</v>
       </c>
       <c r="G128" t="n">
-        <v>832.2999877929688</v>
+        <v>303.6000061035156</v>
       </c>
       <c r="H128" t="n">
-        <v>5793.39990234375</v>
+        <v>5652.7001953125</v>
       </c>
       <c r="I128" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J128" t="n">
-        <v>8.288430085395971</v>
+        <v>11.50682674571099</v>
       </c>
       <c r="K128" t="n">
-        <v>7.189947841088095</v>
+        <v>9.211617063220869</v>
       </c>
       <c r="L128" t="n">
-        <v>7.970454692840576</v>
+        <v>11.19190788269043</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B129" t="n">
         <v>9</v>
@@ -5339,33 +5339,33 @@
         <v>3</v>
       </c>
       <c r="E129" t="n">
-        <v>16.95999908447266</v>
+        <v>18.05999946594238</v>
       </c>
       <c r="F129" t="n">
-        <v>2124.199951171875</v>
+        <v>2915.800048828125</v>
       </c>
       <c r="G129" t="n">
-        <v>919.4000244140625</v>
+        <v>291.2000122070312</v>
       </c>
       <c r="H129" t="n">
-        <v>5748.10009765625</v>
+        <v>5700.7001953125</v>
       </c>
       <c r="I129" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J129" t="n">
-        <v>9.086664440231599</v>
+        <v>11.32331094094825</v>
       </c>
       <c r="K129" t="n">
-        <v>7.061552853865437</v>
+        <v>10.65952446486229</v>
       </c>
       <c r="L129" t="n">
-        <v>8.400302886962891</v>
+        <v>11.10019207000732</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B130" t="n">
         <v>10</v>
@@ -5377,33 +5377,33 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>17.23999977111816</v>
+        <v>18.31999969482422</v>
       </c>
       <c r="F130" t="n">
-        <v>2237.199951171875</v>
+        <v>3052.5</v>
       </c>
       <c r="G130" t="n">
-        <v>986.0999755859375</v>
+        <v>294.2999877929688</v>
       </c>
       <c r="H130" t="n">
-        <v>5718.7001953125</v>
+        <v>5745</v>
       </c>
       <c r="I130" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J130" t="n">
-        <v>9.531381231277692</v>
+        <v>12.74896879099772</v>
       </c>
       <c r="K130" t="n">
-        <v>7.159087164672562</v>
+        <v>12.1387288334513</v>
       </c>
       <c r="L130" t="n">
-        <v>9.11387825012207</v>
+        <v>12.13174343109131</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B131" t="n">
         <v>10</v>
@@ -5415,33 +5415,33 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>17.48999977111816</v>
+        <v>18.56999969482422</v>
       </c>
       <c r="F131" t="n">
-        <v>2299.60009765625</v>
+        <v>3123.10009765625</v>
       </c>
       <c r="G131" t="n">
-        <v>1038.599975585938</v>
+        <v>293.7000122070312</v>
       </c>
       <c r="H131" t="n">
-        <v>5765.10009765625</v>
+        <v>5773.10009765625</v>
       </c>
       <c r="I131" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J131" t="n">
-        <v>9.868528153654362</v>
+        <v>12.70576064331331</v>
       </c>
       <c r="K131" t="n">
-        <v>7.815078622254445</v>
+        <v>12.72430329093972</v>
       </c>
       <c r="L131" t="n">
-        <v>9.561661720275879</v>
+        <v>12.05270671844482</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B132" t="n">
         <v>10</v>
@@ -5453,33 +5453,33 @@
         <v>2</v>
       </c>
       <c r="E132" t="n">
-        <v>17.71999931335449</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="F132" t="n">
-        <v>2458.199951171875</v>
+        <v>3289.5</v>
       </c>
       <c r="G132" t="n">
-        <v>1084.199951171875</v>
+        <v>295</v>
       </c>
       <c r="H132" t="n">
-        <v>5821.89990234375</v>
+        <v>5807</v>
       </c>
       <c r="I132" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J132" t="n">
-        <v>9.747570860289533</v>
+        <v>13.61698791281008</v>
       </c>
       <c r="K132" t="n">
-        <v>8.300967856100357</v>
+        <v>14.01344425541495</v>
       </c>
       <c r="L132" t="n">
-        <v>9.716001510620117</v>
+        <v>12.40035533905029</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B133" t="n">
         <v>10</v>
@@ -5491,33 +5491,33 @@
         <v>3</v>
       </c>
       <c r="E133" t="n">
-        <v>17.95000076293945</v>
+        <v>19.03000068664551</v>
       </c>
       <c r="F133" t="n">
-        <v>2702.199951171875</v>
+        <v>3462.5</v>
       </c>
       <c r="G133" t="n">
-        <v>1130</v>
+        <v>287.3999938964844</v>
       </c>
       <c r="H133" t="n">
-        <v>5875.10009765625</v>
+        <v>5829.89990234375</v>
       </c>
       <c r="I133" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J133" t="n">
-        <v>11.29904293648169</v>
+        <v>14.03503454549431</v>
       </c>
       <c r="K133" t="n">
-        <v>9.706717141948795</v>
+        <v>13.78048188410312</v>
       </c>
       <c r="L133" t="n">
-        <v>10.21266555786133</v>
+        <v>12.84260368347168</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B134" t="n">
         <v>11</v>
@@ -5529,33 +5529,33 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>18.18000030517578</v>
+        <v>19.25</v>
       </c>
       <c r="F134" t="n">
-        <v>2904.10009765625</v>
+        <v>3690.800048828125</v>
       </c>
       <c r="G134" t="n">
-        <v>1167.699951171875</v>
+        <v>299.8999938964844</v>
       </c>
       <c r="H134" t="n">
-        <v>5905.89990234375</v>
+        <v>5837</v>
       </c>
       <c r="I134" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J134" t="n">
-        <v>11.33527707390428</v>
+        <v>14.24224631882415</v>
       </c>
       <c r="K134" t="n">
-        <v>11.97228739145134</v>
+        <v>14.01370832818664</v>
       </c>
       <c r="L134" t="n">
-        <v>10.55640506744385</v>
+        <v>12.79526615142822</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B135" t="n">
         <v>11</v>
@@ -5567,33 +5567,33 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>18.40999984741211</v>
+        <v>19.45000076293945</v>
       </c>
       <c r="F135" t="n">
-        <v>3127.89990234375</v>
+        <v>3723</v>
       </c>
       <c r="G135" t="n">
-        <v>1198.800048828125</v>
+        <v>327.2000122070312</v>
       </c>
       <c r="H135" t="n">
-        <v>5889.5</v>
+        <v>5886.39990234375</v>
       </c>
       <c r="I135" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J135" t="n">
-        <v>14.30193902396717</v>
+        <v>14.27221188672904</v>
       </c>
       <c r="K135" t="n">
-        <v>13.74097804356319</v>
+        <v>13.09945680049829</v>
       </c>
       <c r="L135" t="n">
-        <v>13.23509407043457</v>
+        <v>13.11088275909424</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B136" t="n">
         <v>11</v>
@@ -5605,33 +5605,33 @@
         <v>2</v>
       </c>
       <c r="E136" t="n">
-        <v>18.6299991607666</v>
+        <v>19.6299991607666</v>
       </c>
       <c r="F136" t="n">
-        <v>3167.89990234375</v>
+        <v>3971.199951171875</v>
       </c>
       <c r="G136" t="n">
-        <v>1247.300048828125</v>
+        <v>362.2000122070312</v>
       </c>
       <c r="H136" t="n">
-        <v>5865.60009765625</v>
+        <v>5930.60009765625</v>
       </c>
       <c r="I136" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J136" t="n">
-        <v>14.41905523939581</v>
+        <v>14.88025326867154</v>
       </c>
       <c r="K136" t="n">
-        <v>14.41927726893265</v>
+        <v>14.81290989397722</v>
       </c>
       <c r="L136" t="n">
-        <v>13.93076801300049</v>
+        <v>15.18887138366699</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B137" t="n">
         <v>11</v>
@@ -5643,33 +5643,33 @@
         <v>3</v>
       </c>
       <c r="E137" t="n">
-        <v>18.92000007629395</v>
+        <v>19.8700008392334</v>
       </c>
       <c r="F137" t="n">
-        <v>3209.199951171875</v>
+        <v>4282.10009765625</v>
       </c>
       <c r="G137" t="n">
-        <v>1306</v>
+        <v>382.2999877929688</v>
       </c>
       <c r="H137" t="n">
-        <v>5838.5</v>
+        <v>5975</v>
       </c>
       <c r="I137" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J137" t="n">
-        <v>14.56144143470293</v>
+        <v>19.73121603100847</v>
       </c>
       <c r="K137" t="n">
-        <v>14.37688413782569</v>
+        <v>17.93023050640631</v>
       </c>
       <c r="L137" t="n">
-        <v>14.11339473724365</v>
+        <v>17.81000137329102</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B138" t="n">
         <v>12</v>
@@ -5681,33 +5681,33 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>19.21999931335449</v>
+        <v>20.06999969482422</v>
       </c>
       <c r="F138" t="n">
-        <v>3211</v>
+        <v>4364.39990234375</v>
       </c>
       <c r="G138" t="n">
-        <v>1355.300048828125</v>
+        <v>407.5</v>
       </c>
       <c r="H138" t="n">
-        <v>5794.7998046875</v>
+        <v>5995.2998046875</v>
       </c>
       <c r="I138" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J138" t="n">
-        <v>14.61943202541978</v>
+        <v>20.4251564381006</v>
       </c>
       <c r="K138" t="n">
-        <v>13.50104616641661</v>
+        <v>17.48842873619278</v>
       </c>
       <c r="L138" t="n">
-        <v>15.17176342010498</v>
+        <v>17.8858470916748</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B139" t="n">
         <v>12</v>
@@ -5719,33 +5719,33 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>19.51000022888184</v>
+        <v>20.25</v>
       </c>
       <c r="F139" t="n">
-        <v>3083.5</v>
+        <v>4409.7001953125</v>
       </c>
       <c r="G139" t="n">
-        <v>1374.900024414062</v>
+        <v>418.2999877929688</v>
       </c>
       <c r="H139" t="n">
-        <v>5828</v>
+        <v>6029.7001953125</v>
       </c>
       <c r="I139" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J139" t="n">
-        <v>14.29217924650118</v>
+        <v>19.71763420911294</v>
       </c>
       <c r="K139" t="n">
-        <v>12.94062544885077</v>
+        <v>17.89923746750322</v>
       </c>
       <c r="L139" t="n">
-        <v>13.16460514068604</v>
+        <v>18.40466690063477</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B140" t="n">
         <v>12</v>
@@ -5757,33 +5757,33 @@
         <v>2</v>
       </c>
       <c r="E140" t="n">
-        <v>19.77000045776367</v>
+        <v>20.42000007629395</v>
       </c>
       <c r="F140" t="n">
-        <v>3050.199951171875</v>
+        <v>4576.7001953125</v>
       </c>
       <c r="G140" t="n">
-        <v>1379.300048828125</v>
+        <v>439</v>
       </c>
       <c r="H140" t="n">
-        <v>5851.7001953125</v>
+        <v>6044.89990234375</v>
       </c>
       <c r="I140" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J140" t="n">
-        <v>13.45692859926221</v>
+        <v>19.85010112070608</v>
       </c>
       <c r="K140" t="n">
-        <v>13.42761639420558</v>
+        <v>18.22032959536389</v>
       </c>
       <c r="L140" t="n">
-        <v>13.86444759368896</v>
+        <v>18.54497718811035</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B141" t="n">
         <v>12</v>
@@ -5795,33 +5795,33 @@
         <v>3</v>
       </c>
       <c r="E141" t="n">
-        <v>19.94000053405762</v>
+        <v>20.54000091552734</v>
       </c>
       <c r="F141" t="n">
-        <v>2896.60009765625</v>
+        <v>4559.60009765625</v>
       </c>
       <c r="G141" t="n">
-        <v>1394.5</v>
+        <v>451.3999938964844</v>
       </c>
       <c r="H141" t="n">
-        <v>5858.89990234375</v>
+        <v>6033.7998046875</v>
       </c>
       <c r="I141" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J141" t="n">
-        <v>13.01119169485854</v>
+        <v>19.84361796671097</v>
       </c>
       <c r="K141" t="n">
-        <v>13.04846402916031</v>
+        <v>17.70728590780296</v>
       </c>
       <c r="L141" t="n">
-        <v>11.51877212524414</v>
+        <v>19.18140029907227</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B142" t="n">
         <v>13</v>
@@ -5833,33 +5833,33 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>20.03000068664551</v>
+        <v>20.65999984741211</v>
       </c>
       <c r="F142" t="n">
-        <v>2781.699951171875</v>
+        <v>4151.89990234375</v>
       </c>
       <c r="G142" t="n">
-        <v>1387.400024414062</v>
+        <v>459</v>
       </c>
       <c r="H142" t="n">
-        <v>5827</v>
+        <v>5959</v>
       </c>
       <c r="I142" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J142" t="n">
-        <v>12.83721072932627</v>
+        <v>16.32580219397683</v>
       </c>
       <c r="K142" t="n">
-        <v>14.08730129737856</v>
+        <v>14.58988099144377</v>
       </c>
       <c r="L142" t="n">
-        <v>11.90585899353027</v>
+        <v>15.88562774658203</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B143" t="n">
         <v>13</v>
@@ -5871,33 +5871,33 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>20.05999946594238</v>
+        <v>20.79000091552734</v>
       </c>
       <c r="F143" t="n">
-        <v>2557</v>
+        <v>4047.800048828125</v>
       </c>
       <c r="G143" t="n">
-        <v>1362.5</v>
+        <v>449.7000122070312</v>
       </c>
       <c r="H143" t="n">
-        <v>5787.89990234375</v>
+        <v>5864.7001953125</v>
       </c>
       <c r="I143" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J143" t="n">
-        <v>10.5080859178844</v>
+        <v>14.9245867143721</v>
       </c>
       <c r="K143" t="n">
-        <v>12.78905911705989</v>
+        <v>14.94678189424302</v>
       </c>
       <c r="L143" t="n">
-        <v>10.77114200592041</v>
+        <v>15.96440696716309</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B144" t="n">
         <v>13</v>
@@ -5909,33 +5909,33 @@
         <v>2</v>
       </c>
       <c r="E144" t="n">
-        <v>20.03000068664551</v>
+        <v>20.93000030517578</v>
       </c>
       <c r="F144" t="n">
-        <v>2340.10009765625</v>
+        <v>3997.5</v>
       </c>
       <c r="G144" t="n">
-        <v>1328.300048828125</v>
+        <v>438.8999938964844</v>
       </c>
       <c r="H144" t="n">
-        <v>5741.7001953125</v>
+        <v>5765.7998046875</v>
       </c>
       <c r="I144" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J144" t="n">
-        <v>9.28320482722331</v>
+        <v>14.9245867143721</v>
       </c>
       <c r="K144" t="n">
-        <v>11.0125632145344</v>
+        <v>15.64199348669297</v>
       </c>
       <c r="L144" t="n">
-        <v>9.015607833862305</v>
+        <v>15.81661319732666</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B145" t="n">
         <v>13</v>
@@ -5947,33 +5947,33 @@
         <v>3</v>
       </c>
       <c r="E145" t="n">
-        <v>19.90999984741211</v>
+        <v>20.97999954223633</v>
       </c>
       <c r="F145" t="n">
-        <v>2281.89990234375</v>
+        <v>3865.60009765625</v>
       </c>
       <c r="G145" t="n">
-        <v>1317.5</v>
+        <v>438.2999877929688</v>
       </c>
       <c r="H145" t="n">
-        <v>5695.7998046875</v>
+        <v>5670.60009765625</v>
       </c>
       <c r="I145" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J145" t="n">
-        <v>9.074119332860242</v>
+        <v>14.45223562219781</v>
       </c>
       <c r="K145" t="n">
-        <v>10.66091499120217</v>
+        <v>14.59894040472515</v>
       </c>
       <c r="L145" t="n">
-        <v>9.42691707611084</v>
+        <v>14.00730800628662</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B146" t="n">
         <v>14</v>
@@ -5985,33 +5985,33 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>19.79000091552734</v>
+        <v>21.03000068664551</v>
       </c>
       <c r="F146" t="n">
-        <v>2004.199951171875</v>
+        <v>3737.10009765625</v>
       </c>
       <c r="G146" t="n">
-        <v>1304.400024414062</v>
+        <v>440</v>
       </c>
       <c r="H146" t="n">
-        <v>5652.39990234375</v>
+        <v>5589.7998046875</v>
       </c>
       <c r="I146" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J146" t="n">
-        <v>9.153793036167581</v>
+        <v>14.32997669765887</v>
       </c>
       <c r="K146" t="n">
-        <v>10.63581609415374</v>
+        <v>14.64611536384349</v>
       </c>
       <c r="L146" t="n">
-        <v>8.896421432495117</v>
+        <v>14.32066345214844</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B147" t="n">
         <v>14</v>
@@ -6023,33 +6023,33 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>19.69000053405762</v>
+        <v>21.06999969482422</v>
       </c>
       <c r="F147" t="n">
-        <v>1854.800048828125</v>
+        <v>3535.300048828125</v>
       </c>
       <c r="G147" t="n">
-        <v>1290.400024414062</v>
+        <v>435.5</v>
       </c>
       <c r="H147" t="n">
-        <v>5586.10009765625</v>
+        <v>5506</v>
       </c>
       <c r="I147" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J147" t="n">
-        <v>8.832460959694686</v>
+        <v>14.18973428587637</v>
       </c>
       <c r="K147" t="n">
-        <v>10.45988328444181</v>
+        <v>13.97073557874253</v>
       </c>
       <c r="L147" t="n">
-        <v>8.317530632019043</v>
+        <v>13.07843208312988</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B148" t="n">
         <v>14</v>
@@ -6061,33 +6061,33 @@
         <v>2</v>
       </c>
       <c r="E148" t="n">
-        <v>19.61000061035156</v>
+        <v>21.10000038146973</v>
       </c>
       <c r="F148" t="n">
-        <v>1745.900024414062</v>
+        <v>3416.199951171875</v>
       </c>
       <c r="G148" t="n">
-        <v>1287.599975585938</v>
+        <v>450.2999877929688</v>
       </c>
       <c r="H148" t="n">
-        <v>5530.7001953125</v>
+        <v>5434.7998046875</v>
       </c>
       <c r="I148" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J148" t="n">
-        <v>8.087380947610074</v>
+        <v>13.90013085399305</v>
       </c>
       <c r="K148" t="n">
-        <v>9.494272198878653</v>
+        <v>13.48323666572614</v>
       </c>
       <c r="L148" t="n">
-        <v>7.662511348724365</v>
+        <v>11.62163066864014</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B149" t="n">
         <v>14</v>
@@ -6099,33 +6099,33 @@
         <v>3</v>
       </c>
       <c r="E149" t="n">
-        <v>19.57999992370605</v>
+        <v>21.1299991607666</v>
       </c>
       <c r="F149" t="n">
-        <v>1657.199951171875</v>
+        <v>3172.199951171875</v>
       </c>
       <c r="G149" t="n">
-        <v>1290.300048828125</v>
+        <v>470.1000061035156</v>
       </c>
       <c r="H149" t="n">
-        <v>5480.2998046875</v>
+        <v>5370.7998046875</v>
       </c>
       <c r="I149" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J149" t="n">
-        <v>7.99692332883945</v>
+        <v>13.01102488805907</v>
       </c>
       <c r="K149" t="n">
-        <v>9.413780244505848</v>
+        <v>11.85640791434523</v>
       </c>
       <c r="L149" t="n">
-        <v>7.662074089050293</v>
+        <v>11.01328182220459</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B150" t="n">
         <v>15</v>
@@ -6137,33 +6137,33 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>19.54999923706055</v>
+        <v>21.13999938964844</v>
       </c>
       <c r="F150" t="n">
-        <v>1600.699951171875</v>
+        <v>2869.800048828125</v>
       </c>
       <c r="G150" t="n">
-        <v>1268.300048828125</v>
+        <v>489.3999938964844</v>
       </c>
       <c r="H150" t="n">
-        <v>5462</v>
+        <v>5346.5</v>
       </c>
       <c r="I150" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J150" t="n">
-        <v>7.96319468487629</v>
+        <v>12.17857875773916</v>
       </c>
       <c r="K150" t="n">
-        <v>8.820046744178711</v>
+        <v>10.8477908054681</v>
       </c>
       <c r="L150" t="n">
-        <v>7.651480197906494</v>
+        <v>10.54310321807861</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B151" t="n">
         <v>15</v>
@@ -6175,33 +6175,33 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>19.53000068664551</v>
+        <v>21.11000061035156</v>
       </c>
       <c r="F151" t="n">
-        <v>1506.599975585938</v>
+        <v>2587.10009765625</v>
       </c>
       <c r="G151" t="n">
-        <v>1236.900024414062</v>
+        <v>521.2999877929688</v>
       </c>
       <c r="H151" t="n">
-        <v>5435.2001953125</v>
+        <v>5303.39990234375</v>
       </c>
       <c r="I151" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J151" t="n">
-        <v>7.504666370430586</v>
+        <v>11.89972075122193</v>
       </c>
       <c r="K151" t="n">
-        <v>8.327559559073075</v>
+        <v>10.56407965145127</v>
       </c>
       <c r="L151" t="n">
-        <v>6.61317253112793</v>
+        <v>8.995911598205566</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B152" t="n">
         <v>15</v>
@@ -6213,33 +6213,33 @@
         <v>2</v>
       </c>
       <c r="E152" t="n">
-        <v>19.48999977111816</v>
+        <v>21.04999923706055</v>
       </c>
       <c r="F152" t="n">
-        <v>1450.099975585938</v>
+        <v>2238.39990234375</v>
       </c>
       <c r="G152" t="n">
-        <v>1204.199951171875</v>
+        <v>544.2000122070312</v>
       </c>
       <c r="H152" t="n">
-        <v>5426.2001953125</v>
+        <v>5273.7998046875</v>
       </c>
       <c r="I152" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J152" t="n">
-        <v>7.254520697375633</v>
+        <v>9.028191448940532</v>
       </c>
       <c r="K152" t="n">
-        <v>8.250826324624876</v>
+        <v>8.750157727609404</v>
       </c>
       <c r="L152" t="n">
-        <v>6.430311679840088</v>
+        <v>9.047647476196289</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B153" t="n">
         <v>15</v>
@@ -6251,33 +6251,33 @@
         <v>3</v>
       </c>
       <c r="E153" t="n">
-        <v>19.45000076293945</v>
+        <v>20.97999954223633</v>
       </c>
       <c r="F153" t="n">
-        <v>1300.300048828125</v>
+        <v>1924.900024414062</v>
       </c>
       <c r="G153" t="n">
-        <v>1172.099975585938</v>
+        <v>557.7999877929688</v>
       </c>
       <c r="H153" t="n">
-        <v>5442.10009765625</v>
+        <v>5264.7001953125</v>
       </c>
       <c r="I153" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J153" t="n">
-        <v>5.760779902030993</v>
+        <v>8.699632583340509</v>
       </c>
       <c r="K153" t="n">
-        <v>6.411906954366185</v>
+        <v>8.427292580068716</v>
       </c>
       <c r="L153" t="n">
-        <v>5.127643585205078</v>
+        <v>9.155728340148926</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B154" t="n">
         <v>16</v>
@@ -6289,33 +6289,33 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>19.3700008392334</v>
+        <v>20.88999938964844</v>
       </c>
       <c r="F154" t="n">
-        <v>1086.699951171875</v>
+        <v>1666</v>
       </c>
       <c r="G154" t="n">
-        <v>1125.5</v>
+        <v>565.2000122070312</v>
       </c>
       <c r="H154" t="n">
-        <v>5503.39990234375</v>
+        <v>5294.7998046875</v>
       </c>
       <c r="I154" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J154" t="n">
-        <v>4.976684103425864</v>
+        <v>7.598334286342907</v>
       </c>
       <c r="K154" t="n">
-        <v>4.518834278785026</v>
+        <v>7.327049994312001</v>
       </c>
       <c r="L154" t="n">
-        <v>4.244351387023926</v>
+        <v>6.538434982299805</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B155" t="n">
         <v>16</v>
@@ -6327,33 +6327,33 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>19.26000022888184</v>
+        <v>20.78000068664551</v>
       </c>
       <c r="F155" t="n">
-        <v>895.5999755859375</v>
+        <v>1385.300048828125</v>
       </c>
       <c r="G155" t="n">
-        <v>1074.900024414062</v>
+        <v>571.9000244140625</v>
       </c>
       <c r="H155" t="n">
-        <v>5473</v>
+        <v>5304.5</v>
       </c>
       <c r="I155" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J155" t="n">
-        <v>3.171640571742164</v>
+        <v>7.358994656966401</v>
       </c>
       <c r="K155" t="n">
-        <v>3.128927560012152</v>
+        <v>6.910629934198376</v>
       </c>
       <c r="L155" t="n">
-        <v>3.201915740966797</v>
+        <v>6.136058330535889</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B156" t="n">
         <v>16</v>
@@ -6365,33 +6365,33 @@
         <v>2</v>
       </c>
       <c r="E156" t="n">
-        <v>19.13999938964844</v>
+        <v>20.6299991607666</v>
       </c>
       <c r="F156" t="n">
-        <v>706.7000122070312</v>
+        <v>1091.199951171875</v>
       </c>
       <c r="G156" t="n">
-        <v>1026</v>
+        <v>569.5999755859375</v>
       </c>
       <c r="H156" t="n">
-        <v>5451.5</v>
+        <v>5325</v>
       </c>
       <c r="I156" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J156" t="n">
-        <v>2.917095947267565</v>
+        <v>4.832329489737881</v>
       </c>
       <c r="K156" t="n">
-        <v>2.643824423188882</v>
+        <v>4.172596986723311</v>
       </c>
       <c r="L156" t="n">
-        <v>2.919562339782715</v>
+        <v>3.504643678665161</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B157" t="n">
         <v>16</v>
@@ -6403,33 +6403,33 @@
         <v>3</v>
       </c>
       <c r="E157" t="n">
-        <v>19.02000045776367</v>
+        <v>20.45999908447266</v>
       </c>
       <c r="F157" t="n">
-        <v>499.7999877929688</v>
+        <v>840.5</v>
       </c>
       <c r="G157" t="n">
-        <v>988.5</v>
+        <v>576.5999755859375</v>
       </c>
       <c r="H157" t="n">
-        <v>5437.10009765625</v>
+        <v>5355.60009765625</v>
       </c>
       <c r="I157" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J157" t="n">
-        <v>2.604271306360642</v>
+        <v>3.148022023040389</v>
       </c>
       <c r="K157" t="n">
-        <v>1.952154444350848</v>
+        <v>2.626353049301557</v>
       </c>
       <c r="L157" t="n">
-        <v>2.286464929580688</v>
+        <v>2.131663799285889</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B158" t="n">
         <v>17</v>
@@ -6441,33 +6441,33 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>18.89999961853027</v>
+        <v>20.22999954223633</v>
       </c>
       <c r="F158" t="n">
-        <v>295.7000122070312</v>
+        <v>549.2000122070312</v>
       </c>
       <c r="G158" t="n">
-        <v>943.7999877929688</v>
+        <v>556.2999877929688</v>
       </c>
       <c r="H158" t="n">
-        <v>5456.10009765625</v>
+        <v>5424.7001953125</v>
       </c>
       <c r="I158" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J158" t="n">
-        <v>1.535461925240467</v>
+        <v>2.800494735926087</v>
       </c>
       <c r="K158" t="n">
-        <v>0.9405981235676353</v>
+        <v>1.650209076569186</v>
       </c>
       <c r="L158" t="n">
-        <v>1.055234670639038</v>
+        <v>1.611204743385315</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B159" t="n">
         <v>17</v>
@@ -6479,33 +6479,33 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>18.79000091552734</v>
+        <v>19.96999931335449</v>
       </c>
       <c r="F159" t="n">
-        <v>169.1000061035156</v>
+        <v>326.7999877929688</v>
       </c>
       <c r="G159" t="n">
-        <v>867.5</v>
+        <v>540.2999877929688</v>
       </c>
       <c r="H159" t="n">
-        <v>5513.60009765625</v>
+        <v>5466.89990234375</v>
       </c>
       <c r="I159" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J159" t="n">
-        <v>1.342273395307116</v>
+        <v>2.064917484222752</v>
       </c>
       <c r="K159" t="n">
-        <v>0.7787296860463908</v>
+        <v>0.6934210712644188</v>
       </c>
       <c r="L159" t="n">
-        <v>0.9028612375259399</v>
+        <v>0.5269626975059509</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B160" t="n">
         <v>17</v>
@@ -6517,33 +6517,33 @@
         <v>2</v>
       </c>
       <c r="E160" t="n">
-        <v>18.69000053405762</v>
+        <v>19.70000076293945</v>
       </c>
       <c r="F160" t="n">
-        <v>71.40000152587891</v>
+        <v>154.8999938964844</v>
       </c>
       <c r="G160" t="n">
-        <v>807.4000244140625</v>
+        <v>538</v>
       </c>
       <c r="H160" t="n">
-        <v>5587.60009765625</v>
+        <v>5530.39990234375</v>
       </c>
       <c r="I160" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1311431543313012</v>
+        <v>0.8750824220459313</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1110043453270959</v>
+        <v>0.1305633159028255</v>
       </c>
       <c r="L160" t="n">
-        <v>0.2539243400096893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B161" t="n">
         <v>17</v>
@@ -6555,33 +6555,33 @@
         <v>3</v>
       </c>
       <c r="E161" t="n">
-        <v>18.5</v>
+        <v>19.35000038146973</v>
       </c>
       <c r="F161" t="n">
-        <v>8.399999618530273</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="G161" t="n">
-        <v>744.7000122070312</v>
+        <v>527.5999755859375</v>
       </c>
       <c r="H161" t="n">
-        <v>5679.5</v>
+        <v>5615.5</v>
       </c>
       <c r="I161" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J161" t="n">
-        <v>0.09332058373435323</v>
+        <v>0.1123798898404718</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06489304265080037</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04119408130645752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B162" t="n">
         <v>18</v>
@@ -6593,33 +6593,33 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>18.31999969482422</v>
+        <v>19.07999992370605</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>715.0999755859375</v>
+        <v>518</v>
       </c>
       <c r="H162" t="n">
-        <v>5803.39990234375</v>
+        <v>5731.2998046875</v>
       </c>
       <c r="I162" t="n">
         <v>34.79999923706055</v>
       </c>
       <c r="J162" t="n">
-        <v>0.003319239499598306</v>
+        <v>0.007164025234505635</v>
       </c>
       <c r="K162" t="n">
-        <v>0.02252232489964227</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
-        <v>0.01829702220857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B163" t="n">
         <v>18</v>
@@ -6631,16 +6631,16 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>18.15999984741211</v>
+        <v>18.8700008392334</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>738</v>
+        <v>491.7999877929688</v>
       </c>
       <c r="H163" t="n">
-        <v>5884.7001953125</v>
+        <v>5817.7001953125</v>
       </c>
       <c r="I163" t="n">
         <v>34.79999923706055</v>
@@ -6649,15 +6649,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K163" t="n">
-        <v>0.04958866713530671</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
-        <v>0.01065436750650406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B164" t="n">
         <v>18</v>
@@ -6669,16 +6669,16 @@
         <v>2</v>
       </c>
       <c r="E164" t="n">
-        <v>18.01000022888184</v>
+        <v>18.71999931335449</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>761.5999755859375</v>
+        <v>465.5</v>
       </c>
       <c r="H164" t="n">
-        <v>5957</v>
+        <v>5888.5</v>
       </c>
       <c r="I164" t="n">
         <v>34.79999923706055</v>
@@ -6687,15 +6687,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K164" t="n">
-        <v>0.04958866713530671</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05678615719079971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B165" t="n">
         <v>18</v>
@@ -6707,16 +6707,16 @@
         <v>3</v>
       </c>
       <c r="E165" t="n">
-        <v>17.84000015258789</v>
+        <v>18.59000015258789</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>778.5</v>
+        <v>466.5</v>
       </c>
       <c r="H165" t="n">
-        <v>6006.2998046875</v>
+        <v>5929.60009765625</v>
       </c>
       <c r="I165" t="n">
         <v>34.79999923706055</v>
@@ -6725,15 +6725,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K165" t="n">
-        <v>0.05264073235060458</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05059076100587845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B166" t="n">
         <v>19</v>
@@ -6745,16 +6745,16 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>17.65999984741211</v>
+        <v>18.45000076293945</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>799.5999755859375</v>
+        <v>466.3999938964844</v>
       </c>
       <c r="H166" t="n">
-        <v>5957.39990234375</v>
+        <v>5852.5</v>
       </c>
       <c r="I166" t="n">
         <v>34.79999923706055</v>
@@ -6763,15 +6763,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K166" t="n">
-        <v>0.05264073235060458</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0679137259721756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B167" t="n">
         <v>19</v>
@@ -6783,16 +6783,16 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>17.47999954223633</v>
+        <v>18.30999946594238</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>800.4000244140625</v>
+        <v>458.7999877929688</v>
       </c>
       <c r="H167" t="n">
-        <v>5983.39990234375</v>
+        <v>5867.7001953125</v>
       </c>
       <c r="I167" t="n">
         <v>34.79999923706055</v>
@@ -6801,15 +6801,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K167" t="n">
-        <v>0.05264073235060458</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0679137259721756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B168" t="n">
         <v>19</v>
@@ -6821,16 +6821,16 @@
         <v>2</v>
       </c>
       <c r="E168" t="n">
-        <v>17.29999923706055</v>
+        <v>18.15999984741211</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>787.0999755859375</v>
+        <v>463.2999877929688</v>
       </c>
       <c r="H168" t="n">
-        <v>5963.89990234375</v>
+        <v>5840.2998046875</v>
       </c>
       <c r="I168" t="n">
         <v>34.79999923706055</v>
@@ -6839,15 +6839,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K168" t="n">
-        <v>0.04604434052306186</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1399160027503967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B169" t="n">
         <v>19</v>
@@ -6859,16 +6859,16 @@
         <v>3</v>
       </c>
       <c r="E169" t="n">
-        <v>17.26000022888184</v>
+        <v>18.11000061035156</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>794.2999877929688</v>
+        <v>465.8999938964844</v>
       </c>
       <c r="H169" t="n">
-        <v>5913.89990234375</v>
+        <v>5785.7001953125</v>
       </c>
       <c r="I169" t="n">
         <v>34.79999923706055</v>
@@ -6877,15 +6877,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K169" t="n">
-        <v>0.06936523303906982</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
-        <v>0.2482818365097046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B170" t="n">
         <v>20</v>
@@ -6897,16 +6897,16 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>17.25</v>
+        <v>18.06999969482422</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>764.2999877929688</v>
+        <v>479.5</v>
       </c>
       <c r="H170" t="n">
-        <v>5766.7001953125</v>
+        <v>5657.60009765625</v>
       </c>
       <c r="I170" t="n">
         <v>34.79999923706055</v>
@@ -6915,15 +6915,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07297489347404798</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
-        <v>0.2114780843257904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B171" t="n">
         <v>20</v>
@@ -6935,16 +6935,16 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>17.26000022888184</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>708</v>
+        <v>490.2999877929688</v>
       </c>
       <c r="H171" t="n">
-        <v>5668.2998046875</v>
+        <v>5559.2998046875</v>
       </c>
       <c r="I171" t="n">
         <v>34.79999923706055</v>
@@ -6953,15 +6953,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07297489347404798</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>0.2052826881408691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B172" t="n">
         <v>20</v>
@@ -6973,16 +6973,16 @@
         <v>2</v>
       </c>
       <c r="E172" t="n">
-        <v>17.28000068664551</v>
+        <v>17.98999977111816</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>650.2999877929688</v>
+        <v>514.4000244140625</v>
       </c>
       <c r="H172" t="n">
-        <v>5560</v>
+        <v>5457.60009765625</v>
       </c>
       <c r="I172" t="n">
         <v>34.79999923706055</v>
@@ -6991,15 +6991,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K172" t="n">
-        <v>0.04669827020752795</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2052826881408691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B173" t="n">
         <v>20</v>
@@ -7011,16 +7011,16 @@
         <v>3</v>
       </c>
       <c r="E173" t="n">
-        <v>17.20999908447266</v>
+        <v>17.84000015258789</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>606</v>
+        <v>518.5999755859375</v>
       </c>
       <c r="H173" t="n">
-        <v>5441.10009765625</v>
+        <v>5348.89990234375</v>
       </c>
       <c r="I173" t="n">
         <v>34.79999923706055</v>
@@ -7029,15 +7029,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K173" t="n">
-        <v>0.0233773776915201</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
-        <v>0.2020961046218872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B174" t="n">
         <v>21</v>
@@ -7049,16 +7049,16 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>17.13999938964844</v>
+        <v>17.67000007629395</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>584.2999877929688</v>
+        <v>513.7000122070312</v>
       </c>
       <c r="H174" t="n">
-        <v>5325.2998046875</v>
+        <v>5244.10009765625</v>
       </c>
       <c r="I174" t="n">
         <v>34.79999923706055</v>
@@ -7067,15 +7067,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K174" t="n">
-        <v>0.2634365154916218</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
-        <v>0.2437600046396255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B175" t="n">
         <v>21</v>
@@ -7087,16 +7087,16 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>17.05999946594238</v>
+        <v>17.47999954223633</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>585</v>
+        <v>504.2000122070312</v>
       </c>
       <c r="H175" t="n">
-        <v>5198.89990234375</v>
+        <v>5139.7998046875</v>
       </c>
       <c r="I175" t="n">
         <v>34.79999923706055</v>
@@ -7105,15 +7105,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K175" t="n">
-        <v>0.2634365154916218</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
-        <v>0.2625295221805573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B176" t="n">
         <v>21</v>
@@ -7125,16 +7125,16 @@
         <v>2</v>
       </c>
       <c r="E176" t="n">
-        <v>16.97999954223633</v>
+        <v>17.28000068664551</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>598.2999877929688</v>
+        <v>494</v>
       </c>
       <c r="H176" t="n">
-        <v>5090.39990234375</v>
+        <v>5042.60009765625</v>
       </c>
       <c r="I176" t="n">
         <v>34.79999923706055</v>
@@ -7143,15 +7143,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K176" t="n">
-        <v>0.2634365154916218</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>0.2625295221805573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B177" t="n">
         <v>21</v>
@@ -7163,16 +7163,16 @@
         <v>3</v>
       </c>
       <c r="E177" t="n">
-        <v>16.92000007629395</v>
+        <v>17.11000061035156</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>616.5999755859375</v>
+        <v>486.2000122070312</v>
       </c>
       <c r="H177" t="n">
-        <v>5010.60009765625</v>
+        <v>4963.7001953125</v>
       </c>
       <c r="I177" t="n">
         <v>34.79999923706055</v>
@@ -7181,15 +7181,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K177" t="n">
-        <v>0.2634365154916218</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>0.2625295221805573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B178" t="n">
         <v>22</v>
@@ -7201,16 +7201,16 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>16.85000038146973</v>
+        <v>16.96999931335449</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>614</v>
+        <v>486.2000122070312</v>
       </c>
       <c r="H178" t="n">
-        <v>4971.10009765625</v>
+        <v>4893.60009765625</v>
       </c>
       <c r="I178" t="n">
         <v>34.79999923706055</v>
@@ -7219,15 +7219,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K178" t="n">
-        <v>0.2664885807069197</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
-        <v>0.3086612522602081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B179" t="n">
         <v>22</v>
@@ -7239,16 +7239,16 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>16.79000091552734</v>
+        <v>16.85000038146973</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>583.5</v>
+        <v>511.6000061035156</v>
       </c>
       <c r="H179" t="n">
-        <v>4928</v>
+        <v>4840.89990234375</v>
       </c>
       <c r="I179" t="n">
         <v>34.79999923706055</v>
@@ -7257,15 +7257,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K179" t="n">
-        <v>0.2664885807069197</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
-        <v>0.3086612522602081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B180" t="n">
         <v>22</v>
@@ -7277,16 +7277,16 @@
         <v>2</v>
       </c>
       <c r="E180" t="n">
-        <v>16.70999908447266</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>546.4000244140625</v>
+        <v>537</v>
       </c>
       <c r="H180" t="n">
-        <v>4876.39990234375</v>
+        <v>4786.39990234375</v>
       </c>
       <c r="I180" t="n">
         <v>34.79999923706055</v>
@@ -7295,15 +7295,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K180" t="n">
-        <v>0.2664885807069197</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
-        <v>0.2978290617465973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B181" t="n">
         <v>22</v>
@@ -7315,16 +7315,16 @@
         <v>3</v>
       </c>
       <c r="E181" t="n">
-        <v>16.6200008392334</v>
+        <v>16.65999984741211</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="H181" t="n">
-        <v>4810</v>
+        <v>4728.7998046875</v>
       </c>
       <c r="I181" t="n">
         <v>34.79999923706055</v>
@@ -7333,15 +7333,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K181" t="n">
-        <v>0.5576627640569801</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>0.224019393324852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B182" t="n">
         <v>23</v>
@@ -7353,16 +7353,16 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>16.5</v>
+        <v>16.56999969482422</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>465.7000122070312</v>
+        <v>573</v>
       </c>
       <c r="H182" t="n">
-        <v>4712.39990234375</v>
+        <v>4668.60009765625</v>
       </c>
       <c r="I182" t="n">
         <v>34.79999923706055</v>
@@ -7371,15 +7371,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K182" t="n">
-        <v>0.5546106988416822</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1778876185417175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B183" t="n">
         <v>23</v>
@@ -7391,16 +7391,16 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>16.36000061035156</v>
+        <v>16.5</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>422.2999877929688</v>
+        <v>527.4000244140625</v>
       </c>
       <c r="H183" t="n">
-        <v>4670.5</v>
+        <v>4622.7998046875</v>
       </c>
       <c r="I183" t="n">
         <v>34.79999923706055</v>
@@ -7409,15 +7409,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K183" t="n">
-        <v>0.4807260362419151</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
-        <v>0.224019393324852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B184" t="n">
         <v>23</v>
@@ -7429,16 +7429,16 @@
         <v>2</v>
       </c>
       <c r="E184" t="n">
-        <v>16.20999908447266</v>
+        <v>16.42000007629395</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>410</v>
+        <v>503.7000122070312</v>
       </c>
       <c r="H184" t="n">
-        <v>4625.7001953125</v>
+        <v>4577.2001953125</v>
       </c>
       <c r="I184" t="n">
         <v>34.79999923706055</v>
@@ -7447,15 +7447,15 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K184" t="n">
-        <v>0.4807260362419151</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
-        <v>0.224019393324852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B185" t="n">
         <v>23</v>
@@ -7467,16 +7467,16 @@
         <v>3</v>
       </c>
       <c r="E185" t="n">
-        <v>15.97999954223633</v>
+        <v>16.26000022888184</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>414.5</v>
+        <v>467.2999877929688</v>
       </c>
       <c r="H185" t="n">
-        <v>4573.10009765625</v>
+        <v>4521.60009765625</v>
       </c>
       <c r="I185" t="n">
         <v>34.79999923706055</v>
@@ -7485,10 +7485,10 @@
         <v>0.0006899382215041663</v>
       </c>
       <c r="K185" t="n">
-        <v>0.4807260362419151</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
-        <v>0.08932514488697052</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/predictions_temperature_hour_wind_consumption_capacity_fast.xlsx
+++ b/predictions_temperature_hour_wind_consumption_capacity_fast.xlsx
@@ -1554,7 +1554,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J29" t="n">
-        <v>7.013028628204939</v>
+        <v>7.013028628204938</v>
       </c>
       <c r="K29" t="n">
         <v>6.241586132273726</v>
@@ -1706,7 +1706,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J33" t="n">
-        <v>8.418048963308363</v>
+        <v>8.418048963308362</v>
       </c>
       <c r="K33" t="n">
         <v>7.654660101403666</v>
@@ -2010,7 +2010,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J41" t="n">
-        <v>8.943050559463453</v>
+        <v>8.943050559463455</v>
       </c>
       <c r="K41" t="n">
         <v>9.534707250758185</v>
@@ -2238,7 +2238,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J47" t="n">
-        <v>8.892946124578939</v>
+        <v>8.892946124578938</v>
       </c>
       <c r="K47" t="n">
         <v>9.232780381677934</v>
@@ -2390,7 +2390,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J51" t="n">
-        <v>8.17390039653816</v>
+        <v>8.173900396538162</v>
       </c>
       <c r="K51" t="n">
         <v>9.073875281817415</v>
@@ -2466,7 +2466,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J53" t="n">
-        <v>6.407512332606911</v>
+        <v>6.407512332606912</v>
       </c>
       <c r="K53" t="n">
         <v>7.003143495716242</v>
@@ -2542,7 +2542,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J55" t="n">
-        <v>5.095757689672199</v>
+        <v>5.0957576896722</v>
       </c>
       <c r="K55" t="n">
         <v>4.831509590431649</v>
@@ -3872,7 +3872,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J90" t="n">
-        <v>0.001043798719229868</v>
+        <v>0.001043798719229867</v>
       </c>
       <c r="K90" t="n">
         <v>0.07521570354893242</v>
@@ -3910,7 +3910,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J91" t="n">
-        <v>0.001043798719229868</v>
+        <v>0.001043798719229867</v>
       </c>
       <c r="K91" t="n">
         <v>0.07521570354893242</v>
@@ -3948,7 +3948,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J92" t="n">
-        <v>0.001043798719229868</v>
+        <v>0.001043798719229867</v>
       </c>
       <c r="K92" t="n">
         <v>0.07521570354893242</v>
@@ -3986,7 +3986,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J93" t="n">
-        <v>0.001043798719229868</v>
+        <v>0.001043798719229867</v>
       </c>
       <c r="K93" t="n">
         <v>0.09853659606494036</v>
@@ -4974,7 +4974,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J119" t="n">
-        <v>0.7271171677397826</v>
+        <v>0.7271171677397827</v>
       </c>
       <c r="K119" t="n">
         <v>0.8738240345586925</v>
@@ -5164,7 +5164,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J124" t="n">
-        <v>6.739427184974056</v>
+        <v>6.739427184974057</v>
       </c>
       <c r="K124" t="n">
         <v>5.525322495330943</v>
@@ -6304,7 +6304,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J154" t="n">
-        <v>7.598334286342907</v>
+        <v>7.598334286342908</v>
       </c>
       <c r="K154" t="n">
         <v>7.327049994312001</v>
@@ -6532,7 +6532,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J160" t="n">
-        <v>0.8750824220459313</v>
+        <v>0.8750824220459312</v>
       </c>
       <c r="K160" t="n">
         <v>0.1305633159028255</v>

--- a/predictions_temperature_hour_wind_consumption_capacity_fast.xlsx
+++ b/predictions_temperature_hour_wind_consumption_capacity_fast.xlsx
@@ -528,7 +528,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K2" t="n">
         <v>0.1630444949952548</v>
@@ -566,7 +566,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K3" t="n">
         <v>0.1630444949952548</v>
@@ -604,7 +604,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K4" t="n">
         <v>0.1630444949952548</v>
@@ -642,7 +642,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K5" t="n">
         <v>0.1630444949952548</v>
@@ -680,7 +680,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K6" t="n">
         <v>0.147535964660125</v>
@@ -718,7 +718,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K7" t="n">
         <v>0.147535964660125</v>
@@ -756,7 +756,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K8" t="n">
         <v>0.1734131593532874</v>
@@ -794,7 +794,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K9" t="n">
         <v>0.1367678717287347</v>
@@ -832,7 +832,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K10" t="n">
         <v>0.1367678717287347</v>
@@ -870,7 +870,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K11" t="n">
         <v>0.1367678717287347</v>
@@ -908,7 +908,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K12" t="n">
         <v>0.1367678717287347</v>
@@ -946,7 +946,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K13" t="n">
         <v>0.1367678717287347</v>
@@ -984,7 +984,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K14" t="n">
         <v>0.4248899898634974</v>
@@ -1022,7 +1022,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K15" t="n">
         <v>0.4248899898634974</v>
@@ -1060,7 +1060,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K16" t="n">
         <v>0.4248899898634974</v>
@@ -1098,7 +1098,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K17" t="n">
         <v>0.4015690973474895</v>
@@ -1136,7 +1136,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K18" t="n">
         <v>0.4248899898634974</v>
@@ -1174,7 +1174,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K19" t="n">
         <v>0.4248899898634974</v>
@@ -1706,7 +1706,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J33" t="n">
-        <v>8.418048963308362</v>
+        <v>8.418048963308363</v>
       </c>
       <c r="K33" t="n">
         <v>7.654660101403666</v>
@@ -1782,7 +1782,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J35" t="n">
-        <v>9.58602174757017</v>
+        <v>9.586021747570173</v>
       </c>
       <c r="K35" t="n">
         <v>7.673348528063412</v>
@@ -2466,7 +2466,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J53" t="n">
-        <v>6.407512332606912</v>
+        <v>6.407512332606911</v>
       </c>
       <c r="K53" t="n">
         <v>7.003143495716242</v>
@@ -2580,7 +2580,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J56" t="n">
-        <v>3.224145156879027</v>
+        <v>3.224145156879028</v>
       </c>
       <c r="K56" t="n">
         <v>3.555023552084962</v>
@@ -2998,7 +2998,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K67" t="n">
         <v>0.1702526201984927</v>
@@ -3036,7 +3036,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J68" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K68" t="n">
         <v>0.1733046854137905</v>
@@ -3074,7 +3074,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K69" t="n">
         <v>0.1733046854137905</v>
@@ -3112,7 +3112,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J70" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K70" t="n">
         <v>0.1733046854137905</v>
@@ -3150,7 +3150,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K71" t="n">
         <v>0.1733046854137905</v>
@@ -3188,7 +3188,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K72" t="n">
         <v>0.1667082935862478</v>
@@ -3226,7 +3226,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K73" t="n">
         <v>0.1900291861022558</v>
@@ -3264,7 +3264,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J74" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K74" t="n">
         <v>0.1673622232707139</v>
@@ -3302,7 +3302,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K75" t="n">
         <v>0.1673622232707139</v>
@@ -3340,7 +3340,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K76" t="n">
         <v>0.1673622232707139</v>
@@ -3378,7 +3378,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K77" t="n">
         <v>0.144041330754706</v>
@@ -3416,7 +3416,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K78" t="n">
         <v>0.144041330754706</v>
@@ -3454,7 +3454,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K79" t="n">
         <v>0.144041330754706</v>
@@ -3492,7 +3492,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K80" t="n">
         <v>0.3841004685548077</v>
@@ -3530,7 +3530,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K81" t="n">
         <v>0.6985955444208761</v>
@@ -3568,7 +3568,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K82" t="n">
         <v>0.6752746519048682</v>
@@ -3606,7 +3606,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K83" t="n">
         <v>0.6783267171201661</v>
@@ -3644,7 +3644,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K84" t="n">
         <v>0.6783267171201661</v>
@@ -3682,7 +3682,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K85" t="n">
         <v>0.6752746519048682</v>
@@ -3720,7 +3720,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K86" t="n">
         <v>0.5816353315270277</v>
@@ -3758,7 +3758,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K87" t="n">
         <v>0.5846873967423256</v>
@@ -3796,7 +3796,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K88" t="n">
         <v>0.5846873967423256</v>
@@ -3834,7 +3834,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K89" t="n">
         <v>0.4864141731805759</v>
@@ -4024,7 +4024,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K94" t="n">
         <v>0.0273544347344466</v>
@@ -4062,7 +4062,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K95" t="n">
         <v>0.0273544347344466</v>
@@ -4100,7 +4100,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K96" t="n">
         <v>0.0273544347344466</v>
@@ -4138,7 +4138,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K97" t="n">
         <v>0.004033542218438741</v>
@@ -4176,7 +4176,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -4214,7 +4214,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K99" t="n">
         <v>0.2170409045276589</v>
@@ -4252,7 +4252,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K100" t="n">
         <v>0.2170409045276589</v>
@@ -4290,7 +4290,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K101" t="n">
         <v>0.1042262800483036</v>
@@ -4328,7 +4328,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K102" t="n">
         <v>0.2403617970436669</v>
@@ -4366,7 +4366,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K103" t="n">
         <v>0.2403617970436669</v>
@@ -4404,7 +4404,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K104" t="n">
         <v>0.2771154506681242</v>
@@ -4442,7 +4442,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K105" t="n">
         <v>0.140979933672761</v>
@@ -4480,7 +4480,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K106" t="n">
         <v>0.2771154506681242</v>
@@ -4518,7 +4518,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K107" t="n">
         <v>0.2771154506681242</v>
@@ -4556,7 +4556,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K108" t="n">
         <v>0.2771154506681242</v>
@@ -4594,7 +4594,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K109" t="n">
         <v>0.140979933672761</v>
@@ -4632,7 +4632,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K110" t="n">
         <v>0.2771154506681242</v>
@@ -4670,7 +4670,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K111" t="n">
         <v>0.140979933672761</v>
@@ -4708,7 +4708,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K112" t="n">
         <v>0.140979933672761</v>
@@ -4746,7 +4746,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K113" t="n">
         <v>0.140979933672761</v>
@@ -4822,7 +4822,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K115" t="n">
         <v>0.1176590411567531</v>
@@ -4860,7 +4860,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K116" t="n">
         <v>0.149006709880781</v>
@@ -5088,7 +5088,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J122" t="n">
-        <v>3.093191622880213</v>
+        <v>3.093191622880212</v>
       </c>
       <c r="K122" t="n">
         <v>3.007808834239423</v>
@@ -6646,7 +6646,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -6684,7 +6684,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -6722,7 +6722,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -6760,7 +6760,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K167" t="n">
         <v>0</v>
@@ -6836,7 +6836,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J168" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K168" t="n">
         <v>0</v>
@@ -6874,7 +6874,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K169" t="n">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K170" t="n">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K171" t="n">
         <v>0</v>
@@ -6988,7 +6988,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
@@ -7026,7 +7026,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
@@ -7064,7 +7064,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K174" t="n">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K175" t="n">
         <v>0</v>
@@ -7140,7 +7140,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
@@ -7178,7 +7178,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K177" t="n">
         <v>0</v>
@@ -7216,7 +7216,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -7254,7 +7254,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
@@ -7330,7 +7330,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
@@ -7368,7 +7368,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -7406,7 +7406,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -7444,7 +7444,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K184" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0006899382215041663</v>
+        <v>0.0006899382215041662</v>
       </c>
       <c r="K185" t="n">
         <v>0</v>

--- a/predictions_temperature_hour_wind_consumption_capacity_fast.xlsx
+++ b/predictions_temperature_hour_wind_consumption_capacity_fast.xlsx
@@ -528,7 +528,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K2" t="n">
         <v>0.1630444949952548</v>
@@ -566,7 +566,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K3" t="n">
         <v>0.1630444949952548</v>
@@ -604,7 +604,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K4" t="n">
         <v>0.1630444949952548</v>
@@ -642,7 +642,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K5" t="n">
         <v>0.1630444949952548</v>
@@ -680,7 +680,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K6" t="n">
         <v>0.147535964660125</v>
@@ -718,7 +718,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K7" t="n">
         <v>0.147535964660125</v>
@@ -756,7 +756,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K8" t="n">
         <v>0.1734131593532874</v>
@@ -794,7 +794,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K9" t="n">
         <v>0.1367678717287347</v>
@@ -832,7 +832,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K10" t="n">
         <v>0.1367678717287347</v>
@@ -870,7 +870,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K11" t="n">
         <v>0.1367678717287347</v>
@@ -908,7 +908,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K12" t="n">
         <v>0.1367678717287347</v>
@@ -946,7 +946,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K13" t="n">
         <v>0.1367678717287347</v>
@@ -984,7 +984,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K14" t="n">
         <v>0.4248899898634974</v>
@@ -1022,7 +1022,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K15" t="n">
         <v>0.4248899898634974</v>
@@ -1060,7 +1060,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K16" t="n">
         <v>0.4248899898634974</v>
@@ -1098,7 +1098,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K17" t="n">
         <v>0.4015690973474895</v>
@@ -1136,7 +1136,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K18" t="n">
         <v>0.4248899898634974</v>
@@ -1174,7 +1174,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K19" t="n">
         <v>0.4248899898634974</v>
@@ -1250,7 +1250,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01417977115662252</v>
+        <v>0.01417977115662253</v>
       </c>
       <c r="K21" t="n">
         <v>0.4328561088808108</v>
@@ -1706,7 +1706,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J33" t="n">
-        <v>8.418048963308363</v>
+        <v>8.418048963308362</v>
       </c>
       <c r="K33" t="n">
         <v>7.654660101403666</v>
@@ -1782,7 +1782,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J35" t="n">
-        <v>9.586021747570173</v>
+        <v>9.58602174757017</v>
       </c>
       <c r="K35" t="n">
         <v>7.673348528063412</v>
@@ -2010,7 +2010,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J41" t="n">
-        <v>8.943050559463455</v>
+        <v>8.943050559463453</v>
       </c>
       <c r="K41" t="n">
         <v>9.534707250758185</v>
@@ -2238,7 +2238,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J47" t="n">
-        <v>8.892946124578938</v>
+        <v>8.892946124578939</v>
       </c>
       <c r="K47" t="n">
         <v>9.232780381677934</v>
@@ -2428,7 +2428,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J52" t="n">
-        <v>7.628023893668888</v>
+        <v>7.62802389366889</v>
       </c>
       <c r="K52" t="n">
         <v>8.350008308840724</v>
@@ -2466,7 +2466,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J53" t="n">
-        <v>6.407512332606911</v>
+        <v>6.407512332606912</v>
       </c>
       <c r="K53" t="n">
         <v>7.003143495716242</v>
@@ -2504,7 +2504,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J54" t="n">
-        <v>5.551999431428217</v>
+        <v>5.551999431428218</v>
       </c>
       <c r="K54" t="n">
         <v>5.495970465262175</v>
@@ -2580,7 +2580,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J56" t="n">
-        <v>3.224145156879028</v>
+        <v>3.224145156879027</v>
       </c>
       <c r="K56" t="n">
         <v>3.555023552084962</v>
@@ -2998,7 +2998,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K67" t="n">
         <v>0.1702526201984927</v>
@@ -3036,7 +3036,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J68" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K68" t="n">
         <v>0.1733046854137905</v>
@@ -3074,7 +3074,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K69" t="n">
         <v>0.1733046854137905</v>
@@ -3112,7 +3112,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J70" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K70" t="n">
         <v>0.1733046854137905</v>
@@ -3150,7 +3150,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K71" t="n">
         <v>0.1733046854137905</v>
@@ -3188,7 +3188,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K72" t="n">
         <v>0.1667082935862478</v>
@@ -3226,7 +3226,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K73" t="n">
         <v>0.1900291861022558</v>
@@ -3264,7 +3264,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J74" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K74" t="n">
         <v>0.1673622232707139</v>
@@ -3302,7 +3302,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K75" t="n">
         <v>0.1673622232707139</v>
@@ -3340,7 +3340,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K76" t="n">
         <v>0.1673622232707139</v>
@@ -3378,7 +3378,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K77" t="n">
         <v>0.144041330754706</v>
@@ -3416,7 +3416,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K78" t="n">
         <v>0.144041330754706</v>
@@ -3454,7 +3454,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K79" t="n">
         <v>0.144041330754706</v>
@@ -3492,7 +3492,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K80" t="n">
         <v>0.3841004685548077</v>
@@ -3530,7 +3530,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K81" t="n">
         <v>0.6985955444208761</v>
@@ -3568,7 +3568,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K82" t="n">
         <v>0.6752746519048682</v>
@@ -3606,7 +3606,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K83" t="n">
         <v>0.6783267171201661</v>
@@ -3644,7 +3644,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K84" t="n">
         <v>0.6783267171201661</v>
@@ -3682,7 +3682,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K85" t="n">
         <v>0.6752746519048682</v>
@@ -3720,7 +3720,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K86" t="n">
         <v>0.5816353315270277</v>
@@ -3758,7 +3758,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K87" t="n">
         <v>0.5846873967423256</v>
@@ -3796,7 +3796,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K88" t="n">
         <v>0.5846873967423256</v>
@@ -3834,7 +3834,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K89" t="n">
         <v>0.4864141731805759</v>
@@ -3872,7 +3872,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J90" t="n">
-        <v>0.001043798719229867</v>
+        <v>0.001043798719229868</v>
       </c>
       <c r="K90" t="n">
         <v>0.07521570354893242</v>
@@ -3910,7 +3910,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J91" t="n">
-        <v>0.001043798719229867</v>
+        <v>0.001043798719229868</v>
       </c>
       <c r="K91" t="n">
         <v>0.07521570354893242</v>
@@ -3948,7 +3948,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J92" t="n">
-        <v>0.001043798719229867</v>
+        <v>0.001043798719229868</v>
       </c>
       <c r="K92" t="n">
         <v>0.07521570354893242</v>
@@ -3986,7 +3986,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J93" t="n">
-        <v>0.001043798719229867</v>
+        <v>0.001043798719229868</v>
       </c>
       <c r="K93" t="n">
         <v>0.09853659606494036</v>
@@ -4024,7 +4024,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K94" t="n">
         <v>0.0273544347344466</v>
@@ -4062,7 +4062,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K95" t="n">
         <v>0.0273544347344466</v>
@@ -4100,7 +4100,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K96" t="n">
         <v>0.0273544347344466</v>
@@ -4138,7 +4138,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K97" t="n">
         <v>0.004033542218438741</v>
@@ -4176,7 +4176,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -4214,7 +4214,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K99" t="n">
         <v>0.2170409045276589</v>
@@ -4252,7 +4252,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K100" t="n">
         <v>0.2170409045276589</v>
@@ -4290,7 +4290,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K101" t="n">
         <v>0.1042262800483036</v>
@@ -4328,7 +4328,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K102" t="n">
         <v>0.2403617970436669</v>
@@ -4366,7 +4366,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K103" t="n">
         <v>0.2403617970436669</v>
@@ -4404,7 +4404,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K104" t="n">
         <v>0.2771154506681242</v>
@@ -4442,7 +4442,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K105" t="n">
         <v>0.140979933672761</v>
@@ -4480,7 +4480,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K106" t="n">
         <v>0.2771154506681242</v>
@@ -4518,7 +4518,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K107" t="n">
         <v>0.2771154506681242</v>
@@ -4556,7 +4556,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K108" t="n">
         <v>0.2771154506681242</v>
@@ -4594,7 +4594,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K109" t="n">
         <v>0.140979933672761</v>
@@ -4632,7 +4632,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K110" t="n">
         <v>0.2771154506681242</v>
@@ -4670,7 +4670,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K111" t="n">
         <v>0.140979933672761</v>
@@ -4708,7 +4708,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K112" t="n">
         <v>0.140979933672761</v>
@@ -4746,7 +4746,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K113" t="n">
         <v>0.140979933672761</v>
@@ -4822,7 +4822,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K115" t="n">
         <v>0.1176590411567531</v>
@@ -4860,7 +4860,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K116" t="n">
         <v>0.149006709880781</v>
@@ -4898,7 +4898,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J117" t="n">
-        <v>0.008495626963436509</v>
+        <v>0.00849562696343651</v>
       </c>
       <c r="K117" t="n">
         <v>0.1653599694164789</v>
@@ -5088,7 +5088,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J122" t="n">
-        <v>3.093191622880212</v>
+        <v>3.093191622880213</v>
       </c>
       <c r="K122" t="n">
         <v>3.007808834239423</v>
@@ -5696,7 +5696,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J138" t="n">
-        <v>20.4251564381006</v>
+        <v>20.42515643810061</v>
       </c>
       <c r="K138" t="n">
         <v>17.48842873619278</v>
@@ -6304,7 +6304,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J154" t="n">
-        <v>7.598334286342908</v>
+        <v>7.598334286342907</v>
       </c>
       <c r="K154" t="n">
         <v>7.327049994312001</v>
@@ -6342,7 +6342,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J155" t="n">
-        <v>7.358994656966401</v>
+        <v>7.3589946569664</v>
       </c>
       <c r="K155" t="n">
         <v>6.910629934198376</v>
@@ -6532,7 +6532,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J160" t="n">
-        <v>0.8750824220459312</v>
+        <v>0.8750824220459313</v>
       </c>
       <c r="K160" t="n">
         <v>0.1305633159028255</v>
@@ -6646,7 +6646,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -6684,7 +6684,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -6722,7 +6722,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -6760,7 +6760,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K167" t="n">
         <v>0</v>
@@ -6836,7 +6836,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J168" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K168" t="n">
         <v>0</v>
@@ -6874,7 +6874,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K169" t="n">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K170" t="n">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K171" t="n">
         <v>0</v>
@@ -6988,7 +6988,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
@@ -7026,7 +7026,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
@@ -7064,7 +7064,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K174" t="n">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K175" t="n">
         <v>0</v>
@@ -7140,7 +7140,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
@@ -7178,7 +7178,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K177" t="n">
         <v>0</v>
@@ -7216,7 +7216,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -7254,7 +7254,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
@@ -7330,7 +7330,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
@@ -7368,7 +7368,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -7406,7 +7406,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -7444,7 +7444,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K184" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>34.79999923706055</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0006899382215041662</v>
+        <v>0.0006899382215041663</v>
       </c>
       <c r="K185" t="n">
         <v>0</v>
